--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D493A2D8-39D8-4329-ADD5-337C2B9859C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C094B4C0-1081-43FA-B86D-55DF567B8773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="cobertura" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -370,6 +370,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,7 +380,97 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -398,38 +489,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -464,80 +523,10 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -574,6 +563,108 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -819,36 +910,6 @@
           <color theme="4" tint="-0.499984740745262"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -937,7 +998,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>29/06/2025</a:t>
+            <a:t>01/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1411,7 +1472,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>29,71%</a:t>
+            <a:t>32,82%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2291,6 +2352,7 @@
       <sheetName val="NOVA CARTEIRA"/>
       <sheetName val="ATENDIDOS 2025"/>
       <sheetName val="Ausentes (3)"/>
+      <sheetName val="Planilha7"/>
       <sheetName val="cobertura"/>
       <sheetName val="Ausentes"/>
       <sheetName val="Planilha6"/>
@@ -2314,40 +2376,41 @@
       <sheetName val="Planilha5"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
-            <v>7355</v>
+            <v>7144</v>
           </cell>
           <cell r="E23">
-            <v>1233</v>
+            <v>1227</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2370,26 +2433,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="A8:M59" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="18">
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="16" totalsRowDxfId="12" dataCellStyle="Normal">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="15" totalsRowDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="14" totalsRowDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="13" totalsRowDxfId="9">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo de Carteira]]*80%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2697,8 +2760,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,7 +2795,7 @@
       <c r="M2" s="26"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45837</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2750,41 +2813,41 @@
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>4.8181576851606053E-2</v>
+        <v>4.1603526656564263E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>2.4555349084151846E-2</v>
+        <v>2.5898884143821462E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.3626227767454207E-2</v>
+        <v>2.4521283923405426E-2</v>
       </c>
       <c r="J5" s="28">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.12948317847601484</v>
+        <v>-0.15651579335359697</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="2">
         <f>SUBTOTAL(9,Tabela1[Carteira])</f>
-        <v>7534</v>
+        <v>7259</v>
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
@@ -2792,15 +2855,15 @@
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7356</v>
+        <v>7145</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="J6" s="28">
         <f>I6/H6</f>
-        <v>0.16761827079934746</v>
+        <v>0.17172848145556333</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
@@ -2877,11 +2940,10 @@
         <v>9902</v>
       </c>
       <c r="D9" s="8">
-        <f>252-27</f>
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="E9" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -2891,14 +2953,14 @@
       </c>
       <c r="H9" s="8">
         <f>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="I9" s="8">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ref="J9:J59" si="0">I9/H9</f>
-        <v>0.15981735159817351</v>
+        <v>9.420289855072464E-2</v>
       </c>
       <c r="K9" s="10">
         <v>14.92</v>
@@ -2906,7 +2968,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>175.20000000000002</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2924,7 +2986,7 @@
         <v>175</v>
       </c>
       <c r="E10" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F10" s="8">
         <v>5</v>
@@ -2934,14 +2996,14 @@
       </c>
       <c r="H10" s="8">
         <f>D10-E10+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I10" s="8">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.22500000000000001</v>
+        <v>0.29878048780487804</v>
       </c>
       <c r="K10" s="10">
         <v>12.53</v>
@@ -2949,7 +3011,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>128</v>
+        <v>131.20000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2967,7 +3029,7 @@
         <v>111</v>
       </c>
       <c r="E11" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
@@ -2977,14 +3039,14 @@
       </c>
       <c r="H11" s="8">
         <f>D11-E11+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I11" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>0.22857142857142856</v>
+        <v>0.23584905660377359</v>
       </c>
       <c r="K11" s="10">
         <v>12.53</v>
@@ -2992,7 +3054,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>84</v>
+        <v>84.800000000000011</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3010,7 +3072,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="8">
         <v>11</v>
@@ -3020,14 +3082,14 @@
       </c>
       <c r="H12" s="8">
         <f>D12-E12+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I12" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0.32972972972972975</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K12" s="10">
         <v>7.87</v>
@@ -3035,7 +3097,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>148</v>
+        <v>148.80000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3053,7 +3115,7 @@
         <v>145</v>
       </c>
       <c r="E13" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="8">
         <v>3</v>
@@ -3063,14 +3125,14 @@
       </c>
       <c r="H13" s="8">
         <f>D13-E13+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I13" s="8">
         <v>16</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>0.11347517730496454</v>
+        <v>0.11188811188811189</v>
       </c>
       <c r="K13" s="10">
         <v>8.75</v>
@@ -3078,7 +3140,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112.80000000000001</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,7 +3159,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -3107,14 +3169,14 @@
       </c>
       <c r="H14" s="8">
         <f>D14-E14+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I14" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>0.27049180327868855</v>
+        <v>0.27642276422764228</v>
       </c>
       <c r="K14" s="10">
         <v>12.4</v>
@@ -3122,7 +3184,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>97.600000000000009</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3153,11 +3215,11 @@
         <v>146</v>
       </c>
       <c r="I15" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>0.13013698630136986</v>
+        <v>0.16438356164383561</v>
       </c>
       <c r="K15" s="10">
         <v>11.9</v>
@@ -3186,21 +3248,21 @@
         <v>10</v>
       </c>
       <c r="F16" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="14">
         <v>2</v>
       </c>
       <c r="H16" s="8">
         <f>D16-E16+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I16" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>0.28846153846153844</v>
+        <v>0.29523809523809524</v>
       </c>
       <c r="K16" s="10">
         <v>4.76</v>
@@ -3208,7 +3270,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>83.2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3226,7 +3288,7 @@
         <v>64</v>
       </c>
       <c r="E17" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
@@ -3236,14 +3298,14 @@
       </c>
       <c r="H17" s="8">
         <f>D17-E17+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I17" s="8">
         <v>14</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>0.21875</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="K17" s="10">
         <v>6.17</v>
@@ -3251,7 +3313,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>51.2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3282,11 +3344,11 @@
         <v>224</v>
       </c>
       <c r="I18" s="8">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.26339285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K18" s="10">
         <v>10.050000000000001</v>
@@ -3312,7 +3374,7 @@
         <v>93</v>
       </c>
       <c r="E19" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="8">
         <v>4</v>
@@ -3322,14 +3384,14 @@
       </c>
       <c r="H19" s="8">
         <f>D19-E19+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" s="8">
         <v>30</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>0.32258064516129031</v>
+        <v>0.31914893617021278</v>
       </c>
       <c r="K19" s="10">
         <v>4.4800000000000004</v>
@@ -3337,7 +3399,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>74.400000000000006</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3412,11 +3474,11 @@
         <v>155</v>
       </c>
       <c r="I21" s="8">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>0.36774193548387096</v>
+        <v>0.16774193548387098</v>
       </c>
       <c r="K21" s="10">
         <v>11.67</v>
@@ -3442,24 +3504,24 @@
         <v>159</v>
       </c>
       <c r="E22" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="14">
         <v>4</v>
       </c>
       <c r="H22" s="8">
         <f>D22-E22+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I22" s="8">
         <v>16</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="0"/>
-        <v>0.1038961038961039</v>
+        <v>0.10191082802547771</v>
       </c>
       <c r="K22" s="10">
         <v>4.82</v>
@@ -3467,7 +3529,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>123.2</v>
+        <v>125.60000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3486,7 +3548,7 @@
         <v>158</v>
       </c>
       <c r="E23" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F23" s="8">
         <v>8</v>
@@ -3496,14 +3558,14 @@
       </c>
       <c r="H23" s="8">
         <f>D23-E23+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I23" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.18064516129032257</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="K23" s="10">
         <v>7.5</v>
@@ -3511,7 +3573,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>124</v>
+        <v>126.4</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3529,7 +3591,7 @@
         <v>229</v>
       </c>
       <c r="E24" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F24" s="8">
         <v>11</v>
@@ -3539,14 +3601,14 @@
       </c>
       <c r="H24" s="8">
         <f>D24-E24+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I24" s="8">
         <v>49</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="0"/>
-        <v>0.21973094170403587</v>
+        <v>0.21777777777777776</v>
       </c>
       <c r="K24" s="10">
         <v>9.52</v>
@@ -3554,7 +3616,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>178.4</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3572,7 +3634,7 @@
         <v>106</v>
       </c>
       <c r="E25" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -3582,14 +3644,14 @@
       </c>
       <c r="H25" s="8">
         <f>D25-E25+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I25" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J25" s="12">
         <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.28712871287128711</v>
       </c>
       <c r="K25" s="10">
         <v>7.29</v>
@@ -3597,7 +3659,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>80</v>
+        <v>80.800000000000011</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3616,7 +3678,7 @@
         <v>91</v>
       </c>
       <c r="E26" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="8">
         <v>0</v>
@@ -3626,14 +3688,14 @@
       </c>
       <c r="H26" s="8">
         <f>D26-E26+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I26" s="8">
         <v>12</v>
       </c>
       <c r="J26" s="12">
         <f t="shared" si="0"/>
-        <v>0.13636363636363635</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="K26" s="10">
         <v>7.29</v>
@@ -3641,7 +3703,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>70.400000000000006</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3659,7 +3721,7 @@
         <v>119</v>
       </c>
       <c r="E27" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="8">
         <v>5</v>
@@ -3669,14 +3731,14 @@
       </c>
       <c r="H27" s="8">
         <f>D27-E27+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I27" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.2032520325203252</v>
+        <v>0.21311475409836064</v>
       </c>
       <c r="K27" s="10">
         <v>8.33</v>
@@ -3684,7 +3746,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>98.4</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3701,7 +3763,7 @@
         <v>178</v>
       </c>
       <c r="E28" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F28" s="8">
         <v>5</v>
@@ -3711,14 +3773,14 @@
       </c>
       <c r="H28" s="8">
         <f>D28-E28+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I28" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>0.30057803468208094</v>
+        <v>0.29943502824858759</v>
       </c>
       <c r="K28" s="10">
         <v>7.33</v>
@@ -3726,7 +3788,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>138.4</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3744,7 +3806,7 @@
         <v>127</v>
       </c>
       <c r="E29" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" s="8">
         <v>0</v>
@@ -3754,14 +3816,14 @@
       </c>
       <c r="H29" s="8">
         <f>D29-E29+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I29" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>8.943089430894309E-2</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="K29" s="10">
         <v>11</v>
@@ -3769,7 +3831,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>98.4</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3787,24 +3849,24 @@
         <v>257</v>
       </c>
       <c r="E30" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F30" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" s="14">
         <v>1</v>
       </c>
       <c r="H30" s="8">
         <f>D30-E30+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I30" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>3.968253968253968E-2</v>
+        <v>4.296875E-2</v>
       </c>
       <c r="K30" s="10">
         <v>7.5</v>
@@ -3812,7 +3874,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>201.60000000000002</v>
+        <v>204.8</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3830,7 +3892,7 @@
         <v>140</v>
       </c>
       <c r="E31" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -3840,14 +3902,14 @@
       </c>
       <c r="H31" s="8">
         <f>D31-E31+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I31" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
+        <v>0.2814814814814815</v>
       </c>
       <c r="K31" s="10">
         <v>6.54</v>
@@ -3855,7 +3917,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>106.4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3873,7 +3935,7 @@
         <v>117</v>
       </c>
       <c r="E32" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -3883,14 +3945,14 @@
       </c>
       <c r="H32" s="8">
         <f>D32-E32+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I32" s="8">
         <v>10</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" si="0"/>
-        <v>9.0090090090090086E-2</v>
+        <v>9.1743119266055051E-2</v>
       </c>
       <c r="K32" s="10">
         <v>16.13</v>
@@ -3898,7 +3960,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>88.800000000000011</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3959,7 +4021,7 @@
         <v>177</v>
       </c>
       <c r="E34" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34" s="8">
         <v>5</v>
@@ -3969,14 +4031,14 @@
       </c>
       <c r="H34" s="8">
         <f>D34-E34+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I34" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="0"/>
-        <v>0.22857142857142856</v>
+        <v>0.2303370786516854</v>
       </c>
       <c r="K34" s="10">
         <v>6.59</v>
@@ -3984,7 +4046,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>140</v>
+        <v>142.4</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4002,7 +4064,7 @@
         <v>122</v>
       </c>
       <c r="E35" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F35" s="8">
         <v>1</v>
@@ -4012,14 +4074,14 @@
       </c>
       <c r="H35" s="8">
         <f>D35-E35+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I35" s="8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.31858407079646017</v>
+        <v>0.33620689655172414</v>
       </c>
       <c r="K35" s="10">
         <v>8.8699999999999992</v>
@@ -4027,7 +4089,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>90.4</v>
+        <v>92.800000000000011</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4045,7 +4107,7 @@
         <v>272</v>
       </c>
       <c r="E36" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36" s="8">
         <v>4</v>
@@ -4055,14 +4117,14 @@
       </c>
       <c r="H36" s="8">
         <f>D36-E36+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I36" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.14772727272727273</v>
+        <v>0.15037593984962405</v>
       </c>
       <c r="K36" s="10">
         <v>10.37</v>
@@ -4070,7 +4132,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>211.20000000000002</v>
+        <v>212.8</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4088,7 +4150,7 @@
         <v>173</v>
       </c>
       <c r="E37" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" s="8">
         <v>3</v>
@@ -4098,14 +4160,14 @@
       </c>
       <c r="H37" s="8">
         <f>D37-E37+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I37" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>8.771929824561403E-2</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="K37" s="10">
         <v>4.93</v>
@@ -4113,7 +4175,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>136.80000000000001</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4130,7 +4192,7 @@
         <v>134</v>
       </c>
       <c r="E38" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
@@ -4140,14 +4202,14 @@
       </c>
       <c r="H38" s="8">
         <f>D38-E38+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I38" s="8">
         <v>10</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="0"/>
-        <v>8.4033613445378158E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K38" s="10">
         <v>6</v>
@@ -4155,7 +4217,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>95.2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4173,7 +4235,7 @@
         <v>168</v>
       </c>
       <c r="E39" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F39" s="8">
         <v>1</v>
@@ -4183,14 +4245,14 @@
       </c>
       <c r="H39" s="8">
         <f>D39-E39+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I39" s="8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>0.18867924528301888</v>
+        <v>0.20858895705521471</v>
       </c>
       <c r="K39" s="10">
         <v>6.23</v>
@@ -4198,7 +4260,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>127.2</v>
+        <v>130.4</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4216,7 +4278,7 @@
         <v>317</v>
       </c>
       <c r="E40" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F40" s="8">
         <v>2</v>
@@ -4226,14 +4288,14 @@
       </c>
       <c r="H40" s="8">
         <f>D40-E40+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I40" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>5.921052631578947E-2</v>
+        <v>6.535947712418301E-2</v>
       </c>
       <c r="K40" s="10">
         <v>7.69</v>
@@ -4241,7 +4303,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>243.20000000000002</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4259,7 +4321,7 @@
         <v>130</v>
       </c>
       <c r="E41" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F41" s="8">
         <v>3</v>
@@ -4269,14 +4331,14 @@
       </c>
       <c r="H41" s="8">
         <f>D41-E41+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I41" s="8">
         <v>26</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>0.20634920634920634</v>
+        <v>0.203125</v>
       </c>
       <c r="K41" s="10">
         <v>8.8699999999999992</v>
@@ -4284,7 +4346,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>100.80000000000001</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,7 +4407,7 @@
         <v>206</v>
       </c>
       <c r="E43" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="8">
         <v>0</v>
@@ -4355,14 +4417,14 @@
       </c>
       <c r="H43" s="8">
         <f>D43-E43+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I43" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0.10240963855421686</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="K43" s="10">
         <v>6.65</v>
@@ -4370,7 +4432,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>132.80000000000001</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4388,7 +4450,7 @@
         <v>213</v>
       </c>
       <c r="E44" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F44" s="8">
         <v>7</v>
@@ -4398,14 +4460,14 @@
       </c>
       <c r="H44" s="8">
         <f>D44-E44+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I44" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>0.1941747572815534</v>
+        <v>0.19711538461538461</v>
       </c>
       <c r="K44" s="10">
         <v>4.62</v>
@@ -4413,7 +4475,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>164.8</v>
+        <v>166.4</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4474,7 +4536,7 @@
         <v>103</v>
       </c>
       <c r="E46" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
@@ -4484,14 +4546,14 @@
       </c>
       <c r="H46" s="8">
         <f>D46-E46+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I46" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J46" s="12">
         <f t="shared" si="0"/>
-        <v>0.13861386138613863</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K46" s="10">
         <v>5.92</v>
@@ -4499,7 +4561,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>80.800000000000011</v>
+        <v>81.600000000000009</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4516,7 +4578,7 @@
         <v>162</v>
       </c>
       <c r="E47" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="8">
         <v>1</v>
@@ -4526,14 +4588,14 @@
       </c>
       <c r="H47" s="8">
         <f>D47-E47+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I47" s="8">
         <v>10</v>
       </c>
       <c r="J47" s="12">
         <f t="shared" si="0"/>
-        <v>6.1728395061728392E-2</v>
+        <v>6.1349693251533742E-2</v>
       </c>
       <c r="K47" s="10">
         <v>3.75</v>
@@ -4541,7 +4603,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>129.6</v>
+        <v>130.4</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4558,7 +4620,7 @@
         <v>147</v>
       </c>
       <c r="E48" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F48" s="8">
         <v>3</v>
@@ -4568,14 +4630,14 @@
       </c>
       <c r="H48" s="8">
         <f>D48-E48+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I48" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J48" s="12">
         <f t="shared" si="0"/>
-        <v>0.10169491525423729</v>
+        <v>0.10743801652892562</v>
       </c>
       <c r="K48" s="10">
         <v>7.3</v>
@@ -4583,7 +4645,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>94.4</v>
+        <v>96.800000000000011</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4601,7 +4663,7 @@
         <v>117</v>
       </c>
       <c r="E49" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="8">
         <v>2</v>
@@ -4611,14 +4673,14 @@
       </c>
       <c r="H49" s="8">
         <f>D49-E49+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I49" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="0"/>
-        <v>0.25423728813559321</v>
+        <v>0.26050420168067229</v>
       </c>
       <c r="K49" s="10">
         <v>5.19</v>
@@ -4626,7 +4688,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>94.4</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4644,7 +4706,7 @@
         <v>136</v>
       </c>
       <c r="E50" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="8">
         <v>3</v>
@@ -4654,14 +4716,14 @@
       </c>
       <c r="H50" s="8">
         <f>D50-E50+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I50" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="0"/>
-        <v>0.10869565217391304</v>
+        <v>0.1223021582733813</v>
       </c>
       <c r="K50" s="10">
         <v>7.4</v>
@@ -4669,7 +4731,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>110.4</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4701,11 +4763,11 @@
         <v>110</v>
       </c>
       <c r="I51" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="0"/>
-        <v>3.6363636363636362E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="K51" s="10">
         <v>15</v>
@@ -4745,11 +4807,11 @@
         <v>78</v>
       </c>
       <c r="I52" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J52" s="12">
         <f t="shared" si="0"/>
-        <v>0.19230769230769232</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="K52" s="10">
         <v>6.5</v>
@@ -4774,7 +4836,7 @@
         <v>135</v>
       </c>
       <c r="E53" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" s="8">
         <v>2</v>
@@ -4784,14 +4846,14 @@
       </c>
       <c r="H53" s="8">
         <f>D53-E53+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I53" s="8">
         <v>23</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="0"/>
-        <v>0.17424242424242425</v>
+        <v>0.17293233082706766</v>
       </c>
       <c r="K53" s="10">
         <v>7.91</v>
@@ -4799,7 +4861,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>105.60000000000001</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4897,7 +4959,7 @@
         <v>122</v>
       </c>
       <c r="E56" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" s="8">
         <v>2</v>
@@ -4907,14 +4969,14 @@
       </c>
       <c r="H56" s="8">
         <f>D56-E56+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I56" s="8">
         <v>40</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="0"/>
-        <v>0.33057851239669422</v>
+        <v>0.32786885245901637</v>
       </c>
       <c r="K56" s="10">
         <v>4.58</v>
@@ -4922,7 +4984,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>96.800000000000011</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4940,7 +5002,7 @@
         <v>36</v>
       </c>
       <c r="E57" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" s="8">
         <v>20</v>
@@ -4950,14 +5012,14 @@
       </c>
       <c r="H57" s="8">
         <f>D57-E57+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I57" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J57" s="12">
         <f t="shared" si="0"/>
-        <v>0.28846153846153844</v>
+        <v>0.32075471698113206</v>
       </c>
       <c r="K57" s="10">
         <v>6.36</v>
@@ -4965,7 +5027,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>41.6</v>
+        <v>42.400000000000006</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4979,7 +5041,7 @@
         <v>9902</v>
       </c>
       <c r="D58" s="8">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="E58" s="8">
         <v>0</v>
@@ -4992,14 +5054,14 @@
       </c>
       <c r="H58" s="8">
         <f>D58-E58+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="I58" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J58" s="12">
         <f t="shared" si="0"/>
-        <v>0.10740740740740741</v>
+        <v>0.14102564102564102</v>
       </c>
       <c r="K58" s="10">
         <v>9.56</v>
@@ -5007,7 +5069,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="29">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>216</v>
+        <v>62.400000000000006</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5066,17 +5128,17 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
-      <formula>0.29</formula>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+      <formula>0.328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
-      <formula>0.1499</formula>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>0.1699</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
-      <formula>0.15</formula>
-      <formula>0.2999</formula>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+      <formula>0.17</formula>
+      <formula>0.3279</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L59">
@@ -5153,8 +5215,12 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <f>SUM(B2:B8)</f>
-        <v>138</v>
+        <f>SUM(B8:B13)</f>
+        <v>131</v>
+      </c>
+      <c r="E2" s="25">
+        <f>D1/D2</f>
+        <v>7.6335877862595417E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5165,8 +5231,8 @@
         <v>16</v>
       </c>
       <c r="D3" s="25">
-        <f>D1/D2</f>
-        <v>7.246376811594203E-3</v>
+        <f>E2*D7</f>
+        <v>0.3282442748091603</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5188,8 +5254,8 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <f>SUM(B8)</f>
-        <v>21</v>
+        <f>SUM(B8:B9)</f>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -5203,7 +5269,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5215,7 +5281,7 @@
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5234,8 +5300,12 @@
         <v>21</v>
       </c>
       <c r="D9" s="25">
-        <f>D7*D3</f>
-        <v>0.29710144927536231</v>
+        <f>D7*E2</f>
+        <v>0.3282442748091603</v>
+      </c>
+      <c r="E9" s="33">
+        <f>D9</f>
+        <v>0.3282442748091603</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5289,19 +5359,19 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>2185.18115942029</v>
+        <v>2344.9770992366412</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <f>A17-[2]Ausentes!E23</f>
-        <v>952.18115942028999</v>
+        <v>1117.9770992366412</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <f ca="1">TODAY()-2</f>
-        <v>45836</v>
+        <v>45838</v>
       </c>
     </row>
   </sheetData>

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C094B4C0-1081-43FA-B86D-55DF567B8773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3495DD0E-6934-4EC8-B033-CAAF075D3651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="cobertura" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -222,7 +222,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,12 +244,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +322,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -348,8 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -365,7 +357,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -374,103 +366,17 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <b val="0"/>
@@ -548,6 +454,66 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -851,8 +817,6 @@
         <bottom style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -863,12 +827,8 @@
         <right style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </vertical>
@@ -878,38 +838,34 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2376,12 +2332,12 @@
       <sheetName val="Planilha5"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
@@ -2392,25 +2348,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2433,26 +2389,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A8:M59" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="7" totalsRowDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="6" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="13">
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="16" totalsRowDxfId="12" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="11" totalsRowDxfId="3" dataCellStyle="Normal">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="15" totalsRowDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="14" totalsRowDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="13" totalsRowDxfId="9">
+    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="8" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo de Carteira]]*80%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2760,11 +2716,11 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -2777,69 +2733,69 @@
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="G1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="26"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="G2"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="26"/>
+      <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
         <v>45839</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="G3"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="G4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>4.1603526656564263E-2</v>
+        <v>4.1944444444444444E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>2.5898884143821462E-2</v>
+        <v>2.6111111111111113E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.4521283923405426E-2</v>
-      </c>
-      <c r="J5" s="28">
+        <v>2.4722222222222222E-2</v>
+      </c>
+      <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.15651579335359697</v>
+        <v>-0.15508593441965987</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="2">
         <f>SUBTOTAL(9,Tabela1[Carteira])</f>
-        <v>7259</v>
+        <v>7200</v>
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
@@ -2855,15 +2811,15 @@
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7145</v>
+        <v>7086</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
         <v>1227</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.17172848145556333</v>
+        <v>0.17315834038950043</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
@@ -2872,7 +2828,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2887,8 +2843,8 @@
       <c r="L7" s="7"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2924,15 +2880,15 @@
       <c r="L8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="A9" s="33">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="str">
+      <c r="B9" s="33" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>George</v>
       </c>
@@ -2966,16 +2922,16 @@
         <v>14.92</v>
       </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="29">
+      <c r="M9" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>110.4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:16" ht="15" customHeight="1">
+      <c r="A10" s="34">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Paulo Bier</v>
       </c>
@@ -3009,16 +2965,16 @@
         <v>12.53</v>
       </c>
       <c r="L10" s="10"/>
-      <c r="M10" s="29">
+      <c r="M10" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>131.20000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:16">
+      <c r="A11" s="34">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="str">
+      <c r="B11" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Hamilton</v>
       </c>
@@ -3052,16 +3008,16 @@
         <v>12.53</v>
       </c>
       <c r="L11" s="10"/>
-      <c r="M11" s="29">
+      <c r="M11" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>84.800000000000011</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="12" spans="1:16" ht="15" customHeight="1">
+      <c r="A12" s="34">
         <v>23</v>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v xml:space="preserve">Marcos </v>
       </c>
@@ -3095,16 +3051,16 @@
         <v>7.87</v>
       </c>
       <c r="L12" s="10"/>
-      <c r="M12" s="29">
+      <c r="M12" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>148.80000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:16" ht="15" customHeight="1">
+      <c r="A13" s="34">
         <v>31</v>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B13" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Marcos Vinicio</v>
       </c>
@@ -3138,16 +3094,16 @@
         <v>8.75</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="29">
+      <c r="M13" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>114.4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+    <row r="14" spans="1:16" ht="15" customHeight="1">
+      <c r="A14" s="34">
         <v>34</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B14" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Fabricio</v>
       </c>
@@ -3182,16 +3138,16 @@
         <v>12.4</v>
       </c>
       <c r="L14" s="10"/>
-      <c r="M14" s="29">
+      <c r="M14" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>98.4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    <row r="15" spans="1:16" ht="15" customHeight="1">
+      <c r="A15" s="34">
         <v>38</v>
       </c>
-      <c r="B15" s="8" t="str">
+      <c r="B15" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Maul</v>
       </c>
@@ -3225,16 +3181,16 @@
         <v>11.9</v>
       </c>
       <c r="L15" s="10"/>
-      <c r="M15" s="29">
+      <c r="M15" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>116.80000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="16" spans="1:16" ht="15" customHeight="1">
+      <c r="A16" s="34">
         <v>39</v>
       </c>
-      <c r="B16" s="8" t="str">
+      <c r="B16" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Carlos Veloso</v>
       </c>
@@ -3268,16 +3224,16 @@
         <v>4.76</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="29">
+      <c r="M16" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:13">
+      <c r="A17" s="34">
         <v>41</v>
       </c>
-      <c r="B17" s="8" t="str">
+      <c r="B17" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Reginaldo</v>
       </c>
@@ -3311,16 +3267,16 @@
         <v>6.17</v>
       </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="29">
+      <c r="M17" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:13" ht="15" customHeight="1">
+      <c r="A18" s="34">
         <v>45</v>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Airto</v>
       </c>
@@ -3354,16 +3310,16 @@
         <v>10.050000000000001</v>
       </c>
       <c r="L18" s="10"/>
-      <c r="M18" s="29">
+      <c r="M18" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>179.20000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+    <row r="19" spans="1:13" ht="15" customHeight="1">
+      <c r="A19" s="34">
         <v>46</v>
       </c>
-      <c r="B19" s="8" t="str">
+      <c r="B19" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Sergio</v>
       </c>
@@ -3397,16 +3353,16 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="L19" s="10"/>
-      <c r="M19" s="29">
+      <c r="M19" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>75.2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+    <row r="20" spans="1:13" ht="15" customHeight="1">
+      <c r="A20" s="34">
         <v>53</v>
       </c>
-      <c r="B20" s="8" t="str">
+      <c r="B20" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v xml:space="preserve">Odelon </v>
       </c>
@@ -3440,16 +3396,16 @@
         <v>10</v>
       </c>
       <c r="L20" s="10"/>
-      <c r="M20" s="29">
+      <c r="M20" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+    <row r="21" spans="1:13" ht="15" customHeight="1">
+      <c r="A21" s="34">
         <v>61</v>
       </c>
-      <c r="B21" s="8" t="str">
+      <c r="B21" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Edmar</v>
       </c>
@@ -3457,8 +3413,7 @@
         <v>9915</v>
       </c>
       <c r="D21" s="8">
-        <f>167-14</f>
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
@@ -3471,29 +3426,29 @@
       </c>
       <c r="H21" s="8">
         <f>D21-E21+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="I21" s="8">
         <v>26</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>0.16774193548387098</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="K21" s="10">
         <v>11.67</v>
       </c>
       <c r="L21" s="10"/>
-      <c r="M21" s="29">
+      <c r="M21" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+        <v>76.800000000000011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1">
+      <c r="A22" s="34">
         <v>65</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B22" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Neiron</v>
       </c>
@@ -3527,16 +3482,16 @@
         <v>4.82</v>
       </c>
       <c r="L22" s="10"/>
-      <c r="M22" s="29">
+      <c r="M22" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>125.60000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+    <row r="23" spans="1:13" ht="15" customHeight="1">
+      <c r="A23" s="34">
         <v>74</v>
       </c>
-      <c r="B23" s="8" t="str">
+      <c r="B23" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Max</v>
       </c>
@@ -3571,16 +3526,16 @@
         <v>7.5</v>
       </c>
       <c r="L23" s="10"/>
-      <c r="M23" s="29">
+      <c r="M23" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>126.4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+    <row r="24" spans="1:13" ht="15" customHeight="1">
+      <c r="A24" s="34">
         <v>93</v>
       </c>
-      <c r="B24" s="8" t="str">
+      <c r="B24" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Anderson</v>
       </c>
@@ -3614,16 +3569,16 @@
         <v>9.52</v>
       </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="29">
+      <c r="M24" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+    <row r="25" spans="1:13">
+      <c r="A25" s="34">
         <v>143</v>
       </c>
-      <c r="B25" s="8" t="str">
+      <c r="B25" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Marcelo</v>
       </c>
@@ -3657,16 +3612,16 @@
         <v>7.29</v>
       </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="29">
+      <c r="M25" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>80.800000000000011</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+    <row r="26" spans="1:13" ht="15" customHeight="1">
+      <c r="A26" s="34">
         <v>167</v>
       </c>
-      <c r="B26" s="8" t="str">
+      <c r="B26" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Cassiano</v>
       </c>
@@ -3701,16 +3656,16 @@
         <v>7.29</v>
       </c>
       <c r="L26" s="10"/>
-      <c r="M26" s="29">
+      <c r="M26" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>71.2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="27" spans="1:13" ht="15" customHeight="1">
+      <c r="A27" s="34">
         <v>371</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="8">
@@ -3744,16 +3699,16 @@
         <v>8.33</v>
       </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="29">
+      <c r="M27" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>97.600000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+    <row r="28" spans="1:13" ht="15" customHeight="1">
+      <c r="A28" s="34">
         <v>178</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="8">
@@ -3786,16 +3741,16 @@
         <v>7.33</v>
       </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="29">
+      <c r="M28" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>141.6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+    <row r="29" spans="1:13" ht="15" customHeight="1">
+      <c r="A29" s="34">
         <v>187</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="8">
@@ -3829,16 +3784,16 @@
         <v>11</v>
       </c>
       <c r="L29" s="10"/>
-      <c r="M29" s="29">
+      <c r="M29" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>99.2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+    <row r="30" spans="1:13" ht="15" customHeight="1">
+      <c r="A30" s="34">
         <v>194</v>
       </c>
-      <c r="B30" s="8" t="str">
+      <c r="B30" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Wallace</v>
       </c>
@@ -3872,16 +3827,16 @@
         <v>7.5</v>
       </c>
       <c r="L30" s="10"/>
-      <c r="M30" s="29">
+      <c r="M30" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>204.8</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+    <row r="31" spans="1:13">
+      <c r="A31" s="34">
         <v>197</v>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B31" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Fabricio</v>
       </c>
@@ -3915,16 +3870,16 @@
         <v>6.54</v>
       </c>
       <c r="L31" s="10"/>
-      <c r="M31" s="29">
+      <c r="M31" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+    <row r="32" spans="1:13" ht="15" customHeight="1">
+      <c r="A32" s="34">
         <v>208</v>
       </c>
-      <c r="B32" s="8" t="str">
+      <c r="B32" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Renato</v>
       </c>
@@ -3958,16 +3913,16 @@
         <v>16.13</v>
       </c>
       <c r="L32" s="10"/>
-      <c r="M32" s="29">
+      <c r="M32" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>87.2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+    <row r="33" spans="1:13" ht="15" customHeight="1">
+      <c r="A33" s="34">
         <v>217</v>
       </c>
-      <c r="B33" s="8" t="str">
+      <c r="B33" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Pedro</v>
       </c>
@@ -4001,16 +3956,16 @@
         <v>5.88</v>
       </c>
       <c r="L33" s="10"/>
-      <c r="M33" s="29">
+      <c r="M33" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+    <row r="34" spans="1:13" ht="15" customHeight="1">
+      <c r="A34" s="34">
         <v>218</v>
       </c>
-      <c r="B34" s="8" t="str">
+      <c r="B34" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Fabiano Ledur</v>
       </c>
@@ -4044,16 +3999,16 @@
         <v>6.59</v>
       </c>
       <c r="L34" s="10"/>
-      <c r="M34" s="29">
+      <c r="M34" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>142.4</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+    <row r="35" spans="1:13" ht="15" customHeight="1">
+      <c r="A35" s="34">
         <v>231</v>
       </c>
-      <c r="B35" s="8" t="str">
+      <c r="B35" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Thiago</v>
       </c>
@@ -4087,16 +4042,16 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="L35" s="10"/>
-      <c r="M35" s="29">
+      <c r="M35" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>92.800000000000011</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+    <row r="36" spans="1:13" ht="15" customHeight="1">
+      <c r="A36" s="34">
         <v>232</v>
       </c>
-      <c r="B36" s="8" t="str">
+      <c r="B36" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Laerth</v>
       </c>
@@ -4130,16 +4085,16 @@
         <v>10.37</v>
       </c>
       <c r="L36" s="10"/>
-      <c r="M36" s="29">
+      <c r="M36" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>212.8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+    <row r="37" spans="1:13" ht="15" customHeight="1">
+      <c r="A37" s="34">
         <v>240</v>
       </c>
-      <c r="B37" s="8" t="str">
+      <c r="B37" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Ramon</v>
       </c>
@@ -4173,16 +4128,16 @@
         <v>4.93</v>
       </c>
       <c r="L37" s="10"/>
-      <c r="M37" s="29">
+      <c r="M37" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>137.6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="A38" s="34">
         <v>248</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="8">
@@ -4215,16 +4170,16 @@
         <v>6</v>
       </c>
       <c r="L38" s="10"/>
-      <c r="M38" s="29">
+      <c r="M38" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+    <row r="39" spans="1:13" ht="15" customHeight="1">
+      <c r="A39" s="34">
         <v>261</v>
       </c>
-      <c r="B39" s="8" t="str">
+      <c r="B39" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Pedro Henrique</v>
       </c>
@@ -4258,16 +4213,16 @@
         <v>6.23</v>
       </c>
       <c r="L39" s="10"/>
-      <c r="M39" s="29">
+      <c r="M39" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>130.4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+    <row r="40" spans="1:13" ht="15" customHeight="1">
+      <c r="A40" s="34">
         <v>266</v>
       </c>
-      <c r="B40" s="8" t="str">
+      <c r="B40" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Loran</v>
       </c>
@@ -4301,16 +4256,16 @@
         <v>7.69</v>
       </c>
       <c r="L40" s="10"/>
-      <c r="M40" s="29">
+      <c r="M40" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>244.8</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+    <row r="41" spans="1:13" ht="15" customHeight="1">
+      <c r="A41" s="34">
         <v>267</v>
       </c>
-      <c r="B41" s="8" t="str">
+      <c r="B41" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Chagas</v>
       </c>
@@ -4344,16 +4299,16 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="L41" s="10"/>
-      <c r="M41" s="29">
+      <c r="M41" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>102.4</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+    <row r="42" spans="1:13" ht="15" customHeight="1">
+      <c r="A42" s="34">
         <v>270</v>
       </c>
-      <c r="B42" s="8" t="str">
+      <c r="B42" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Jack</v>
       </c>
@@ -4388,16 +4343,16 @@
         <v>8.17</v>
       </c>
       <c r="L42" s="10"/>
-      <c r="M42" s="29">
+      <c r="M42" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>62.400000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+    <row r="43" spans="1:13" ht="15" customHeight="1">
+      <c r="A43" s="34">
         <v>273</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="8">
@@ -4430,16 +4385,16 @@
         <v>6.65</v>
       </c>
       <c r="L43" s="10"/>
-      <c r="M43" s="29">
+      <c r="M43" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>134.4</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+    <row r="44" spans="1:13" ht="15" customHeight="1">
+      <c r="A44" s="34">
         <v>282</v>
       </c>
-      <c r="B44" s="8" t="str">
+      <c r="B44" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Nelson</v>
       </c>
@@ -4473,16 +4428,16 @@
         <v>4.62</v>
       </c>
       <c r="L44" s="10"/>
-      <c r="M44" s="29">
+      <c r="M44" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>166.4</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+    <row r="45" spans="1:13" ht="15" customHeight="1">
+      <c r="A45" s="34">
         <v>322</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="8">
@@ -4516,16 +4471,16 @@
         <v>9.75</v>
       </c>
       <c r="L45" s="10"/>
-      <c r="M45" s="29">
+      <c r="M45" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>112.80000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+    <row r="46" spans="1:13" ht="15" customHeight="1">
+      <c r="A46" s="34">
         <v>292</v>
       </c>
-      <c r="B46" s="8" t="str">
+      <c r="B46" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Victor</v>
       </c>
@@ -4559,16 +4514,16 @@
         <v>5.92</v>
       </c>
       <c r="L46" s="10"/>
-      <c r="M46" s="29">
+      <c r="M46" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>81.600000000000009</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+    <row r="47" spans="1:13">
+      <c r="A47" s="34">
         <v>321</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="8">
@@ -4601,16 +4556,16 @@
         <v>3.75</v>
       </c>
       <c r="L47" s="10"/>
-      <c r="M47" s="29">
+      <c r="M47" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>130.4</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+    <row r="48" spans="1:13" ht="15" customHeight="1">
+      <c r="A48" s="34">
         <v>296</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="8">
@@ -4643,16 +4598,16 @@
         <v>7.3</v>
       </c>
       <c r="L48" s="10"/>
-      <c r="M48" s="29">
+      <c r="M48" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>96.800000000000011</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+    <row r="49" spans="1:13">
+      <c r="A49" s="34">
         <v>297</v>
       </c>
-      <c r="B49" s="8" t="str">
+      <c r="B49" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Jonatas</v>
       </c>
@@ -4686,16 +4641,16 @@
         <v>5.19</v>
       </c>
       <c r="L49" s="10"/>
-      <c r="M49" s="29">
+      <c r="M49" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>95.2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+    <row r="50" spans="1:13" ht="15" customHeight="1">
+      <c r="A50" s="34">
         <v>299</v>
       </c>
-      <c r="B50" s="8" t="str">
+      <c r="B50" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Jamir</v>
       </c>
@@ -4729,16 +4684,16 @@
         <v>7.4</v>
       </c>
       <c r="L50" s="10"/>
-      <c r="M50" s="29">
+      <c r="M50" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>111.2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+    <row r="51" spans="1:13" ht="15" customHeight="1">
+      <c r="A51" s="34">
         <v>301</v>
       </c>
-      <c r="B51" s="8" t="str">
+      <c r="B51" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Julio Veloso</v>
       </c>
@@ -4773,16 +4728,16 @@
         <v>15</v>
       </c>
       <c r="L51" s="10"/>
-      <c r="M51" s="29">
+      <c r="M51" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+    <row r="52" spans="1:13" ht="15" customHeight="1">
+      <c r="A52" s="34">
         <v>302</v>
       </c>
-      <c r="B52" s="8" t="str">
+      <c r="B52" s="34" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Frank</v>
       </c>
@@ -4817,16 +4772,16 @@
         <v>6.5</v>
       </c>
       <c r="L52" s="10"/>
-      <c r="M52" s="29">
+      <c r="M52" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>62.400000000000006</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+    <row r="53" spans="1:13" ht="15" customHeight="1">
+      <c r="A53" s="34">
         <v>308</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="34" t="s">
         <v>38</v>
       </c>
       <c r="C53" s="8">
@@ -4859,16 +4814,16 @@
         <v>7.91</v>
       </c>
       <c r="L53" s="10"/>
-      <c r="M53" s="29">
+      <c r="M53" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>106.4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+    <row r="54" spans="1:13" ht="15" customHeight="1">
+      <c r="A54" s="34">
         <v>324</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="8">
@@ -4899,16 +4854,16 @@
         <v>6.67</v>
       </c>
       <c r="L54" s="10"/>
-      <c r="M54" s="29">
+      <c r="M54" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+    <row r="55" spans="1:13">
+      <c r="A55" s="34">
         <v>311</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="8">
@@ -4939,16 +4894,16 @@
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
-      <c r="M55" s="29">
+      <c r="M55" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>79.2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+    <row r="56" spans="1:13" ht="15" customHeight="1">
+      <c r="A56" s="34">
         <v>315</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="8">
@@ -4982,16 +4937,16 @@
         <v>4.58</v>
       </c>
       <c r="L56" s="10"/>
-      <c r="M56" s="29">
+      <c r="M56" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>97.600000000000009</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+    <row r="57" spans="1:13" ht="15" customHeight="1">
+      <c r="A57" s="34">
         <v>316</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="8">
@@ -5025,16 +4980,16 @@
         <v>6.36</v>
       </c>
       <c r="L57" s="10"/>
-      <c r="M57" s="29">
+      <c r="M57" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>42.400000000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
+    <row r="58" spans="1:13" ht="15" customHeight="1">
+      <c r="A58" s="34">
         <v>317</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="8">
@@ -5067,16 +5022,16 @@
         <v>9.56</v>
       </c>
       <c r="L58" s="10"/>
-      <c r="M58" s="29">
+      <c r="M58" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>62.400000000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+    <row r="59" spans="1:13" ht="15" customHeight="1">
+      <c r="A59" s="34">
         <v>320</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="8">
@@ -5109,34 +5064,36 @@
         <v>5.4</v>
       </c>
       <c r="L59" s="10"/>
-      <c r="M59" s="29">
+      <c r="M59" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
         <v>112.80000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15" customHeight="1">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
       <c r="G60"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="30"/>
-    </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="28"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" customHeight="1"/>
+    <row r="62" spans="1:13" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0.328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
       <formula>0.1699</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="between">
       <formula>0.17</formula>
       <formula>0.3279</formula>
     </cfRule>
@@ -5175,7 +5132,7 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5190,67 +5147,67 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+    <row r="2" spans="1:8">
+      <c r="A2" s="21">
         <v>45597</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="22">
         <v>21</v>
       </c>
       <c r="D2">
         <f>SUM(B8:B13)</f>
         <v>131</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="23">
         <f>D1/D2</f>
         <v>7.6335877862595417E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+    <row r="3" spans="1:8">
+      <c r="A3" s="21">
         <v>45627</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>16</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <f>E2*D7</f>
         <v>0.3282442748091603</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>20</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>20</v>
       </c>
       <c r="D5">
@@ -5261,22 +5218,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>21</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>19</v>
       </c>
       <c r="D7">
@@ -5284,92 +5241,92 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>21</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <f>D7*E2</f>
         <v>0.3282442748091603</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <f>D9</f>
         <v>0.3282442748091603</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
         <v>2344.9770992366412</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+    <row r="18" spans="1:1">
+      <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
         <v>1117.9770992366412</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+    <row r="20" spans="1:1">
+      <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
         <v>45838</v>
       </c>

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3495DD0E-6934-4EC8-B033-CAAF075D3651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2AF09A-885D-4CE8-9A72-75C9B81DE3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="cobertura" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -322,7 +322,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -366,17 +366,13 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
     <dxf>
       <font>
         <b val="0"/>
@@ -454,66 +450,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -804,7 +740,13 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </left>
@@ -820,21 +762,25 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </left>
         <right style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -866,6 +812,70 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -954,7 +964,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>01/07/2025</a:t>
+            <a:t>02/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1428,7 +1438,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>32,82%</a:t>
+            <a:t>33,59%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2332,41 +2342,41 @@
       <sheetName val="Planilha5"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
-            <v>7144</v>
+            <v>7091</v>
           </cell>
           <cell r="E23">
-            <v>1227</v>
+            <v>1264</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2389,26 +2399,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A8:M59" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="7" totalsRowDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="6" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="9">
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="11" totalsRowDxfId="3" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Normal">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="10" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="9" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="8" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="4" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo de Carteira]]*80%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2716,11 +2726,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -2738,42 +2746,42 @@
     <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G2"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>45840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G3"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="24"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:16" ht="18.75">
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
         <v>4.1944444444444444E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>2.6111111111111113E-2</v>
+        <v>2.6944444444444444E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
@@ -2781,13 +2789,13 @@
       </c>
       <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.15508593441965987</v>
+        <v>-0.15764887218368831</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
@@ -2803,7 +2811,7 @@
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
@@ -2811,15 +2819,15 @@
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7086</v>
+        <v>7092</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1227</v>
+        <v>1264</v>
       </c>
       <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.17315834038950043</v>
+        <v>0.17822899041173154</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
@@ -2828,7 +2836,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2843,7 +2851,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>0</v>
       </c>
@@ -2884,11 +2892,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
-      <c r="A9" s="33">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>11</v>
       </c>
-      <c r="B9" s="33" t="str">
+      <c r="B9" s="11" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>George</v>
       </c>
@@ -2902,21 +2910,21 @@
         <v>5</v>
       </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="14">
         <v>8</v>
       </c>
       <c r="H9" s="8">
         <f>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I9" s="8">
         <v>13</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ref="J9:J59" si="0">I9/H9</f>
-        <v>9.420289855072464E-2</v>
+        <v>9.3525179856115109E-2</v>
       </c>
       <c r="K9" s="10">
         <v>14.92</v>
@@ -2924,14 +2932,14 @@
       <c r="L9" s="10"/>
       <c r="M9" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>110.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1">
-      <c r="A10" s="34">
+        <v>111.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>15</v>
       </c>
-      <c r="B10" s="34" t="str">
+      <c r="B10" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Paulo Bier</v>
       </c>
@@ -2955,11 +2963,11 @@
         <v>164</v>
       </c>
       <c r="I10" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.29878048780487804</v>
+        <v>0.31707317073170732</v>
       </c>
       <c r="K10" s="10">
         <v>12.53</v>
@@ -2970,11 +2978,11 @@
         <v>131.20000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="34">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>19</v>
       </c>
-      <c r="B11" s="34" t="str">
+      <c r="B11" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Hamilton</v>
       </c>
@@ -2988,21 +2996,21 @@
         <v>5</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="14">
         <v>0</v>
       </c>
       <c r="H11" s="8">
         <f>D11-E11+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I11" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>0.23584905660377359</v>
+        <v>0.24299065420560748</v>
       </c>
       <c r="K11" s="10">
         <v>12.53</v>
@@ -3010,14 +3018,14 @@
       <c r="L11" s="10"/>
       <c r="M11" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>84.800000000000011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
-      <c r="A12" s="34">
+        <v>85.600000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>23</v>
       </c>
-      <c r="B12" s="34" t="str">
+      <c r="B12" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v xml:space="preserve">Marcos </v>
       </c>
@@ -3041,11 +3049,11 @@
         <v>186</v>
       </c>
       <c r="I12" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.33870967741935482</v>
       </c>
       <c r="K12" s="10">
         <v>7.87</v>
@@ -3056,11 +3064,11 @@
         <v>148.80000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1">
-      <c r="A13" s="34">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>31</v>
       </c>
-      <c r="B13" s="34" t="str">
+      <c r="B13" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Marcos Vinicio</v>
       </c>
@@ -3099,11 +3107,11 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1">
-      <c r="A14" s="34">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>34</v>
       </c>
-      <c r="B14" s="34" t="str">
+      <c r="B14" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Fabricio</v>
       </c>
@@ -3143,11 +3151,11 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1">
-      <c r="A15" s="34">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>38</v>
       </c>
-      <c r="B15" s="34" t="str">
+      <c r="B15" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Maul</v>
       </c>
@@ -3186,11 +3194,11 @@
         <v>116.80000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1">
-      <c r="A16" s="34">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>39</v>
       </c>
-      <c r="B16" s="34" t="str">
+      <c r="B16" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Carlos Veloso</v>
       </c>
@@ -3229,11 +3237,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="34">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>41</v>
       </c>
-      <c r="B17" s="34" t="str">
+      <c r="B17" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Reginaldo</v>
       </c>
@@ -3257,11 +3265,11 @@
         <v>65</v>
       </c>
       <c r="I17" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>0.2153846153846154</v>
+        <v>0.24615384615384617</v>
       </c>
       <c r="K17" s="10">
         <v>6.17</v>
@@ -3272,11 +3280,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1">
-      <c r="A18" s="34">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>45</v>
       </c>
-      <c r="B18" s="34" t="str">
+      <c r="B18" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Airto</v>
       </c>
@@ -3300,11 +3308,11 @@
         <v>224</v>
       </c>
       <c r="I18" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <v>0.29017857142857145</v>
       </c>
       <c r="K18" s="10">
         <v>10.050000000000001</v>
@@ -3315,11 +3323,11 @@
         <v>179.20000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1">
-      <c r="A19" s="34">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>46</v>
       </c>
-      <c r="B19" s="34" t="str">
+      <c r="B19" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Sergio</v>
       </c>
@@ -3343,11 +3351,11 @@
         <v>94</v>
       </c>
       <c r="I19" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>0.31914893617021278</v>
+        <v>0.32978723404255317</v>
       </c>
       <c r="K19" s="10">
         <v>4.4800000000000004</v>
@@ -3358,11 +3366,11 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
-      <c r="A20" s="34">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>53</v>
       </c>
-      <c r="B20" s="34" t="str">
+      <c r="B20" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v xml:space="preserve">Odelon </v>
       </c>
@@ -3401,11 +3409,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1">
-      <c r="A21" s="34">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>61</v>
       </c>
-      <c r="B21" s="34" t="str">
+      <c r="B21" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Edmar</v>
       </c>
@@ -3444,11 +3452,11 @@
         <v>76.800000000000011</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1">
-      <c r="A22" s="34">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>65</v>
       </c>
-      <c r="B22" s="34" t="str">
+      <c r="B22" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Neiron</v>
       </c>
@@ -3487,11 +3495,11 @@
         <v>125.60000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1">
-      <c r="A23" s="34">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>74</v>
       </c>
-      <c r="B23" s="34" t="str">
+      <c r="B23" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Max</v>
       </c>
@@ -3516,11 +3524,11 @@
         <v>158</v>
       </c>
       <c r="I23" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.189873417721519</v>
+        <v>0.18354430379746836</v>
       </c>
       <c r="K23" s="10">
         <v>7.5</v>
@@ -3531,11 +3539,11 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1">
-      <c r="A24" s="34">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>93</v>
       </c>
-      <c r="B24" s="34" t="str">
+      <c r="B24" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Anderson</v>
       </c>
@@ -3559,11 +3567,11 @@
         <v>225</v>
       </c>
       <c r="I24" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="0"/>
-        <v>0.21777777777777776</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K24" s="10">
         <v>9.52</v>
@@ -3574,11 +3582,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="34">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>143</v>
       </c>
-      <c r="B25" s="34" t="str">
+      <c r="B25" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Marcelo</v>
       </c>
@@ -3617,11 +3625,11 @@
         <v>80.800000000000011</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1">
-      <c r="A26" s="34">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>167</v>
       </c>
-      <c r="B26" s="34" t="str">
+      <c r="B26" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Cassiano</v>
       </c>
@@ -3646,11 +3654,11 @@
         <v>89</v>
       </c>
       <c r="I26" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J26" s="12">
         <f t="shared" si="0"/>
-        <v>0.1348314606741573</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="K26" s="10">
         <v>7.29</v>
@@ -3661,11 +3669,11 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1">
-      <c r="A27" s="34">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>371</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="8">
@@ -3689,11 +3697,11 @@
         <v>122</v>
       </c>
       <c r="I27" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.21311475409836064</v>
+        <v>0.22131147540983606</v>
       </c>
       <c r="K27" s="10">
         <v>8.33</v>
@@ -3704,11 +3712,11 @@
         <v>97.600000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1">
-      <c r="A28" s="34">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>178</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="8">
@@ -3746,11 +3754,11 @@
         <v>141.6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1">
-      <c r="A29" s="34">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>187</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="8">
@@ -3764,21 +3772,21 @@
         <v>3</v>
       </c>
       <c r="F29" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="14">
         <v>0</v>
       </c>
       <c r="H29" s="8">
         <f>D29-E29+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I29" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>9.6774193548387094E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K29" s="10">
         <v>11</v>
@@ -3786,14 +3794,14 @@
       <c r="L29" s="10"/>
       <c r="M29" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>99.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1">
-      <c r="A30" s="34">
+        <v>100.80000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>194</v>
       </c>
-      <c r="B30" s="34" t="str">
+      <c r="B30" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Wallace</v>
       </c>
@@ -3807,21 +3815,21 @@
         <v>6</v>
       </c>
       <c r="F30" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="14">
         <v>1</v>
       </c>
       <c r="H30" s="8">
         <f>D30-E30+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I30" s="8">
         <v>11</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>4.296875E-2</v>
+        <v>4.2801556420233464E-2</v>
       </c>
       <c r="K30" s="10">
         <v>7.5</v>
@@ -3829,14 +3837,14 @@
       <c r="L30" s="10"/>
       <c r="M30" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>204.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="34">
+        <v>205.60000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>197</v>
       </c>
-      <c r="B31" s="34" t="str">
+      <c r="B31" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Fabricio</v>
       </c>
@@ -3860,11 +3868,11 @@
         <v>135</v>
       </c>
       <c r="I31" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="0"/>
-        <v>0.2814814814814815</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="K31" s="10">
         <v>6.54</v>
@@ -3875,11 +3883,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1">
-      <c r="A32" s="34">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>208</v>
       </c>
-      <c r="B32" s="34" t="str">
+      <c r="B32" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Renato</v>
       </c>
@@ -3918,11 +3926,11 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1">
-      <c r="A33" s="34">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>217</v>
       </c>
-      <c r="B33" s="34" t="str">
+      <c r="B33" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Pedro</v>
       </c>
@@ -3946,11 +3954,11 @@
         <v>255</v>
       </c>
       <c r="I33" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>3.1372549019607843E-2</v>
+        <v>4.3137254901960784E-2</v>
       </c>
       <c r="K33" s="10">
         <v>5.88</v>
@@ -3961,11 +3969,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1">
-      <c r="A34" s="34">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>218</v>
       </c>
-      <c r="B34" s="34" t="str">
+      <c r="B34" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Fabiano Ledur</v>
       </c>
@@ -4004,11 +4012,11 @@
         <v>142.4</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1">
-      <c r="A35" s="34">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>231</v>
       </c>
-      <c r="B35" s="34" t="str">
+      <c r="B35" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Thiago</v>
       </c>
@@ -4032,11 +4040,11 @@
         <v>116</v>
       </c>
       <c r="I35" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.33620689655172414</v>
+        <v>0.35344827586206895</v>
       </c>
       <c r="K35" s="10">
         <v>8.8699999999999992</v>
@@ -4047,11 +4055,11 @@
         <v>92.800000000000011</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1">
-      <c r="A36" s="34">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>232</v>
       </c>
-      <c r="B36" s="34" t="str">
+      <c r="B36" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Laerth</v>
       </c>
@@ -4075,11 +4083,11 @@
         <v>266</v>
       </c>
       <c r="I36" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.15037593984962405</v>
+        <v>0.15413533834586465</v>
       </c>
       <c r="K36" s="10">
         <v>10.37</v>
@@ -4090,11 +4098,11 @@
         <v>212.8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1">
-      <c r="A37" s="34">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>240</v>
       </c>
-      <c r="B37" s="34" t="str">
+      <c r="B37" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Ramon</v>
       </c>
@@ -4118,11 +4126,11 @@
         <v>172</v>
       </c>
       <c r="I37" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>9.3023255813953487E-2</v>
+        <v>9.8837209302325577E-2</v>
       </c>
       <c r="K37" s="10">
         <v>4.93</v>
@@ -4133,11 +4141,11 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1">
-      <c r="A38" s="34">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>248</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="8">
@@ -4175,11 +4183,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1">
-      <c r="A39" s="34">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>261</v>
       </c>
-      <c r="B39" s="34" t="str">
+      <c r="B39" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Pedro Henrique</v>
       </c>
@@ -4203,11 +4211,11 @@
         <v>163</v>
       </c>
       <c r="I39" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>0.20858895705521471</v>
+        <v>0.21472392638036811</v>
       </c>
       <c r="K39" s="10">
         <v>6.23</v>
@@ -4218,11 +4226,11 @@
         <v>130.4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1">
-      <c r="A40" s="34">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>266</v>
       </c>
-      <c r="B40" s="34" t="str">
+      <c r="B40" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Loran</v>
       </c>
@@ -4261,11 +4269,11 @@
         <v>244.8</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1">
-      <c r="A41" s="34">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>267</v>
       </c>
-      <c r="B41" s="34" t="str">
+      <c r="B41" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Chagas</v>
       </c>
@@ -4304,11 +4312,11 @@
         <v>102.4</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1">
-      <c r="A42" s="34">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>270</v>
       </c>
-      <c r="B42" s="34" t="str">
+      <c r="B42" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Jack</v>
       </c>
@@ -4348,11 +4356,11 @@
         <v>62.400000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1">
-      <c r="A43" s="34">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>273</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="8">
@@ -4390,11 +4398,11 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1">
-      <c r="A44" s="34">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>282</v>
       </c>
-      <c r="B44" s="34" t="str">
+      <c r="B44" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Nelson</v>
       </c>
@@ -4408,21 +4416,21 @@
         <v>12</v>
       </c>
       <c r="F44" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G44" s="14">
         <v>1</v>
       </c>
       <c r="H44" s="8">
         <f>D44-E44+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I44" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>0.19711538461538461</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="K44" s="10">
         <v>4.62</v>
@@ -4430,14 +4438,14 @@
       <c r="L44" s="10"/>
       <c r="M44" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>166.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1">
-      <c r="A45" s="34">
+        <v>167.20000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>322</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="8">
@@ -4476,11 +4484,11 @@
         <v>112.80000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1">
-      <c r="A46" s="34">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>292</v>
       </c>
-      <c r="B46" s="34" t="str">
+      <c r="B46" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Victor</v>
       </c>
@@ -4519,11 +4527,11 @@
         <v>81.600000000000009</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="34">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>321</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="8">
@@ -4546,11 +4554,11 @@
         <v>163</v>
       </c>
       <c r="I47" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J47" s="12">
         <f t="shared" si="0"/>
-        <v>6.1349693251533742E-2</v>
+        <v>7.3619631901840496E-2</v>
       </c>
       <c r="K47" s="10">
         <v>3.75</v>
@@ -4561,11 +4569,11 @@
         <v>130.4</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1">
-      <c r="A48" s="34">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>296</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="8">
@@ -4603,11 +4611,11 @@
         <v>96.800000000000011</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="34">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>297</v>
       </c>
-      <c r="B49" s="34" t="str">
+      <c r="B49" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Jonatas</v>
       </c>
@@ -4631,11 +4639,11 @@
         <v>119</v>
       </c>
       <c r="I49" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="0"/>
-        <v>0.26050420168067229</v>
+        <v>0.26890756302521007</v>
       </c>
       <c r="K49" s="10">
         <v>5.19</v>
@@ -4646,11 +4654,11 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1">
-      <c r="A50" s="34">
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>299</v>
       </c>
-      <c r="B50" s="34" t="str">
+      <c r="B50" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Jamir</v>
       </c>
@@ -4674,11 +4682,11 @@
         <v>139</v>
       </c>
       <c r="I50" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="0"/>
-        <v>0.1223021582733813</v>
+        <v>0.1366906474820144</v>
       </c>
       <c r="K50" s="10">
         <v>7.4</v>
@@ -4689,11 +4697,11 @@
         <v>111.2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1">
-      <c r="A51" s="34">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>301</v>
       </c>
-      <c r="B51" s="34" t="str">
+      <c r="B51" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Julio Veloso</v>
       </c>
@@ -4733,11 +4741,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1">
-      <c r="A52" s="34">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>302</v>
       </c>
-      <c r="B52" s="34" t="str">
+      <c r="B52" s="8" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[1]REPRESENTANTES!$A$3:$D$57,4,0)</f>
         <v>Frank</v>
       </c>
@@ -4762,11 +4770,11 @@
         <v>78</v>
       </c>
       <c r="I52" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J52" s="12">
         <f t="shared" si="0"/>
-        <v>0.20512820512820512</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="K52" s="10">
         <v>6.5</v>
@@ -4777,11 +4785,11 @@
         <v>62.400000000000006</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1">
-      <c r="A53" s="34">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>308</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C53" s="8">
@@ -4804,11 +4812,11 @@
         <v>133</v>
       </c>
       <c r="I53" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="0"/>
-        <v>0.17293233082706766</v>
+        <v>0.18045112781954886</v>
       </c>
       <c r="K53" s="10">
         <v>7.91</v>
@@ -4819,11 +4827,11 @@
         <v>106.4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1">
-      <c r="A54" s="34">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>324</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="8">
@@ -4844,11 +4852,11 @@
         <v>1</v>
       </c>
       <c r="I54" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J54" s="12">
         <f>I54/H54</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K54" s="10">
         <v>6.67</v>
@@ -4859,11 +4867,11 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="34">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
         <v>311</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="8">
@@ -4899,11 +4907,11 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1">
-      <c r="A56" s="34">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>315</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="8">
@@ -4927,11 +4935,11 @@
         <v>122</v>
       </c>
       <c r="I56" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="0"/>
-        <v>0.32786885245901637</v>
+        <v>0.35245901639344263</v>
       </c>
       <c r="K56" s="10">
         <v>4.58</v>
@@ -4942,11 +4950,11 @@
         <v>97.600000000000009</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1">
-      <c r="A57" s="34">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>316</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="8">
@@ -4985,11 +4993,11 @@
         <v>42.400000000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1">
-      <c r="A58" s="34">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
         <v>317</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="8">
@@ -5027,11 +5035,11 @@
         <v>62.400000000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1">
-      <c r="A59" s="34">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>320</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="8">
@@ -5069,33 +5077,31 @@
         <v>112.80000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G60"/>
       <c r="J60" s="17"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="28"/>
     </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1"/>
-    <row r="62" spans="1:13" ht="15" customHeight="1"/>
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
-      <formula>0.328</formula>
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+      <formula>0.3359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
     <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
       <formula>0.1699</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="between">
       <formula>0.17</formula>
-      <formula>0.3279</formula>
+      <formula>0.3358</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L59">
@@ -5132,7 +5138,7 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5147,13 +5153,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
@@ -5164,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>45597</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>7.6335877862595417E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>45627</v>
       </c>
@@ -5189,10 +5195,10 @@
       </c>
       <c r="D3" s="23">
         <f>E2*D7</f>
-        <v>0.3282442748091603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.33587786259541985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
@@ -5203,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
@@ -5218,7 +5224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
@@ -5226,10 +5232,10 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
@@ -5238,10 +5244,10 @@
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -5249,7 +5255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>17</v>
       </c>
@@ -5258,14 +5264,14 @@
       </c>
       <c r="D9" s="23">
         <f>D7*E2</f>
-        <v>0.3282442748091603</v>
+        <v>0.33587786259541985</v>
       </c>
       <c r="E9" s="31">
         <f>D9</f>
-        <v>0.3282442748091603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.33587786259541985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
@@ -5273,7 +5279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
@@ -5281,7 +5287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>21</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
@@ -5313,22 +5319,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>2344.9770992366412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>2381.709923664122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>1117.9770992366412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>1117.709923664122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
-        <v>45838</v>
+        <v>45839</v>
       </c>
     </row>
   </sheetData>

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2AF09A-885D-4CE8-9A72-75C9B81DE3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03674C59-3EFC-4D86-BD78-A51A7DB75C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
@@ -372,7 +372,7 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -784,6 +784,40 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFFC000"/>
       </font>
@@ -812,70 +846,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -964,7 +934,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>02/07/2025</a:t>
+            <a:t>03/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1438,7 +1408,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>33,59%</a:t>
+            <a:t>34,35%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2351,10 +2321,10 @@
       <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
-            <v>7091</v>
+            <v>7033</v>
           </cell>
           <cell r="E23">
-            <v>1264</v>
+            <v>1300</v>
           </cell>
         </row>
       </sheetData>
@@ -2399,7 +2369,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A8:M59" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="16"/>
@@ -2726,7 +2696,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2759,7 +2731,7 @@
       <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45840</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2777,19 +2749,19 @@
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>4.1944444444444444E-2</v>
+        <v>4.422673198040588E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>2.6944444444444444E-2</v>
+        <v>2.8691392582225334E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.4722222222222222E-2</v>
+        <v>2.5052484254723582E-2</v>
       </c>
       <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.15764887218368831</v>
+        <v>-0.1586948453205477</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2803,31 +2775,31 @@
       <c r="C6" s="32"/>
       <c r="D6" s="2">
         <f>SUBTOTAL(9,Tabela1[Carteira])</f>
-        <v>7200</v>
+        <v>7145</v>
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7092</v>
+        <v>7034</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1264</v>
+        <v>1300</v>
       </c>
       <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.17822899041173154</v>
+        <v>0.18481660506113165</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
@@ -2950,24 +2922,24 @@
         <v>175</v>
       </c>
       <c r="E10" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F10" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" s="14">
         <v>6</v>
       </c>
       <c r="H10" s="8">
         <f>D10-E10+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I10" s="8">
         <v>52</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.31707317073170732</v>
+        <v>0.32098765432098764</v>
       </c>
       <c r="K10" s="10">
         <v>12.53</v>
@@ -2975,7 +2947,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>131.20000000000002</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2993,24 +2965,24 @@
         <v>111</v>
       </c>
       <c r="E11" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="14">
         <v>0</v>
       </c>
       <c r="H11" s="8">
         <f>D11-E11+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I11" s="8">
         <v>26</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>0.24299065420560748</v>
+        <v>0.23853211009174313</v>
       </c>
       <c r="K11" s="10">
         <v>12.53</v>
@@ -3018,7 +2990,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>85.600000000000009</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3036,7 +3008,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" s="8">
         <v>11</v>
@@ -3046,14 +3018,14 @@
       </c>
       <c r="H12" s="8">
         <f>D12-E12+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I12" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0.33870967741935482</v>
+        <v>0.34574468085106386</v>
       </c>
       <c r="K12" s="10">
         <v>7.87</v>
@@ -3061,7 +3033,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>148.80000000000001</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3079,7 +3051,7 @@
         <v>145</v>
       </c>
       <c r="E13" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="8">
         <v>3</v>
@@ -3089,14 +3061,14 @@
       </c>
       <c r="H13" s="8">
         <f>D13-E13+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I13" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>0.11188811188811189</v>
+        <v>0.12676056338028169</v>
       </c>
       <c r="K13" s="10">
         <v>8.75</v>
@@ -3104,7 +3076,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>114.4</v>
+        <v>113.60000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3123,7 +3095,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -3133,14 +3105,14 @@
       </c>
       <c r="H14" s="8">
         <f>D14-E14+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I14" s="8">
         <v>34</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>0.27642276422764228</v>
+        <v>0.27868852459016391</v>
       </c>
       <c r="K14" s="10">
         <v>12.4</v>
@@ -3148,7 +3120,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>98.4</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3166,24 +3138,24 @@
         <v>144</v>
       </c>
       <c r="E15" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="8">
         <v>3</v>
       </c>
       <c r="G15" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15" s="8">
         <f>D15-E15+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I15" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>0.16438356164383561</v>
+        <v>0.1793103448275862</v>
       </c>
       <c r="K15" s="10">
         <v>11.9</v>
@@ -3191,7 +3163,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>116.80000000000001</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3209,24 +3181,24 @@
         <v>106</v>
       </c>
       <c r="E16" s="8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F16" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G16" s="14">
         <v>2</v>
       </c>
       <c r="H16" s="8">
         <f>D16-E16+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I16" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>0.29523809523809524</v>
+        <v>0.29906542056074764</v>
       </c>
       <c r="K16" s="10">
         <v>4.76</v>
@@ -3234,7 +3206,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>84</v>
+        <v>85.600000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3295,7 +3267,7 @@
         <v>222</v>
       </c>
       <c r="E18" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="8">
         <v>11</v>
@@ -3305,14 +3277,14 @@
       </c>
       <c r="H18" s="8">
         <f>D18-E18+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I18" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.29017857142857145</v>
+        <v>0.30044843049327352</v>
       </c>
       <c r="K18" s="10">
         <v>10.050000000000001</v>
@@ -3320,7 +3292,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>179.20000000000002</v>
+        <v>178.4</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3381,7 +3353,7 @@
         <v>86</v>
       </c>
       <c r="E20" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="8">
         <v>2</v>
@@ -3391,14 +3363,14 @@
       </c>
       <c r="H20" s="8">
         <f>D20-E20+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="8">
         <v>14</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
-        <v>0.16470588235294117</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K20" s="10">
         <v>10</v>
@@ -3406,7 +3378,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>68</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3424,7 +3396,7 @@
         <v>94</v>
       </c>
       <c r="E21" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="8">
         <v>3</v>
@@ -3434,14 +3406,14 @@
       </c>
       <c r="H21" s="8">
         <f>D21-E21+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="8">
         <v>26</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>0.27083333333333331</v>
+        <v>0.27368421052631581</v>
       </c>
       <c r="K21" s="10">
         <v>11.67</v>
@@ -3449,7 +3421,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>76.800000000000011</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3467,7 +3439,7 @@
         <v>159</v>
       </c>
       <c r="E22" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22" s="8">
         <v>4</v>
@@ -3477,14 +3449,14 @@
       </c>
       <c r="H22" s="8">
         <f>D22-E22+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I22" s="8">
         <v>16</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="0"/>
-        <v>0.10191082802547771</v>
+        <v>0.1032258064516129</v>
       </c>
       <c r="K22" s="10">
         <v>4.82</v>
@@ -3492,7 +3464,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>125.60000000000001</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3524,11 +3496,11 @@
         <v>158</v>
       </c>
       <c r="I23" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.18354430379746836</v>
+        <v>0.20253164556962025</v>
       </c>
       <c r="K23" s="10">
         <v>7.5</v>
@@ -3554,24 +3526,24 @@
         <v>229</v>
       </c>
       <c r="E24" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="8">
         <v>11</v>
       </c>
       <c r="G24" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="8">
         <f>D24-E24+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I24" s="8">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.24336283185840707</v>
       </c>
       <c r="K24" s="10">
         <v>9.52</v>
@@ -3579,7 +3551,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>180</v>
+        <v>180.8</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3684,7 +3656,7 @@
         <v>119</v>
       </c>
       <c r="E27" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="8">
         <v>5</v>
@@ -3694,14 +3666,14 @@
       </c>
       <c r="H27" s="8">
         <f>D27-E27+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I27" s="8">
         <v>27</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.22131147540983606</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="K27" s="10">
         <v>8.33</v>
@@ -3709,7 +3681,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>97.600000000000009</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3726,7 +3698,7 @@
         <v>178</v>
       </c>
       <c r="E28" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F28" s="8">
         <v>5</v>
@@ -3736,14 +3708,14 @@
       </c>
       <c r="H28" s="8">
         <f>D28-E28+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I28" s="8">
         <v>53</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>0.29943502824858759</v>
+        <v>0.3045977011494253</v>
       </c>
       <c r="K28" s="10">
         <v>7.33</v>
@@ -3751,7 +3723,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>141.6</v>
+        <v>139.20000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3769,7 +3741,7 @@
         <v>127</v>
       </c>
       <c r="E29" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="8">
         <v>2</v>
@@ -3779,14 +3751,14 @@
       </c>
       <c r="H29" s="8">
         <f>D29-E29+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I29" s="8">
         <v>14</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.112</v>
       </c>
       <c r="K29" s="10">
         <v>11</v>
@@ -3794,7 +3766,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>100.80000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3812,7 +3784,7 @@
         <v>257</v>
       </c>
       <c r="E30" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" s="8">
         <v>6</v>
@@ -3822,14 +3794,14 @@
       </c>
       <c r="H30" s="8">
         <f>D30-E30+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I30" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>4.2801556420233464E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="K30" s="10">
         <v>7.5</v>
@@ -3837,7 +3809,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>205.60000000000002</v>
+        <v>206.4</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3855,7 +3827,7 @@
         <v>140</v>
       </c>
       <c r="E31" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -3865,14 +3837,14 @@
       </c>
       <c r="H31" s="8">
         <f>D31-E31+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I31" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="0"/>
-        <v>0.28888888888888886</v>
+        <v>0.29197080291970801</v>
       </c>
       <c r="K31" s="10">
         <v>6.54</v>
@@ -3880,7 +3852,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>108</v>
+        <v>109.60000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3898,7 +3870,7 @@
         <v>117</v>
       </c>
       <c r="E32" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -3908,14 +3880,14 @@
       </c>
       <c r="H32" s="8">
         <f>D32-E32+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I32" s="8">
         <v>10</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" si="0"/>
-        <v>9.1743119266055051E-2</v>
+        <v>8.9285714285714288E-2</v>
       </c>
       <c r="K32" s="10">
         <v>16.13</v>
@@ -3923,7 +3895,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>87.2</v>
+        <v>89.600000000000009</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3941,24 +3913,24 @@
         <v>260</v>
       </c>
       <c r="E33" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" s="8">
         <v>0</v>
       </c>
       <c r="G33" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" s="8">
         <f>D33-E33+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I33" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>4.3137254901960784E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="K33" s="10">
         <v>5.88</v>
@@ -3966,7 +3938,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>204</v>
+        <v>204.8</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3984,7 +3956,7 @@
         <v>177</v>
       </c>
       <c r="E34" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="8">
         <v>5</v>
@@ -3994,14 +3966,14 @@
       </c>
       <c r="H34" s="8">
         <f>D34-E34+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I34" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="0"/>
-        <v>0.2303370786516854</v>
+        <v>0.23728813559322035</v>
       </c>
       <c r="K34" s="10">
         <v>6.59</v>
@@ -4009,7 +3981,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>142.4</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4027,7 +3999,7 @@
         <v>122</v>
       </c>
       <c r="E35" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F35" s="8">
         <v>1</v>
@@ -4037,14 +4009,14 @@
       </c>
       <c r="H35" s="8">
         <f>D35-E35+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I35" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.35344827586206895</v>
+        <v>0.38596491228070173</v>
       </c>
       <c r="K35" s="10">
         <v>8.8699999999999992</v>
@@ -4052,7 +4024,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>92.800000000000011</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4070,7 +4042,7 @@
         <v>272</v>
       </c>
       <c r="E36" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="8">
         <v>4</v>
@@ -4080,14 +4052,14 @@
       </c>
       <c r="H36" s="8">
         <f>D36-E36+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I36" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.15413533834586465</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="K36" s="10">
         <v>10.37</v>
@@ -4095,7 +4067,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>212.8</v>
+        <v>213.60000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4113,10 +4085,10 @@
         <v>173</v>
       </c>
       <c r="E37" s="8">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8">
         <v>4</v>
-      </c>
-      <c r="F37" s="8">
-        <v>3</v>
       </c>
       <c r="G37" s="14">
         <v>5</v>
@@ -4126,11 +4098,11 @@
         <v>172</v>
       </c>
       <c r="I37" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>9.8837209302325577E-2</v>
+        <v>0.11046511627906977</v>
       </c>
       <c r="K37" s="10">
         <v>4.93</v>
@@ -4155,24 +4127,24 @@
         <v>134</v>
       </c>
       <c r="E38" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
       </c>
       <c r="G38" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="8">
         <f>D38-E38+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I38" s="8">
         <v>10</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>8.2644628099173556E-2</v>
       </c>
       <c r="K38" s="10">
         <v>6</v>
@@ -4180,7 +4152,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>96</v>
+        <v>96.800000000000011</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,7 +4210,7 @@
         <v>9902</v>
       </c>
       <c r="D40" s="8">
-        <v>317</v>
+        <v>214</v>
       </c>
       <c r="E40" s="8">
         <v>13</v>
@@ -4251,14 +4223,14 @@
       </c>
       <c r="H40" s="8">
         <f>D40-E40+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="I40" s="8">
         <v>20</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>6.535947712418301E-2</v>
+        <v>9.8522167487684734E-2</v>
       </c>
       <c r="K40" s="10">
         <v>7.69</v>
@@ -4266,7 +4238,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>244.8</v>
+        <v>162.4</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4297,11 +4269,11 @@
         <v>128</v>
       </c>
       <c r="I41" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>0.203125</v>
+        <v>0.2109375</v>
       </c>
       <c r="K41" s="10">
         <v>8.8699999999999992</v>
@@ -4328,7 +4300,7 @@
         <v>79</v>
       </c>
       <c r="E42" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="8">
         <v>2</v>
@@ -4338,14 +4310,14 @@
       </c>
       <c r="H42" s="8">
         <f>D42-E42+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" s="8">
         <v>6</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>7.5949367088607597E-2</v>
       </c>
       <c r="K42" s="10">
         <v>8.17</v>
@@ -4353,7 +4325,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>62.400000000000006</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4370,7 +4342,7 @@
         <v>206</v>
       </c>
       <c r="E43" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F43" s="8">
         <v>0</v>
@@ -4380,14 +4352,14 @@
       </c>
       <c r="H43" s="8">
         <f>D43-E43+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I43" s="8">
         <v>20</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0.11904761904761904</v>
+        <v>0.12048192771084337</v>
       </c>
       <c r="K43" s="10">
         <v>6.65</v>
@@ -4395,7 +4367,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>134.4</v>
+        <v>132.80000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4413,7 +4385,7 @@
         <v>213</v>
       </c>
       <c r="E44" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" s="8">
         <v>8</v>
@@ -4423,14 +4395,14 @@
       </c>
       <c r="H44" s="8">
         <f>D44-E44+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I44" s="8">
         <v>44</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>0.21052631578947367</v>
+        <v>0.21153846153846154</v>
       </c>
       <c r="K44" s="10">
         <v>4.62</v>
@@ -4438,7 +4410,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>167.20000000000002</v>
+        <v>166.4</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4629,21 +4601,21 @@
         <v>0</v>
       </c>
       <c r="F49" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" s="14">
         <v>2</v>
       </c>
       <c r="H49" s="8">
         <f>D49-E49+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I49" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="0"/>
-        <v>0.26890756302521007</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="K49" s="10">
         <v>5.19</v>
@@ -4651,7 +4623,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>95.2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4672,21 +4644,21 @@
         <v>0</v>
       </c>
       <c r="F50" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50" s="14">
         <v>2</v>
       </c>
       <c r="H50" s="8">
         <f>D50-E50+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I50" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="0"/>
-        <v>0.1366906474820144</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="K50" s="10">
         <v>7.4</v>
@@ -4694,7 +4666,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>111.2</v>
+        <v>112.80000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4770,11 +4742,11 @@
         <v>78</v>
       </c>
       <c r="I52" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J52" s="12">
         <f t="shared" si="0"/>
-        <v>0.21794871794871795</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="K52" s="10">
         <v>6.5</v>
@@ -4852,11 +4824,11 @@
         <v>1</v>
       </c>
       <c r="I54" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J54" s="12">
         <f>I54/H54</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K54" s="10">
         <v>6.67</v>
@@ -4922,7 +4894,7 @@
         <v>122</v>
       </c>
       <c r="E56" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F56" s="8">
         <v>2</v>
@@ -4932,14 +4904,14 @@
       </c>
       <c r="H56" s="8">
         <f>D56-E56+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I56" s="8">
         <v>43</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="0"/>
-        <v>0.35245901639344263</v>
+        <v>0.36440677966101692</v>
       </c>
       <c r="K56" s="10">
         <v>4.58</v>
@@ -4947,7 +4919,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>97.600000000000009</v>
+        <v>94.4</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4961,8 +4933,7 @@
         <v>9902</v>
       </c>
       <c r="D57" s="8">
-        <f>85-49</f>
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E57" s="8">
         <v>3</v>
@@ -4975,14 +4946,14 @@
       </c>
       <c r="H57" s="8">
         <f>D57-E57+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="I57" s="8">
         <v>17</v>
       </c>
       <c r="J57" s="12">
         <f t="shared" si="0"/>
-        <v>0.32075471698113206</v>
+        <v>0.16831683168316833</v>
       </c>
       <c r="K57" s="10">
         <v>6.36</v>
@@ -4990,7 +4961,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>42.400000000000006</v>
+        <v>80.800000000000011</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5055,7 +5026,7 @@
         <v>4</v>
       </c>
       <c r="G59" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59" s="8">
         <f>D59-E59+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
@@ -5092,16 +5063,16 @@
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
-      <formula>0.3359</formula>
+      <formula>0.3435</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
       <formula>0.1699</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
       <formula>0.17</formula>
-      <formula>0.3358</formula>
+      <formula>0.3434</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L59">
@@ -5195,7 +5166,7 @@
       </c>
       <c r="D3" s="23">
         <f>E2*D7</f>
-        <v>0.33587786259541985</v>
+        <v>0.34351145038167935</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5232,7 +5203,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5244,7 +5215,7 @@
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5264,11 +5235,11 @@
       </c>
       <c r="D9" s="23">
         <f>D7*E2</f>
-        <v>0.33587786259541985</v>
+        <v>0.34351145038167935</v>
       </c>
       <c r="E9" s="31">
         <f>D9</f>
-        <v>0.33587786259541985</v>
+        <v>0.34351145038167935</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5322,19 +5293,19 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>2381.709923664122</v>
+        <v>2415.9160305343507</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>1117.709923664122</v>
+        <v>1115.9160305343507</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
-        <v>45839</v>
+        <v>45840</v>
       </c>
     </row>
   </sheetData>

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03674C59-3EFC-4D86-BD78-A51A7DB75C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBF1B45-587B-4539-9633-5837463FF715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
@@ -372,7 +372,7 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
     <dxf>
       <font>
         <b val="0"/>
@@ -784,40 +784,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFC000"/>
       </font>
@@ -846,6 +812,70 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -934,7 +964,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>03/07/2025</a:t>
+            <a:t>06/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1408,7 +1438,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>34,35%</a:t>
+            <a:t>35,11%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2321,10 +2351,10 @@
       <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
-            <v>7033</v>
+            <v>7008</v>
           </cell>
           <cell r="E23">
-            <v>1300</v>
+            <v>1326</v>
           </cell>
         </row>
       </sheetData>
@@ -2369,7 +2399,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A8:M59" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="16"/>
@@ -2696,8 +2726,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,7 +2761,7 @@
       <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45841</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2749,19 +2779,19 @@
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>4.422673198040588E-2</v>
+        <v>4.8145556333100067E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>2.8691392582225334E-2</v>
+        <v>2.9111266620013995E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.5052484254723582E-2</v>
+        <v>2.4772568229531142E-2</v>
       </c>
       <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.1586948453205477</v>
+        <v>-0.16195970502483717</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2779,27 +2809,27 @@
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7034</v>
+        <v>7009</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1300</v>
+        <v>1326</v>
       </c>
       <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.18481660506113165</v>
+        <v>0.18918533314310174</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
@@ -2879,7 +2909,7 @@
         <v>142</v>
       </c>
       <c r="E9" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
@@ -2889,14 +2919,14 @@
       </c>
       <c r="H9" s="8">
         <f>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I9" s="8">
         <v>13</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ref="J9:J59" si="0">I9/H9</f>
-        <v>9.3525179856115109E-2</v>
+        <v>9.420289855072464E-2</v>
       </c>
       <c r="K9" s="10">
         <v>14.92</v>
@@ -2904,7 +2934,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>111.2</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2925,21 +2955,21 @@
         <v>19</v>
       </c>
       <c r="F10" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="14">
         <v>6</v>
       </c>
       <c r="H10" s="8">
         <f>D10-E10+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I10" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.32098765432098764</v>
+        <v>0.32515337423312884</v>
       </c>
       <c r="K10" s="10">
         <v>12.53</v>
@@ -2947,7 +2977,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>129.6</v>
+        <v>130.4</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3008,7 +3038,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="8">
         <v>11</v>
@@ -3018,14 +3048,14 @@
       </c>
       <c r="H12" s="8">
         <f>D12-E12+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I12" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0.34574468085106386</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="K12" s="10">
         <v>7.87</v>
@@ -3033,7 +3063,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>150.4</v>
+        <v>149.6</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3051,7 +3081,7 @@
         <v>145</v>
       </c>
       <c r="E13" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="8">
         <v>3</v>
@@ -3061,14 +3091,14 @@
       </c>
       <c r="H13" s="8">
         <f>D13-E13+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I13" s="8">
         <v>18</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>0.12676056338028169</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="K13" s="10">
         <v>8.75</v>
@@ -3076,7 +3106,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>113.60000000000001</v>
+        <v>112.80000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3138,10 +3168,10 @@
         <v>144</v>
       </c>
       <c r="E15" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="14">
         <v>7</v>
@@ -3181,7 +3211,7 @@
         <v>106</v>
       </c>
       <c r="E16" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="8">
         <v>14</v>
@@ -3191,14 +3221,14 @@
       </c>
       <c r="H16" s="8">
         <f>D16-E16+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I16" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>0.29906542056074764</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="K16" s="10">
         <v>4.76</v>
@@ -3206,7 +3236,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>85.600000000000009</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3267,7 +3297,7 @@
         <v>222</v>
       </c>
       <c r="E18" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" s="8">
         <v>11</v>
@@ -3277,14 +3307,14 @@
       </c>
       <c r="H18" s="8">
         <f>D18-E18+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I18" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.30044843049327352</v>
+        <v>0.30630630630630629</v>
       </c>
       <c r="K18" s="10">
         <v>10.050000000000001</v>
@@ -3292,7 +3322,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>178.4</v>
+        <v>177.60000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3323,11 +3353,11 @@
         <v>94</v>
       </c>
       <c r="I19" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>0.32978723404255317</v>
+        <v>0.34042553191489361</v>
       </c>
       <c r="K19" s="10">
         <v>4.4800000000000004</v>
@@ -3353,7 +3383,7 @@
         <v>86</v>
       </c>
       <c r="E20" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="8">
         <v>2</v>
@@ -3363,14 +3393,14 @@
       </c>
       <c r="H20" s="8">
         <f>D20-E20+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20" s="8">
         <v>14</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.16867469879518071</v>
       </c>
       <c r="K20" s="10">
         <v>10</v>
@@ -3378,7 +3408,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>67.2</v>
+        <v>66.400000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3396,7 +3426,7 @@
         <v>94</v>
       </c>
       <c r="E21" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="8">
         <v>3</v>
@@ -3406,14 +3436,14 @@
       </c>
       <c r="H21" s="8">
         <f>D21-E21+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I21" s="8">
         <v>26</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>0.27368421052631581</v>
+        <v>0.27659574468085107</v>
       </c>
       <c r="K21" s="10">
         <v>11.67</v>
@@ -3421,7 +3451,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>76</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3439,7 +3469,7 @@
         <v>159</v>
       </c>
       <c r="E22" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="8">
         <v>4</v>
@@ -3449,14 +3479,14 @@
       </c>
       <c r="H22" s="8">
         <f>D22-E22+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I22" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="0"/>
-        <v>0.1032258064516129</v>
+        <v>0.11464968152866242</v>
       </c>
       <c r="K22" s="10">
         <v>4.82</v>
@@ -3464,7 +3494,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>124</v>
+        <v>125.60000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3483,24 +3513,24 @@
         <v>158</v>
       </c>
       <c r="E23" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F23" s="8">
         <v>8</v>
       </c>
       <c r="G23" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" s="8">
         <f>D23-E23+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I23" s="8">
         <v>32</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.20253164556962025</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="K23" s="10">
         <v>7.5</v>
@@ -3508,7 +3538,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>126.4</v>
+        <v>124.80000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3526,7 +3556,7 @@
         <v>229</v>
       </c>
       <c r="E24" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F24" s="8">
         <v>11</v>
@@ -3536,14 +3566,14 @@
       </c>
       <c r="H24" s="8">
         <f>D24-E24+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I24" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="0"/>
-        <v>0.24336283185840707</v>
+        <v>0.25</v>
       </c>
       <c r="K24" s="10">
         <v>9.52</v>
@@ -3551,7 +3581,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>180.8</v>
+        <v>179.20000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3569,7 +3599,7 @@
         <v>106</v>
       </c>
       <c r="E25" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -3579,14 +3609,14 @@
       </c>
       <c r="H25" s="8">
         <f>D25-E25+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I25" s="8">
         <v>29</v>
       </c>
       <c r="J25" s="12">
         <f t="shared" si="0"/>
-        <v>0.28712871287128711</v>
+        <v>0.28431372549019607</v>
       </c>
       <c r="K25" s="10">
         <v>7.29</v>
@@ -3594,7 +3624,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>80.800000000000011</v>
+        <v>81.600000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3626,11 +3656,11 @@
         <v>89</v>
       </c>
       <c r="I26" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J26" s="12">
         <f t="shared" si="0"/>
-        <v>0.15730337078651685</v>
+        <v>0.16853932584269662</v>
       </c>
       <c r="K26" s="10">
         <v>7.29</v>
@@ -3656,24 +3686,24 @@
         <v>119</v>
       </c>
       <c r="E27" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="8">
         <v>5</v>
       </c>
       <c r="G27" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="8">
         <f>D27-E27+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I27" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.21951219512195122</v>
+        <v>0.22950819672131148</v>
       </c>
       <c r="K27" s="10">
         <v>8.33</v>
@@ -3681,7 +3711,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>98.4</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3698,7 +3728,7 @@
         <v>178</v>
       </c>
       <c r="E28" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="8">
         <v>5</v>
@@ -3708,14 +3738,14 @@
       </c>
       <c r="H28" s="8">
         <f>D28-E28+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I28" s="8">
         <v>53</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>0.3045977011494253</v>
+        <v>0.30635838150289019</v>
       </c>
       <c r="K28" s="10">
         <v>7.33</v>
@@ -3723,7 +3753,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>139.20000000000002</v>
+        <v>138.4</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3784,7 +3814,7 @@
         <v>257</v>
       </c>
       <c r="E30" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F30" s="8">
         <v>6</v>
@@ -3794,14 +3824,14 @@
       </c>
       <c r="H30" s="8">
         <f>D30-E30+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I30" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>4.6511627906976744E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K30" s="10">
         <v>7.5</v>
@@ -3809,7 +3839,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>206.4</v>
+        <v>204.8</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3840,11 +3870,11 @@
         <v>137</v>
       </c>
       <c r="I31" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="0"/>
-        <v>0.29197080291970801</v>
+        <v>0.29927007299270075</v>
       </c>
       <c r="K31" s="10">
         <v>6.54</v>
@@ -3870,7 +3900,7 @@
         <v>117</v>
       </c>
       <c r="E32" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -3880,14 +3910,14 @@
       </c>
       <c r="H32" s="8">
         <f>D32-E32+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I32" s="8">
         <v>10</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" si="0"/>
-        <v>8.9285714285714288E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K32" s="10">
         <v>16.13</v>
@@ -3895,7 +3925,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>89.600000000000009</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3913,24 +3943,24 @@
         <v>260</v>
       </c>
       <c r="E33" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33" s="8">
         <v>0</v>
       </c>
       <c r="G33" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="8">
         <f>D33-E33+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I33" s="8">
         <v>12</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>4.6875E-2</v>
+        <v>4.7058823529411764E-2</v>
       </c>
       <c r="K33" s="10">
         <v>5.88</v>
@@ -3938,7 +3968,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>204.8</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3956,7 +3986,7 @@
         <v>177</v>
       </c>
       <c r="E34" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="8">
         <v>5</v>
@@ -3966,14 +3996,14 @@
       </c>
       <c r="H34" s="8">
         <f>D34-E34+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I34" s="8">
         <v>42</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="0"/>
-        <v>0.23728813559322035</v>
+        <v>0.23863636363636365</v>
       </c>
       <c r="K34" s="10">
         <v>6.59</v>
@@ -3981,7 +4011,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>141.6</v>
+        <v>140.80000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3999,7 +4029,7 @@
         <v>122</v>
       </c>
       <c r="E35" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F35" s="8">
         <v>1</v>
@@ -4009,14 +4039,14 @@
       </c>
       <c r="H35" s="8">
         <f>D35-E35+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I35" s="8">
         <v>44</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.38596491228070173</v>
+        <v>0.38938053097345132</v>
       </c>
       <c r="K35" s="10">
         <v>8.8699999999999992</v>
@@ -4024,7 +4054,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>91.2</v>
+        <v>90.4</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4042,7 +4072,7 @@
         <v>272</v>
       </c>
       <c r="E36" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="8">
         <v>4</v>
@@ -4052,14 +4082,14 @@
       </c>
       <c r="H36" s="8">
         <f>D36-E36+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I36" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.15730337078651685</v>
+        <v>0.16417910447761194</v>
       </c>
       <c r="K36" s="10">
         <v>10.37</v>
@@ -4067,7 +4097,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>213.60000000000002</v>
+        <v>214.4</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4091,18 +4121,18 @@
         <v>4</v>
       </c>
       <c r="G37" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H37" s="8">
         <f>D37-E37+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
         <v>172</v>
       </c>
       <c r="I37" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>0.11046511627906977</v>
+        <v>0.13372093023255813</v>
       </c>
       <c r="K37" s="10">
         <v>4.93</v>
@@ -4127,7 +4157,7 @@
         <v>134</v>
       </c>
       <c r="E38" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
@@ -4137,14 +4167,14 @@
       </c>
       <c r="H38" s="8">
         <f>D38-E38+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I38" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="0"/>
-        <v>8.2644628099173556E-2</v>
+        <v>9.166666666666666E-2</v>
       </c>
       <c r="K38" s="10">
         <v>6</v>
@@ -4152,7 +4182,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>96.800000000000011</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4183,11 +4213,11 @@
         <v>163</v>
       </c>
       <c r="I39" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>0.21472392638036811</v>
+        <v>0.22085889570552147</v>
       </c>
       <c r="K39" s="10">
         <v>6.23</v>
@@ -4213,7 +4243,7 @@
         <v>214</v>
       </c>
       <c r="E40" s="8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F40" s="8">
         <v>2</v>
@@ -4223,14 +4253,14 @@
       </c>
       <c r="H40" s="8">
         <f>D40-E40+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I40" s="8">
         <v>20</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>9.8522167487684734E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K40" s="10">
         <v>7.69</v>
@@ -4238,7 +4268,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>162.4</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,7 +4286,7 @@
         <v>130</v>
       </c>
       <c r="E41" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" s="8">
         <v>3</v>
@@ -4266,14 +4296,14 @@
       </c>
       <c r="H41" s="8">
         <f>D41-E41+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I41" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>0.2109375</v>
+        <v>0.2283464566929134</v>
       </c>
       <c r="K41" s="10">
         <v>8.8699999999999992</v>
@@ -4281,7 +4311,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>102.4</v>
+        <v>101.60000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4300,7 +4330,7 @@
         <v>79</v>
       </c>
       <c r="E42" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="8">
         <v>2</v>
@@ -4310,14 +4340,14 @@
       </c>
       <c r="H42" s="8">
         <f>D42-E42+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I42" s="8">
         <v>6</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="0"/>
-        <v>7.5949367088607597E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K42" s="10">
         <v>8.17</v>
@@ -4325,7 +4355,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>63.2</v>
+        <v>62.400000000000006</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4342,7 +4372,7 @@
         <v>206</v>
       </c>
       <c r="E43" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" s="8">
         <v>0</v>
@@ -4352,14 +4382,14 @@
       </c>
       <c r="H43" s="8">
         <f>D43-E43+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I43" s="8">
         <v>20</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0.12048192771084337</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="K43" s="10">
         <v>6.65</v>
@@ -4367,7 +4397,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>132.80000000000001</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4471,7 +4501,7 @@
         <v>103</v>
       </c>
       <c r="E46" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
@@ -4481,14 +4511,14 @@
       </c>
       <c r="H46" s="8">
         <f>D46-E46+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I46" s="8">
         <v>17</v>
       </c>
       <c r="J46" s="12">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.16831683168316833</v>
       </c>
       <c r="K46" s="10">
         <v>5.92</v>
@@ -4496,7 +4526,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>81.600000000000009</v>
+        <v>80.800000000000011</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4555,7 +4585,7 @@
         <v>147</v>
       </c>
       <c r="E48" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F48" s="8">
         <v>3</v>
@@ -4565,14 +4595,14 @@
       </c>
       <c r="H48" s="8">
         <f>D48-E48+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I48" s="8">
         <v>13</v>
       </c>
       <c r="J48" s="12">
         <f t="shared" si="0"/>
-        <v>0.10743801652892562</v>
+        <v>0.10833333333333334</v>
       </c>
       <c r="K48" s="10">
         <v>7.3</v>
@@ -4580,7 +4610,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>96.800000000000011</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4598,24 +4628,24 @@
         <v>117</v>
       </c>
       <c r="E49" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49" s="14">
         <v>2</v>
       </c>
       <c r="H49" s="8">
         <f>D49-E49+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I49" s="8">
         <v>33</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.27731092436974791</v>
       </c>
       <c r="K49" s="10">
         <v>5.19</v>
@@ -4623,7 +4653,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>96</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4641,7 +4671,7 @@
         <v>136</v>
       </c>
       <c r="E50" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="8">
         <v>5</v>
@@ -4651,14 +4681,14 @@
       </c>
       <c r="H50" s="8">
         <f>D50-E50+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I50" s="8">
         <v>24</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="0"/>
-        <v>0.1702127659574468</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="K50" s="10">
         <v>7.4</v>
@@ -4666,7 +4696,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112.80000000000001</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4685,7 +4715,7 @@
         <v>94</v>
       </c>
       <c r="E51" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="8">
         <v>17</v>
@@ -4695,14 +4725,14 @@
       </c>
       <c r="H51" s="8">
         <f>D51-E51+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I51" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="0"/>
-        <v>4.5454545454545456E-2</v>
+        <v>5.5045871559633031E-2</v>
       </c>
       <c r="K51" s="10">
         <v>15</v>
@@ -4710,7 +4740,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>88</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4942,7 +4972,7 @@
         <v>20</v>
       </c>
       <c r="G57" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" s="8">
         <f>D57-E57+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
@@ -5026,7 +5056,7 @@
         <v>4</v>
       </c>
       <c r="G59" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H59" s="8">
         <f>D59-E59+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
@@ -5063,16 +5093,16 @@
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
-      <formula>0.3435</formula>
+      <formula>0.3511</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
       <formula>0.1699</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="between">
       <formula>0.17</formula>
-      <formula>0.3434</formula>
+      <formula>0.341</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L59">
@@ -5166,7 +5196,7 @@
       </c>
       <c r="D3" s="23">
         <f>E2*D7</f>
-        <v>0.34351145038167935</v>
+        <v>0.35114503816793891</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5203,7 +5233,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5215,7 +5245,7 @@
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5235,11 +5265,11 @@
       </c>
       <c r="D9" s="23">
         <f>D7*E2</f>
-        <v>0.34351145038167935</v>
+        <v>0.35114503816793891</v>
       </c>
       <c r="E9" s="31">
         <f>D9</f>
-        <v>0.34351145038167935</v>
+        <v>0.35114503816793891</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5293,19 +5323,19 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>2415.9160305343507</v>
+        <v>2460.8244274809158</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>1115.9160305343507</v>
+        <v>1134.8244274809158</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
-        <v>45840</v>
+        <v>45843</v>
       </c>
     </row>
   </sheetData>

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBF1B45-587B-4539-9633-5837463FF715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AAF9A8-2239-4737-AC13-2F31B3AC481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
@@ -148,9 +148,6 @@
     <t>Glauciane</t>
   </si>
   <si>
-    <t>Wagner</t>
-  </si>
-  <si>
     <t>Alexandre</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>Meta Cob. Coleção</t>
+  </si>
+  <si>
+    <t>Felipe</t>
   </si>
 </sst>
 </file>
@@ -825,21 +825,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -964,7 +964,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>06/07/2025</a:t>
+            <a:t>07/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1438,7 +1438,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>35,11%</a:t>
+            <a:t>35,88%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2351,10 +2351,10 @@
       <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
-            <v>7008</v>
+            <v>7014</v>
           </cell>
           <cell r="E23">
-            <v>1326</v>
+            <v>1345</v>
           </cell>
         </row>
       </sheetData>
@@ -2726,8 +2726,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,7 +2761,7 @@
       <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45844</v>
+        <v>45845</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2779,19 +2779,19 @@
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>4.8145556333100067E-2</v>
+        <v>4.7725682295311406E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>2.9111266620013995E-2</v>
+        <v>2.953114065780266E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.4772568229531142E-2</v>
+        <v>2.5052484254723582E-2</v>
       </c>
       <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.16195970502483717</v>
+        <v>-0.16661896807821841</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2809,27 +2809,27 @@
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7009</v>
+        <v>7015</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1326</v>
+        <v>1348</v>
       </c>
       <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.18918533314310174</v>
+        <v>0.19215965787598005</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
@@ -2870,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>9</v>
@@ -2888,10 +2888,10 @@
         <v>6</v>
       </c>
       <c r="L8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="27" t="s">
         <v>40</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>142</v>
       </c>
       <c r="E9" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
@@ -2919,14 +2919,14 @@
       </c>
       <c r="H9" s="8">
         <f>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I9" s="8">
         <v>13</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ref="J9:J59" si="0">I9/H9</f>
-        <v>9.420289855072464E-2</v>
+        <v>9.3525179856115109E-2</v>
       </c>
       <c r="K9" s="10">
         <v>14.92</v>
@@ -2934,7 +2934,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>110.4</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
         <v>175</v>
       </c>
       <c r="E10" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
@@ -2962,14 +2962,14 @@
       </c>
       <c r="H10" s="8">
         <f>D10-E10+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I10" s="8">
         <v>53</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.32515337423312884</v>
+        <v>0.3271604938271605</v>
       </c>
       <c r="K10" s="10">
         <v>12.53</v>
@@ -2977,7 +2977,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>130.4</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3008,11 +3008,11 @@
         <v>109</v>
       </c>
       <c r="I11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>0.23853211009174313</v>
+        <v>0.24770642201834864</v>
       </c>
       <c r="K11" s="10">
         <v>12.53</v>
@@ -3125,7 +3125,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -3135,14 +3135,14 @@
       </c>
       <c r="H14" s="8">
         <f>D14-E14+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I14" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>0.27868852459016391</v>
+        <v>0.28225806451612906</v>
       </c>
       <c r="K14" s="10">
         <v>12.4</v>
@@ -3150,7 +3150,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>97.600000000000009</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>144</v>
       </c>
       <c r="E15" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="8">
         <v>4</v>
@@ -3178,14 +3178,14 @@
       </c>
       <c r="H15" s="8">
         <f>D15-E15+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I15" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>0.1793103448275862</v>
+        <v>0.1875</v>
       </c>
       <c r="K15" s="10">
         <v>11.9</v>
@@ -3193,7 +3193,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>116</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3211,7 +3211,7 @@
         <v>106</v>
       </c>
       <c r="E16" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="8">
         <v>14</v>
@@ -3221,14 +3221,14 @@
       </c>
       <c r="H16" s="8">
         <f>D16-E16+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I16" s="8">
         <v>33</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>0.30555555555555558</v>
+        <v>0.30275229357798167</v>
       </c>
       <c r="K16" s="10">
         <v>4.76</v>
@@ -3236,7 +3236,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>86.4</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3353,11 +3353,11 @@
         <v>94</v>
       </c>
       <c r="I19" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>0.34042553191489361</v>
+        <v>0.35106382978723405</v>
       </c>
       <c r="K19" s="10">
         <v>4.4800000000000004</v>
@@ -3439,11 +3439,11 @@
         <v>94</v>
       </c>
       <c r="I21" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>0.27659574468085107</v>
+        <v>0.28723404255319152</v>
       </c>
       <c r="K21" s="10">
         <v>11.67</v>
@@ -3513,7 +3513,7 @@
         <v>158</v>
       </c>
       <c r="E23" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="8">
         <v>8</v>
@@ -3523,14 +3523,14 @@
       </c>
       <c r="H23" s="8">
         <f>D23-E23+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I23" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.20512820512820512</v>
+        <v>0.21019108280254778</v>
       </c>
       <c r="K23" s="10">
         <v>7.5</v>
@@ -3538,7 +3538,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>124.80000000000001</v>
+        <v>125.60000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,7 +3556,7 @@
         <v>229</v>
       </c>
       <c r="E24" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="8">
         <v>11</v>
@@ -3566,14 +3566,14 @@
       </c>
       <c r="H24" s="8">
         <f>D24-E24+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I24" s="8">
         <v>56</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.24778761061946902</v>
       </c>
       <c r="K24" s="10">
         <v>9.52</v>
@@ -3581,7 +3581,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>179.20000000000002</v>
+        <v>180.8</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3686,7 +3686,7 @@
         <v>119</v>
       </c>
       <c r="E27" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="8">
         <v>5</v>
@@ -3696,14 +3696,14 @@
       </c>
       <c r="H27" s="8">
         <f>D27-E27+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I27" s="8">
         <v>28</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.22950819672131148</v>
+        <v>0.23140495867768596</v>
       </c>
       <c r="K27" s="10">
         <v>8.33</v>
@@ -3711,7 +3711,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>97.600000000000009</v>
+        <v>96.800000000000011</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3728,7 +3728,7 @@
         <v>178</v>
       </c>
       <c r="E28" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="8">
         <v>5</v>
@@ -3738,14 +3738,14 @@
       </c>
       <c r="H28" s="8">
         <f>D28-E28+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I28" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>0.30635838150289019</v>
+        <v>0.31034482758620691</v>
       </c>
       <c r="K28" s="10">
         <v>7.33</v>
@@ -3753,7 +3753,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>138.4</v>
+        <v>139.20000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3814,7 +3814,7 @@
         <v>257</v>
       </c>
       <c r="E30" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" s="8">
         <v>6</v>
@@ -3824,14 +3824,14 @@
       </c>
       <c r="H30" s="8">
         <f>D30-E30+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I30" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K30" s="10">
         <v>7.5</v>
@@ -3839,7 +3839,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>204.8</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3946,21 +3946,21 @@
         <v>5</v>
       </c>
       <c r="F33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="14">
         <v>2</v>
       </c>
       <c r="H33" s="8">
         <f>D33-E33+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I33" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>4.7058823529411764E-2</v>
+        <v>5.078125E-2</v>
       </c>
       <c r="K33" s="10">
         <v>5.88</v>
@@ -3968,7 +3968,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>204</v>
+        <v>204.8</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4029,7 +4029,7 @@
         <v>122</v>
       </c>
       <c r="E35" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="8">
         <v>1</v>
@@ -4039,14 +4039,14 @@
       </c>
       <c r="H35" s="8">
         <f>D35-E35+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I35" s="8">
         <v>44</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.38938053097345132</v>
+        <v>0.38596491228070173</v>
       </c>
       <c r="K35" s="10">
         <v>8.8699999999999992</v>
@@ -4054,7 +4054,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>90.4</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4072,7 +4072,7 @@
         <v>272</v>
       </c>
       <c r="E36" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F36" s="8">
         <v>4</v>
@@ -4082,14 +4082,14 @@
       </c>
       <c r="H36" s="8">
         <f>D36-E36+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I36" s="8">
         <v>44</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.16417910447761194</v>
+        <v>0.16541353383458646</v>
       </c>
       <c r="K36" s="10">
         <v>10.37</v>
@@ -4097,7 +4097,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>214.4</v>
+        <v>212.8</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4115,24 +4115,24 @@
         <v>173</v>
       </c>
       <c r="E37" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" s="8">
         <v>4</v>
       </c>
       <c r="G37" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37" s="8">
         <f>D37-E37+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I37" s="8">
         <v>23</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>0.13372093023255813</v>
+        <v>0.13294797687861271</v>
       </c>
       <c r="K37" s="10">
         <v>4.93</v>
@@ -4140,7 +4140,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>137.6</v>
+        <v>138.4</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4200,7 +4200,7 @@
         <v>168</v>
       </c>
       <c r="E39" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F39" s="8">
         <v>1</v>
@@ -4210,14 +4210,14 @@
       </c>
       <c r="H39" s="8">
         <f>D39-E39+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I39" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>0.22085889570552147</v>
+        <v>0.22839506172839505</v>
       </c>
       <c r="K39" s="10">
         <v>6.23</v>
@@ -4225,7 +4225,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>130.4</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4330,10 +4330,10 @@
         <v>79</v>
       </c>
       <c r="E42" s="8">
+        <v>4</v>
+      </c>
+      <c r="F42" s="8">
         <v>3</v>
-      </c>
-      <c r="F42" s="8">
-        <v>2</v>
       </c>
       <c r="G42" s="14">
         <v>6</v>
@@ -4343,11 +4343,11 @@
         <v>78</v>
       </c>
       <c r="I42" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="K42" s="10">
         <v>8.17</v>
@@ -4372,7 +4372,7 @@
         <v>206</v>
       </c>
       <c r="E43" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" s="8">
         <v>0</v>
@@ -4382,14 +4382,14 @@
       </c>
       <c r="H43" s="8">
         <f>D43-E43+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I43" s="8">
         <v>20</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0.12121212121212122</v>
+        <v>0.12048192771084337</v>
       </c>
       <c r="K43" s="10">
         <v>6.65</v>
@@ -4397,7 +4397,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>132</v>
+        <v>132.80000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4428,11 +4428,11 @@
         <v>208</v>
       </c>
       <c r="I44" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>0.21153846153846154</v>
+        <v>0.22115384615384615</v>
       </c>
       <c r="K44" s="10">
         <v>4.62</v>
@@ -4448,7 +4448,7 @@
         <v>322</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="8">
         <v>9907</v>
@@ -4628,7 +4628,7 @@
         <v>117</v>
       </c>
       <c r="E49" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="8">
         <v>4</v>
@@ -4638,14 +4638,14 @@
       </c>
       <c r="H49" s="8">
         <f>D49-E49+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I49" s="8">
         <v>33</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="0"/>
-        <v>0.27731092436974791</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="K49" s="10">
         <v>5.19</v>
@@ -4653,7 +4653,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>95.2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4671,7 +4671,7 @@
         <v>136</v>
       </c>
       <c r="E50" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="8">
         <v>5</v>
@@ -4681,14 +4681,14 @@
       </c>
       <c r="H50" s="8">
         <f>D50-E50+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I50" s="8">
         <v>24</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="0"/>
-        <v>0.17142857142857143</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="K50" s="10">
         <v>7.4</v>
@@ -4696,7 +4696,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112</v>
+        <v>112.80000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4715,10 +4715,10 @@
         <v>94</v>
       </c>
       <c r="E51" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G51" s="14">
         <v>1</v>
@@ -4728,11 +4728,11 @@
         <v>109</v>
       </c>
       <c r="I51" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="0"/>
-        <v>5.5045871559633031E-2</v>
+        <v>9.1743119266055051E-2</v>
       </c>
       <c r="K51" s="10">
         <v>15</v>
@@ -4792,7 +4792,7 @@
         <v>308</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" s="8">
         <v>9914</v>
@@ -4801,7 +4801,7 @@
         <v>135</v>
       </c>
       <c r="E53" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" s="8">
         <v>2</v>
@@ -4811,14 +4811,14 @@
       </c>
       <c r="H53" s="8">
         <f>D53-E53+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I53" s="8">
         <v>24</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="0"/>
-        <v>0.18045112781954886</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="K53" s="10">
         <v>7.91</v>
@@ -4826,7 +4826,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>106.4</v>
+        <v>105.60000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4871,10 +4871,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C55" s="8">
         <v>9917</v>
@@ -4883,7 +4883,7 @@
         <v>101</v>
       </c>
       <c r="E55" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="8">
         <v>0</v>
@@ -4893,20 +4893,20 @@
       </c>
       <c r="H55" s="8">
         <f>D55-E55+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I55" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0612244897959183E-2</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>79.2</v>
+        <v>78.400000000000006</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4914,7 +4914,7 @@
         <v>315</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="8">
         <v>9907</v>
@@ -4924,7 +4924,7 @@
         <v>122</v>
       </c>
       <c r="E56" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" s="8">
         <v>2</v>
@@ -4934,14 +4934,14 @@
       </c>
       <c r="H56" s="8">
         <f>D56-E56+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I56" s="8">
         <v>43</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="0"/>
-        <v>0.36440677966101692</v>
+        <v>0.36134453781512604</v>
       </c>
       <c r="K56" s="10">
         <v>4.58</v>
@@ -4949,7 +4949,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>94.4</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4957,7 +4957,7 @@
         <v>316</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C57" s="8">
         <v>9902</v>
@@ -4972,18 +4972,18 @@
         <v>20</v>
       </c>
       <c r="G57" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H57" s="8">
         <f>D57-E57+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
         <v>101</v>
       </c>
       <c r="I57" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J57" s="12">
         <f t="shared" si="0"/>
-        <v>0.16831683168316833</v>
+        <v>0.17821782178217821</v>
       </c>
       <c r="K57" s="10">
         <v>6.36</v>
@@ -4999,7 +4999,7 @@
         <v>317</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" s="8">
         <v>9902</v>
@@ -5041,7 +5041,7 @@
         <v>320</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="8">
         <v>9915</v>
@@ -5092,17 +5092,17 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
-      <formula>0.3511</formula>
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
+      <formula>0.3588</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
-      <formula>0.1699</formula>
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
+      <formula>0.2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="3" operator="between">
-      <formula>0.17</formula>
-      <formula>0.341</formula>
+      <formula>0.1999</formula>
+      <formula>0.3584</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L59">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="D3" s="23">
         <f>E2*D7</f>
-        <v>0.35114503816793891</v>
+        <v>0.35877862595419846</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5233,7 +5233,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5265,11 +5265,11 @@
       </c>
       <c r="D9" s="23">
         <f>D7*E2</f>
-        <v>0.35114503816793891</v>
+        <v>0.35877862595419846</v>
       </c>
       <c r="E9" s="31">
         <f>D9</f>
-        <v>0.35114503816793891</v>
+        <v>0.35877862595419846</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5323,19 +5323,19 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>2460.8244274809158</v>
+        <v>2516.4732824427479</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>1134.8244274809158</v>
+        <v>1171.4732824427479</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
-        <v>45843</v>
+        <v>45844</v>
       </c>
     </row>
   </sheetData>

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AAF9A8-2239-4737-AC13-2F31B3AC481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE19E5FB-97F0-40FD-A2EF-C5A6FDFDF390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
@@ -372,7 +372,7 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -391,6 +391,38 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -425,10 +457,80 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -465,108 +567,6 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -781,6 +781,40 @@
         <bottom style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -812,70 +846,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -964,7 +934,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>07/07/2025</a:t>
+            <a:t>09/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1438,7 +1408,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>35,88%</a:t>
+            <a:t>36,64%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2351,10 +2321,10 @@
       <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
-            <v>7014</v>
+            <v>7022</v>
           </cell>
           <cell r="E23">
-            <v>1345</v>
+            <v>1427</v>
           </cell>
         </row>
       </sheetData>
@@ -2399,7 +2369,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A8:M59" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="16"/>
@@ -2413,12 +2383,12 @@
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Normal">
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo de Carteira]]*80%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2726,8 +2696,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,7 +2731,7 @@
       <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45845</v>
+        <v>45847</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2779,19 +2749,20 @@
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>4.7725682295311406E-2</v>
+        <v>4.252381609830181E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>2.953114065780266E-2</v>
+        <v>3.1340604721800357E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.5052484254723582E-2</v>
-      </c>
+        <v>2.4161259146762391E-2</v>
+      </c>
+      <c r="I5" s="29"/>
       <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.16661896807821841</v>
+        <v>-0.16716619307583919</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2805,38 +2776,41 @@
       <c r="C6" s="32"/>
       <c r="D6" s="2">
         <f>SUBTOTAL(9,Tabela1[Carteira])</f>
-        <v>7145</v>
+        <v>7243</v>
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7015</v>
+        <v>7162</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1348</v>
+        <v>1427</v>
       </c>
       <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.19215965787598005</v>
+        <v>0.19924602066461883</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
         <v>8.1488000000000014</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <f>SUBTOTAL(9,Tabela1[Meta Cob. Coleção])</f>
+        <v>5729.5999999999995</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2965,11 +2939,11 @@
         <v>162</v>
       </c>
       <c r="I10" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.3271604938271605</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K10" s="10">
         <v>12.53</v>
@@ -3008,11 +2982,11 @@
         <v>109</v>
       </c>
       <c r="I11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>0.24770642201834864</v>
+        <v>0.26605504587155965</v>
       </c>
       <c r="K11" s="10">
         <v>12.53</v>
@@ -3051,11 +3025,11 @@
         <v>187</v>
       </c>
       <c r="I12" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0.35294117647058826</v>
+        <v>0.35828877005347592</v>
       </c>
       <c r="K12" s="10">
         <v>7.87</v>
@@ -3081,24 +3055,24 @@
         <v>145</v>
       </c>
       <c r="E13" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="14">
         <v>4</v>
       </c>
       <c r="H13" s="8">
         <f>D13-E13+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I13" s="8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>0.1276595744680851</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="K13" s="10">
         <v>8.75</v>
@@ -3106,7 +3080,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112.80000000000001</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,7 +3099,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -3135,14 +3109,14 @@
       </c>
       <c r="H14" s="8">
         <f>D14-E14+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I14" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>0.28225806451612906</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="K14" s="10">
         <v>12.4</v>
@@ -3150,7 +3124,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>99.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3168,7 +3142,7 @@
         <v>144</v>
       </c>
       <c r="E15" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="8">
         <v>4</v>
@@ -3178,14 +3152,14 @@
       </c>
       <c r="H15" s="8">
         <f>D15-E15+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I15" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.19727891156462585</v>
       </c>
       <c r="K15" s="10">
         <v>11.9</v>
@@ -3193,7 +3167,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>115.2</v>
+        <v>117.60000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3211,7 +3185,7 @@
         <v>106</v>
       </c>
       <c r="E16" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="8">
         <v>14</v>
@@ -3221,14 +3195,14 @@
       </c>
       <c r="H16" s="8">
         <f>D16-E16+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I16" s="8">
         <v>33</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>0.30275229357798167</v>
+        <v>0.3</v>
       </c>
       <c r="K16" s="10">
         <v>4.76</v>
@@ -3236,7 +3210,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>87.2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3257,21 +3231,21 @@
         <v>2</v>
       </c>
       <c r="F17" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="14">
         <v>3</v>
       </c>
       <c r="H17" s="8">
         <f>D17-E17+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I17" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>0.24615384615384617</v>
+        <v>0.25757575757575757</v>
       </c>
       <c r="K17" s="10">
         <v>6.17</v>
@@ -3279,7 +3253,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>52</v>
+        <v>52.800000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3297,7 +3271,7 @@
         <v>222</v>
       </c>
       <c r="E18" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" s="8">
         <v>11</v>
@@ -3307,14 +3281,14 @@
       </c>
       <c r="H18" s="8">
         <f>D18-E18+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I18" s="8">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.30630630630630629</v>
+        <v>0.32589285714285715</v>
       </c>
       <c r="K18" s="10">
         <v>10.050000000000001</v>
@@ -3322,7 +3296,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>177.60000000000002</v>
+        <v>179.20000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3343,21 +3317,21 @@
         <v>3</v>
       </c>
       <c r="F19" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="14">
         <v>0</v>
       </c>
       <c r="H19" s="8">
         <f>D19-E19+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>0.35106382978723405</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="K19" s="10">
         <v>4.4800000000000004</v>
@@ -3365,7 +3339,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>75.2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3383,24 +3357,24 @@
         <v>86</v>
       </c>
       <c r="E20" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="14">
         <v>9</v>
       </c>
       <c r="H20" s="8">
         <f>D20-E20+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I20" s="8">
         <v>14</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
-        <v>0.16867469879518071</v>
+        <v>0.16091954022988506</v>
       </c>
       <c r="K20" s="10">
         <v>10</v>
@@ -3408,7 +3382,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>66.400000000000006</v>
+        <v>69.600000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3426,7 +3400,7 @@
         <v>94</v>
       </c>
       <c r="E21" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="8">
         <v>3</v>
@@ -3436,14 +3410,14 @@
       </c>
       <c r="H21" s="8">
         <f>D21-E21+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I21" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>0.28723404255319152</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="K21" s="10">
         <v>11.67</v>
@@ -3451,7 +3425,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>75.2</v>
+        <v>76.800000000000011</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3526,11 +3500,11 @@
         <v>157</v>
       </c>
       <c r="I23" s="8">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.21019108280254778</v>
+        <v>0.24840764331210191</v>
       </c>
       <c r="K23" s="10">
         <v>7.5</v>
@@ -3569,11 +3543,11 @@
         <v>226</v>
       </c>
       <c r="I24" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="0"/>
-        <v>0.24778761061946902</v>
+        <v>0.25663716814159293</v>
       </c>
       <c r="K24" s="10">
         <v>9.52</v>
@@ -3656,11 +3630,11 @@
         <v>89</v>
       </c>
       <c r="I26" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J26" s="12">
         <f t="shared" si="0"/>
-        <v>0.16853932584269662</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="K26" s="10">
         <v>7.29</v>
@@ -3686,7 +3660,7 @@
         <v>119</v>
       </c>
       <c r="E27" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="8">
         <v>5</v>
@@ -3696,14 +3670,14 @@
       </c>
       <c r="H27" s="8">
         <f>D27-E27+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I27" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.23140495867768596</v>
+        <v>0.23770491803278687</v>
       </c>
       <c r="K27" s="10">
         <v>8.33</v>
@@ -3711,7 +3685,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>96.800000000000011</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3784,11 +3758,11 @@
         <v>125</v>
       </c>
       <c r="I29" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>0.112</v>
+        <v>0.128</v>
       </c>
       <c r="K29" s="10">
         <v>11</v>
@@ -3814,24 +3788,24 @@
         <v>257</v>
       </c>
       <c r="E30" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G30" s="14">
         <v>1</v>
       </c>
       <c r="H30" s="8">
         <f>D30-E30+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I30" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K30" s="10">
         <v>7.5</v>
@@ -3839,7 +3813,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3870,11 +3844,11 @@
         <v>137</v>
       </c>
       <c r="I31" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="0"/>
-        <v>0.29927007299270075</v>
+        <v>0.30656934306569344</v>
       </c>
       <c r="K31" s="10">
         <v>6.54</v>
@@ -3900,24 +3874,24 @@
         <v>117</v>
       </c>
       <c r="E32" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="14">
         <v>0</v>
       </c>
       <c r="H32" s="8">
         <f>D32-E32+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I32" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>9.8214285714285712E-2</v>
       </c>
       <c r="K32" s="10">
         <v>16.13</v>
@@ -3925,7 +3899,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>88</v>
+        <v>89.600000000000009</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3943,7 +3917,7 @@
         <v>260</v>
       </c>
       <c r="E33" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F33" s="8">
         <v>1</v>
@@ -3953,14 +3927,14 @@
       </c>
       <c r="H33" s="8">
         <f>D33-E33+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I33" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>5.078125E-2</v>
+        <v>5.4263565891472867E-2</v>
       </c>
       <c r="K33" s="10">
         <v>5.88</v>
@@ -3968,7 +3942,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>204.8</v>
+        <v>206.4</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3986,7 +3960,7 @@
         <v>177</v>
       </c>
       <c r="E34" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" s="8">
         <v>5</v>
@@ -3996,14 +3970,14 @@
       </c>
       <c r="H34" s="8">
         <f>D34-E34+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I34" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="0"/>
-        <v>0.23863636363636365</v>
+        <v>0.24858757062146894</v>
       </c>
       <c r="K34" s="10">
         <v>6.59</v>
@@ -4011,7 +3985,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>140.80000000000001</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4029,24 +4003,24 @@
         <v>122</v>
       </c>
       <c r="E35" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="14">
         <v>2</v>
       </c>
       <c r="H35" s="8">
         <f>D35-E35+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I35" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.38596491228070173</v>
+        <v>0.41379310344827586</v>
       </c>
       <c r="K35" s="10">
         <v>8.8699999999999992</v>
@@ -4054,7 +4028,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>91.2</v>
+        <v>92.800000000000011</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4072,10 +4046,10 @@
         <v>272</v>
       </c>
       <c r="E36" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" s="14">
         <v>4</v>
@@ -4085,11 +4059,11 @@
         <v>266</v>
       </c>
       <c r="I36" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.16541353383458646</v>
+        <v>0.17669172932330826</v>
       </c>
       <c r="K36" s="10">
         <v>10.37</v>
@@ -4128,11 +4102,11 @@
         <v>173</v>
       </c>
       <c r="I37" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>0.13294797687861271</v>
+        <v>0.14450867052023122</v>
       </c>
       <c r="K37" s="10">
         <v>4.93</v>
@@ -4154,7 +4128,7 @@
         <v>9907</v>
       </c>
       <c r="D38" s="8">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="E38" s="8">
         <v>14</v>
@@ -4167,14 +4141,14 @@
       </c>
       <c r="H38" s="8">
         <f>D38-E38+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="I38" s="8">
         <v>11</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="0"/>
-        <v>9.166666666666666E-2</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="K38" s="10">
         <v>6</v>
@@ -4182,7 +4156,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>96</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4200,7 +4174,7 @@
         <v>168</v>
       </c>
       <c r="E39" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39" s="8">
         <v>1</v>
@@ -4210,14 +4184,14 @@
       </c>
       <c r="H39" s="8">
         <f>D39-E39+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I39" s="8">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>0.22839506172839505</v>
+        <v>0.25465838509316768</v>
       </c>
       <c r="K39" s="10">
         <v>6.23</v>
@@ -4225,7 +4199,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>129.6</v>
+        <v>128.80000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4243,7 +4217,7 @@
         <v>214</v>
       </c>
       <c r="E40" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" s="8">
         <v>2</v>
@@ -4253,14 +4227,14 @@
       </c>
       <c r="H40" s="8">
         <f>D40-E40+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I40" s="8">
         <v>20</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>9.950248756218906E-2</v>
       </c>
       <c r="K40" s="10">
         <v>7.69</v>
@@ -4268,7 +4242,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>160</v>
+        <v>160.80000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4299,11 +4273,11 @@
         <v>127</v>
       </c>
       <c r="I41" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>0.2283464566929134</v>
+        <v>0.23622047244094488</v>
       </c>
       <c r="K41" s="10">
         <v>8.8699999999999992</v>
@@ -4330,7 +4304,7 @@
         <v>79</v>
       </c>
       <c r="E42" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" s="8">
         <v>3</v>
@@ -4340,14 +4314,14 @@
       </c>
       <c r="H42" s="8">
         <f>D42-E42+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="0"/>
-        <v>0.10256410256410256</v>
+        <v>0.11392405063291139</v>
       </c>
       <c r="K42" s="10">
         <v>8.17</v>
@@ -4355,7 +4329,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>62.400000000000006</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4372,24 +4346,24 @@
         <v>206</v>
       </c>
       <c r="E43" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" s="8">
         <f>D43-E43+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I43" s="8">
         <v>20</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0.12048192771084337</v>
+        <v>0.11834319526627218</v>
       </c>
       <c r="K43" s="10">
         <v>6.65</v>
@@ -4397,7 +4371,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>132.80000000000001</v>
+        <v>135.20000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4418,21 +4392,21 @@
         <v>13</v>
       </c>
       <c r="F44" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" s="14">
         <v>1</v>
       </c>
       <c r="H44" s="8">
         <f>D44-E44+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I44" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>0.22115384615384615</v>
+        <v>0.22966507177033493</v>
       </c>
       <c r="K44" s="10">
         <v>4.62</v>
@@ -4440,7 +4414,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>166.4</v>
+        <v>167.20000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4501,7 +4475,7 @@
         <v>103</v>
       </c>
       <c r="E46" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
@@ -4511,14 +4485,14 @@
       </c>
       <c r="H46" s="8">
         <f>D46-E46+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I46" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J46" s="12">
         <f t="shared" si="0"/>
-        <v>0.16831683168316833</v>
+        <v>0.18627450980392157</v>
       </c>
       <c r="K46" s="10">
         <v>5.92</v>
@@ -4526,7 +4500,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>80.800000000000011</v>
+        <v>81.600000000000009</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4556,11 +4530,11 @@
         <v>163</v>
       </c>
       <c r="I47" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J47" s="12">
         <f t="shared" si="0"/>
-        <v>7.3619631901840496E-2</v>
+        <v>7.9754601226993863E-2</v>
       </c>
       <c r="K47" s="10">
         <v>3.75</v>
@@ -4585,7 +4559,7 @@
         <v>147</v>
       </c>
       <c r="E48" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F48" s="8">
         <v>3</v>
@@ -4595,14 +4569,14 @@
       </c>
       <c r="H48" s="8">
         <f>D48-E48+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I48" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J48" s="12">
         <f t="shared" si="0"/>
-        <v>0.10833333333333334</v>
+        <v>0.12295081967213115</v>
       </c>
       <c r="K48" s="10">
         <v>7.3</v>
@@ -4610,7 +4584,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>96</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4641,11 +4615,11 @@
         <v>120</v>
       </c>
       <c r="I49" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="K49" s="10">
         <v>5.19</v>
@@ -4684,11 +4658,11 @@
         <v>141</v>
       </c>
       <c r="I50" s="8">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="0"/>
-        <v>0.1702127659574468</v>
+        <v>0.20567375886524822</v>
       </c>
       <c r="K50" s="10">
         <v>7.4</v>
@@ -4715,7 +4689,7 @@
         <v>94</v>
       </c>
       <c r="E51" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" s="8">
         <v>18</v>
@@ -4725,14 +4699,14 @@
       </c>
       <c r="H51" s="8">
         <f>D51-E51+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I51" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="0"/>
-        <v>9.1743119266055051E-2</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="K51" s="10">
         <v>15</v>
@@ -4740,7 +4714,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>87.2</v>
+        <v>88.800000000000011</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4772,11 +4746,11 @@
         <v>78</v>
       </c>
       <c r="I52" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J52" s="12">
         <f t="shared" si="0"/>
-        <v>0.23076923076923078</v>
+        <v>0.24358974358974358</v>
       </c>
       <c r="K52" s="10">
         <v>6.5</v>
@@ -4801,7 +4775,7 @@
         <v>135</v>
       </c>
       <c r="E53" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" s="8">
         <v>2</v>
@@ -4811,14 +4785,14 @@
       </c>
       <c r="H53" s="8">
         <f>D53-E53+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I53" s="8">
         <v>24</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <v>0.18045112781954886</v>
       </c>
       <c r="K53" s="10">
         <v>7.91</v>
@@ -4826,7 +4800,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>105.60000000000001</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4839,7 +4813,9 @@
       <c r="C54" s="8">
         <v>9917</v>
       </c>
-      <c r="D54" s="8"/>
+      <c r="D54" s="8">
+        <v>139</v>
+      </c>
       <c r="E54" s="8">
         <v>0</v>
       </c>
@@ -4851,14 +4827,14 @@
       </c>
       <c r="H54" s="8">
         <f>D54-E54+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="I54" s="8">
         <v>8</v>
       </c>
       <c r="J54" s="12">
         <f>I54/H54</f>
-        <v>8</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="K54" s="10">
         <v>6.67</v>
@@ -4866,7 +4842,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>0.8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -4883,30 +4859,30 @@
         <v>101</v>
       </c>
       <c r="E55" s="8">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
         <v>3</v>
       </c>
-      <c r="F55" s="8">
+      <c r="G55" s="14">
         <v>0</v>
-      </c>
-      <c r="G55" s="14">
-        <v>4</v>
       </c>
       <c r="H55" s="8">
         <f>D55-E55+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I55" s="8">
         <v>3</v>
       </c>
       <c r="J55" s="12">
         <f t="shared" si="0"/>
-        <v>3.0612244897959183E-2</v>
+        <v>2.8846153846153848E-2</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>78.400000000000006</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4924,7 +4900,7 @@
         <v>122</v>
       </c>
       <c r="E56" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F56" s="8">
         <v>2</v>
@@ -4934,14 +4910,14 @@
       </c>
       <c r="H56" s="8">
         <f>D56-E56+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I56" s="8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="0"/>
-        <v>0.36134453781512604</v>
+        <v>0.38842975206611569</v>
       </c>
       <c r="K56" s="10">
         <v>4.58</v>
@@ -4949,7 +4925,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>95.2</v>
+        <v>96.800000000000011</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4972,18 +4948,18 @@
         <v>20</v>
       </c>
       <c r="G57" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H57" s="8">
         <f>D57-E57+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
         <v>101</v>
       </c>
       <c r="I57" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J57" s="12">
         <f t="shared" si="0"/>
-        <v>0.17821782178217821</v>
+        <v>0.18811881188118812</v>
       </c>
       <c r="K57" s="10">
         <v>6.36</v>
@@ -5021,11 +4997,11 @@
         <v>78</v>
       </c>
       <c r="I58" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J58" s="12">
         <f t="shared" si="0"/>
-        <v>0.14102564102564102</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="K58" s="10">
         <v>9.56</v>
@@ -5092,15 +5068,15 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
       <formula>0.3588</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
       <formula>0.1999</formula>
       <formula>0.3584</formula>
     </cfRule>
@@ -5196,7 +5172,7 @@
       </c>
       <c r="D3" s="23">
         <f>E2*D7</f>
-        <v>0.35877862595419846</v>
+        <v>0.36641221374045801</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5233,7 +5209,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5245,7 +5221,7 @@
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5265,11 +5241,11 @@
       </c>
       <c r="D9" s="23">
         <f>D7*E2</f>
-        <v>0.35877862595419846</v>
+        <v>0.36641221374045801</v>
       </c>
       <c r="E9" s="31">
         <f>D9</f>
-        <v>0.35877862595419846</v>
+        <v>0.36641221374045801</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5323,19 +5299,19 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>2516.4732824427479</v>
+        <v>2572.9465648854962</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>1171.4732824427479</v>
+        <v>1145.9465648854962</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
-        <v>45844</v>
+        <v>45846</v>
       </c>
     </row>
   </sheetData>

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE19E5FB-97F0-40FD-A2EF-C5A6FDFDF390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392272A5-71C4-494D-826E-AC2273E19DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
@@ -406,23 +406,10 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -457,6 +444,57 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -490,25 +528,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -531,25 +550,6 @@
           <color theme="4" tint="-0.499984740745262"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -934,7 +934,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>09/07/2025</a:t>
+            <a:t>10/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -2321,10 +2321,10 @@
       <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
-            <v>7022</v>
+            <v>7007</v>
           </cell>
           <cell r="E23">
-            <v>1427</v>
+            <v>1472</v>
           </cell>
         </row>
       </sheetData>
@@ -2383,12 +2383,12 @@
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal">
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Normal">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="4" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo de Carteira]]*80%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2696,8 +2696,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,7 +2731,7 @@
       <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45847</v>
+        <v>45848</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2749,20 +2749,20 @@
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>4.252381609830181E-2</v>
+        <v>4.625155322380229E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>3.1340604721800357E-2</v>
+        <v>3.2997376777578351E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.4161259146762391E-2</v>
+        <v>2.4299323484743892E-2</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.16716619307583919</v>
+        <v>-0.16045167085533138</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2780,27 +2780,27 @@
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7162</v>
+        <v>7147</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1427</v>
+        <v>1472</v>
       </c>
       <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.19924602066461883</v>
+        <v>0.20596054288512664</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
@@ -2809,7 +2809,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="2">
         <f>SUBTOTAL(9,Tabela1[Meta Cob. Coleção])</f>
-        <v>5729.5999999999995</v>
+        <v>5717.5999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2883,7 +2883,7 @@
         <v>142</v>
       </c>
       <c r="E9" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
@@ -2893,14 +2893,14 @@
       </c>
       <c r="H9" s="8">
         <f>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I9" s="8">
         <v>13</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ref="J9:J59" si="0">I9/H9</f>
-        <v>9.3525179856115109E-2</v>
+        <v>9.4890510948905105E-2</v>
       </c>
       <c r="K9" s="10">
         <v>14.92</v>
@@ -2908,7 +2908,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>111.2</v>
+        <v>109.60000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2939,11 +2939,11 @@
         <v>162</v>
       </c>
       <c r="I10" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.33950617283950618</v>
       </c>
       <c r="K10" s="10">
         <v>12.53</v>
@@ -2969,7 +2969,7 @@
         <v>111</v>
       </c>
       <c r="E11" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" s="8">
         <v>2</v>
@@ -2979,14 +2979,14 @@
       </c>
       <c r="H11" s="8">
         <f>D11-E11+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>0.26605504587155965</v>
+        <v>0.28971962616822428</v>
       </c>
       <c r="K11" s="10">
         <v>12.53</v>
@@ -2994,7 +2994,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>87.2</v>
+        <v>85.600000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3012,24 +3012,24 @@
         <v>184</v>
       </c>
       <c r="E12" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G12" s="14">
         <v>2</v>
       </c>
       <c r="H12" s="8">
         <f>D12-E12+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I12" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0.35828877005347592</v>
+        <v>0.36507936507936506</v>
       </c>
       <c r="K12" s="10">
         <v>7.87</v>
@@ -3037,7 +3037,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>149.6</v>
+        <v>151.20000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3055,24 +3055,24 @@
         <v>145</v>
       </c>
       <c r="E13" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="14">
         <v>4</v>
       </c>
       <c r="H13" s="8">
         <f>D13-E13+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I13" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>0.15384615384615385</v>
+        <v>0.15862068965517243</v>
       </c>
       <c r="K13" s="10">
         <v>8.75</v>
@@ -3080,7 +3080,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>114.4</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,7 +3099,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -3109,14 +3109,14 @@
       </c>
       <c r="H14" s="8">
         <f>D14-E14+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I14" s="8">
         <v>38</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>0.30399999999999999</v>
+        <v>0.30894308943089432</v>
       </c>
       <c r="K14" s="10">
         <v>12.4</v>
@@ -3124,7 +3124,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>100</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3142,7 +3142,7 @@
         <v>144</v>
       </c>
       <c r="E15" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="8">
         <v>4</v>
@@ -3152,14 +3152,14 @@
       </c>
       <c r="H15" s="8">
         <f>D15-E15+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I15" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>0.19727891156462585</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="K15" s="10">
         <v>11.9</v>
@@ -3167,7 +3167,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>117.60000000000001</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3185,7 +3185,7 @@
         <v>106</v>
       </c>
       <c r="E16" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="8">
         <v>14</v>
@@ -3195,14 +3195,14 @@
       </c>
       <c r="H16" s="8">
         <f>D16-E16+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I16" s="8">
         <v>33</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.30275229357798167</v>
       </c>
       <c r="K16" s="10">
         <v>4.76</v>
@@ -3210,7 +3210,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>88</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3284,11 +3284,11 @@
         <v>224</v>
       </c>
       <c r="I18" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.32589285714285715</v>
+        <v>0.33035714285714285</v>
       </c>
       <c r="K18" s="10">
         <v>10.050000000000001</v>
@@ -3314,7 +3314,7 @@
         <v>93</v>
       </c>
       <c r="E19" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="8">
         <v>5</v>
@@ -3324,14 +3324,14 @@
       </c>
       <c r="H19" s="8">
         <f>D19-E19+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I19" s="8">
         <v>35</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>0.36842105263157893</v>
+        <v>0.37634408602150538</v>
       </c>
       <c r="K19" s="10">
         <v>4.4800000000000004</v>
@@ -3339,7 +3339,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>76</v>
+        <v>74.400000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3357,7 +3357,7 @@
         <v>86</v>
       </c>
       <c r="E20" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="8">
         <v>4</v>
@@ -3367,14 +3367,14 @@
       </c>
       <c r="H20" s="8">
         <f>D20-E20+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
-        <v>0.16091954022988506</v>
+        <v>0.18604651162790697</v>
       </c>
       <c r="K20" s="10">
         <v>10</v>
@@ -3382,7 +3382,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>69.600000000000009</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3413,11 +3413,11 @@
         <v>96</v>
       </c>
       <c r="I21" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>0.29166666666666669</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="K21" s="10">
         <v>11.67</v>
@@ -3443,24 +3443,24 @@
         <v>159</v>
       </c>
       <c r="E22" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" s="14">
         <v>4</v>
       </c>
       <c r="H22" s="8">
         <f>D22-E22+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I22" s="8">
         <v>18</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="0"/>
-        <v>0.11464968152866242</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="K22" s="10">
         <v>4.82</v>
@@ -3468,7 +3468,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>125.60000000000001</v>
+        <v>124.80000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3487,7 +3487,7 @@
         <v>158</v>
       </c>
       <c r="E23" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F23" s="8">
         <v>8</v>
@@ -3497,14 +3497,14 @@
       </c>
       <c r="H23" s="8">
         <f>D23-E23+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I23" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.24840764331210191</v>
+        <v>0.26143790849673204</v>
       </c>
       <c r="K23" s="10">
         <v>7.5</v>
@@ -3512,7 +3512,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>125.60000000000001</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,11 +3543,11 @@
         <v>226</v>
       </c>
       <c r="I24" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="0"/>
-        <v>0.25663716814159293</v>
+        <v>0.26548672566371684</v>
       </c>
       <c r="K24" s="10">
         <v>9.52</v>
@@ -3586,11 +3586,11 @@
         <v>102</v>
       </c>
       <c r="I25" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J25" s="12">
         <f t="shared" si="0"/>
-        <v>0.28431372549019607</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="K25" s="10">
         <v>7.29</v>
@@ -3620,21 +3620,21 @@
         <v>2</v>
       </c>
       <c r="F26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="14">
         <v>2</v>
       </c>
       <c r="H26" s="8">
         <f>D26-E26+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I26" s="8">
         <v>16</v>
       </c>
       <c r="J26" s="12">
         <f t="shared" si="0"/>
-        <v>0.1797752808988764</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="K26" s="10">
         <v>7.29</v>
@@ -3642,7 +3642,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>71.2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3673,11 +3673,11 @@
         <v>122</v>
       </c>
       <c r="I27" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.23770491803278687</v>
+        <v>0.26229508196721313</v>
       </c>
       <c r="K27" s="10">
         <v>8.33</v>
@@ -3745,24 +3745,24 @@
         <v>127</v>
       </c>
       <c r="E29" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F29" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="14">
         <v>0</v>
       </c>
       <c r="H29" s="8">
         <f>D29-E29+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I29" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>0.128</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="K29" s="10">
         <v>11</v>
@@ -3770,7 +3770,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>100</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3874,7 +3874,7 @@
         <v>117</v>
       </c>
       <c r="E32" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" s="8">
         <v>1</v>
@@ -3884,14 +3884,14 @@
       </c>
       <c r="H32" s="8">
         <f>D32-E32+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I32" s="8">
         <v>11</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" si="0"/>
-        <v>9.8214285714285712E-2</v>
+        <v>9.7345132743362831E-2</v>
       </c>
       <c r="K32" s="10">
         <v>16.13</v>
@@ -3899,7 +3899,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>89.600000000000009</v>
+        <v>90.4</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3917,24 +3917,24 @@
         <v>260</v>
       </c>
       <c r="E33" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="8">
         <v>1</v>
       </c>
       <c r="G33" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" s="8">
         <f>D33-E33+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I33" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>5.4263565891472867E-2</v>
+        <v>6.2256809338521402E-2</v>
       </c>
       <c r="K33" s="10">
         <v>5.88</v>
@@ -3942,7 +3942,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>206.4</v>
+        <v>205.60000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4016,11 +4016,11 @@
         <v>116</v>
       </c>
       <c r="I35" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.41379310344827586</v>
+        <v>0.43103448275862066</v>
       </c>
       <c r="K35" s="10">
         <v>8.8699999999999992</v>
@@ -4046,7 +4046,7 @@
         <v>272</v>
       </c>
       <c r="E36" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" s="8">
         <v>5</v>
@@ -4056,14 +4056,14 @@
       </c>
       <c r="H36" s="8">
         <f>D36-E36+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I36" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.17669172932330826</v>
+        <v>0.18490566037735848</v>
       </c>
       <c r="K36" s="10">
         <v>10.37</v>
@@ -4071,7 +4071,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>212.8</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4102,11 +4102,11 @@
         <v>173</v>
       </c>
       <c r="I37" s="8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>0.14450867052023122</v>
+        <v>0.16763005780346821</v>
       </c>
       <c r="K37" s="10">
         <v>4.93</v>
@@ -4131,10 +4131,10 @@
         <v>93</v>
       </c>
       <c r="E38" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F38" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="14">
         <v>4</v>
@@ -4144,11 +4144,11 @@
         <v>79</v>
       </c>
       <c r="I38" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="0"/>
-        <v>0.13924050632911392</v>
+        <v>0.15189873417721519</v>
       </c>
       <c r="K38" s="10">
         <v>6</v>
@@ -4174,7 +4174,7 @@
         <v>168</v>
       </c>
       <c r="E39" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F39" s="8">
         <v>1</v>
@@ -4184,14 +4184,14 @@
       </c>
       <c r="H39" s="8">
         <f>D39-E39+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I39" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>0.25465838509316768</v>
+        <v>0.26219512195121952</v>
       </c>
       <c r="K39" s="10">
         <v>6.23</v>
@@ -4199,7 +4199,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>128.80000000000001</v>
+        <v>131.20000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4217,7 +4217,7 @@
         <v>214</v>
       </c>
       <c r="E40" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F40" s="8">
         <v>2</v>
@@ -4227,14 +4227,14 @@
       </c>
       <c r="H40" s="8">
         <f>D40-E40+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I40" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>9.950248756218906E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="K40" s="10">
         <v>7.69</v>
@@ -4242,7 +4242,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>160.80000000000001</v>
+        <v>162.4</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4273,11 +4273,11 @@
         <v>127</v>
       </c>
       <c r="I41" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>0.23622047244094488</v>
+        <v>0.25196850393700787</v>
       </c>
       <c r="K41" s="10">
         <v>8.8699999999999992</v>
@@ -4304,7 +4304,7 @@
         <v>79</v>
       </c>
       <c r="E42" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="8">
         <v>3</v>
@@ -4314,14 +4314,14 @@
       </c>
       <c r="H42" s="8">
         <f>D42-E42+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I42" s="8">
         <v>9</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="0"/>
-        <v>0.11392405063291139</v>
+        <v>0.1125</v>
       </c>
       <c r="K42" s="10">
         <v>8.17</v>
@@ -4329,7 +4329,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>63.2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4346,7 +4346,7 @@
         <v>206</v>
       </c>
       <c r="E43" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F43" s="8">
         <v>1</v>
@@ -4356,14 +4356,14 @@
       </c>
       <c r="H43" s="8">
         <f>D43-E43+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I43" s="8">
         <v>20</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0.11834319526627218</v>
+        <v>0.11976047904191617</v>
       </c>
       <c r="K43" s="10">
         <v>6.65</v>
@@ -4371,7 +4371,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>135.20000000000002</v>
+        <v>133.6</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4432,7 +4432,7 @@
         <v>135</v>
       </c>
       <c r="E45" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="8">
         <v>6</v>
@@ -4442,14 +4442,14 @@
       </c>
       <c r="H45" s="8">
         <f>D45-E45+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I45" s="8">
         <v>15</v>
       </c>
       <c r="J45" s="12">
         <f t="shared" si="0"/>
-        <v>0.10638297872340426</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="K45" s="10">
         <v>9.75</v>
@@ -4457,7 +4457,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112.80000000000001</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4475,7 +4475,7 @@
         <v>103</v>
       </c>
       <c r="E46" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
@@ -4485,14 +4485,14 @@
       </c>
       <c r="H46" s="8">
         <f>D46-E46+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I46" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J46" s="12">
         <f t="shared" si="0"/>
-        <v>0.18627450980392157</v>
+        <v>0.1941747572815534</v>
       </c>
       <c r="K46" s="10">
         <v>5.92</v>
@@ -4500,7 +4500,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>81.600000000000009</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4645,7 +4645,7 @@
         <v>136</v>
       </c>
       <c r="E50" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" s="8">
         <v>5</v>
@@ -4655,14 +4655,14 @@
       </c>
       <c r="H50" s="8">
         <f>D50-E50+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I50" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="0"/>
-        <v>0.20567375886524822</v>
+        <v>0.21582733812949639</v>
       </c>
       <c r="K50" s="10">
         <v>7.4</v>
@@ -4670,7 +4670,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112.80000000000001</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4692,21 +4692,21 @@
         <v>1</v>
       </c>
       <c r="F51" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G51" s="14">
         <v>1</v>
       </c>
       <c r="H51" s="8">
         <f>D51-E51+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I51" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="0"/>
-        <v>0.10810810810810811</v>
+        <v>0.11607142857142858</v>
       </c>
       <c r="K51" s="10">
         <v>15</v>
@@ -4714,7 +4714,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>88.800000000000011</v>
+        <v>89.600000000000009</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4733,7 +4733,7 @@
         <v>78</v>
       </c>
       <c r="E52" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="8">
         <v>1</v>
@@ -4743,14 +4743,14 @@
       </c>
       <c r="H52" s="8">
         <f>D52-E52+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I52" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J52" s="12">
         <f t="shared" si="0"/>
-        <v>0.24358974358974358</v>
+        <v>0.25316455696202533</v>
       </c>
       <c r="K52" s="10">
         <v>6.5</v>
@@ -4758,7 +4758,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>62.400000000000006</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4775,7 +4775,7 @@
         <v>135</v>
       </c>
       <c r="E53" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F53" s="8">
         <v>2</v>
@@ -4785,14 +4785,14 @@
       </c>
       <c r="H53" s="8">
         <f>D53-E53+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I53" s="8">
         <v>24</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="0"/>
-        <v>0.18045112781954886</v>
+        <v>0.18320610687022901</v>
       </c>
       <c r="K53" s="10">
         <v>7.91</v>
@@ -4800,7 +4800,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>106.4</v>
+        <v>104.80000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4872,11 +4872,11 @@
         <v>104</v>
       </c>
       <c r="I55" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J55" s="12">
         <f t="shared" si="0"/>
-        <v>2.8846153846153848E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -4900,10 +4900,10 @@
         <v>122</v>
       </c>
       <c r="E56" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F56" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G56" s="14">
         <v>0</v>
@@ -4913,11 +4913,11 @@
         <v>121</v>
       </c>
       <c r="I56" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="0"/>
-        <v>0.38842975206611569</v>
+        <v>0.42148760330578511</v>
       </c>
       <c r="K56" s="10">
         <v>4.58</v>
@@ -4942,7 +4942,7 @@
         <v>84</v>
       </c>
       <c r="E57" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="8">
         <v>20</v>
@@ -4952,14 +4952,14 @@
       </c>
       <c r="H57" s="8">
         <f>D57-E57+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I57" s="8">
         <v>19</v>
       </c>
       <c r="J57" s="12">
         <f t="shared" si="0"/>
-        <v>0.18811881188118812</v>
+        <v>0.19</v>
       </c>
       <c r="K57" s="10">
         <v>6.36</v>
@@ -4967,7 +4967,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>80.800000000000011</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4984,7 +4984,7 @@
         <v>73</v>
       </c>
       <c r="E58" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="8">
         <v>5</v>
@@ -4994,14 +4994,14 @@
       </c>
       <c r="H58" s="8">
         <f>D58-E58+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I58" s="8">
         <v>12</v>
       </c>
       <c r="J58" s="12">
         <f t="shared" si="0"/>
-        <v>0.15384615384615385</v>
+        <v>0.15584415584415584</v>
       </c>
       <c r="K58" s="10">
         <v>9.56</v>
@@ -5009,7 +5009,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>62.400000000000006</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5299,19 +5299,19 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>2572.9465648854962</v>
+        <v>2567.4503816793895</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>1145.9465648854962</v>
+        <v>1095.4503816793895</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
-        <v>45846</v>
+        <v>45847</v>
       </c>
     </row>
   </sheetData>

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392272A5-71C4-494D-826E-AC2273E19DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97F5712-06B5-47B4-A672-1E80AE99F225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
@@ -686,12 +686,8 @@
         <bottom style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -934,7 +930,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>10/07/2025</a:t>
+            <a:t>14/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1408,7 +1404,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>36,64%</a:t>
+            <a:t>38,17%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2321,10 +2317,10 @@
       <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
-            <v>7007</v>
+            <v>6971</v>
           </cell>
           <cell r="E23">
-            <v>1472</v>
+            <v>1583</v>
           </cell>
         </row>
       </sheetData>
@@ -2383,7 +2379,7 @@
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Normal">
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Moeda [0]">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="6" totalsRowDxfId="2"/>
@@ -2697,7 +2693,7 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,7 +2727,7 @@
       <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45848</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2749,20 +2745,20 @@
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>4.625155322380229E-2</v>
+        <v>5.3292834460858758E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>3.2997376777578351E-2</v>
+        <v>3.5068341847300843E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.4299323484743892E-2</v>
+        <v>2.4161259146762391E-2</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.16045167085533138</v>
+        <v>-0.15906653598714385</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2780,27 +2776,27 @@
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7147</v>
+        <v>7111</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1472</v>
+        <v>1583</v>
       </c>
       <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.20596054288512664</v>
+        <v>0.22261285332583322</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
@@ -2809,7 +2805,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="2">
         <f>SUBTOTAL(9,Tabela1[Meta Cob. Coleção])</f>
-        <v>5717.5999999999995</v>
+        <v>5688.800000000002</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2896,11 +2892,11 @@
         <v>137</v>
       </c>
       <c r="I9" s="8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ref="J9:J59" si="0">I9/H9</f>
-        <v>9.4890510948905105E-2</v>
+        <v>0.11678832116788321</v>
       </c>
       <c r="K9" s="10">
         <v>14.92</v>
@@ -2926,7 +2922,7 @@
         <v>175</v>
       </c>
       <c r="E10" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
@@ -2936,14 +2932,14 @@
       </c>
       <c r="H10" s="8">
         <f>D10-E10+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I10" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.33950617283950618</v>
+        <v>0.35</v>
       </c>
       <c r="K10" s="10">
         <v>12.53</v>
@@ -2951,7 +2947,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>129.6</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2969,7 +2965,7 @@
         <v>111</v>
       </c>
       <c r="E11" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8">
         <v>2</v>
@@ -2979,14 +2975,14 @@
       </c>
       <c r="H11" s="8">
         <f>D11-E11+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I11" s="8">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>0.28971962616822428</v>
+        <v>0.3300970873786408</v>
       </c>
       <c r="K11" s="10">
         <v>12.53</v>
@@ -2994,7 +2990,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>85.600000000000009</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3012,24 +3008,24 @@
         <v>184</v>
       </c>
       <c r="E12" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="14">
         <v>2</v>
       </c>
       <c r="H12" s="8">
         <f>D12-E12+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I12" s="8">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0.36507936507936506</v>
+        <v>0.4607329842931937</v>
       </c>
       <c r="K12" s="10">
         <v>7.87</v>
@@ -3037,7 +3033,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>151.20000000000002</v>
+        <v>152.80000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3055,7 +3051,7 @@
         <v>145</v>
       </c>
       <c r="E13" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" s="8">
         <v>5</v>
@@ -3065,14 +3061,14 @@
       </c>
       <c r="H13" s="8">
         <f>D13-E13+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I13" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>0.15862068965517243</v>
+        <v>0.16783216783216784</v>
       </c>
       <c r="K13" s="10">
         <v>8.75</v>
@@ -3080,7 +3076,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>116</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3112,11 +3108,11 @@
         <v>123</v>
       </c>
       <c r="I14" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>0.30894308943089432</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K14" s="10">
         <v>12.4</v>
@@ -3155,11 +3151,11 @@
         <v>145</v>
       </c>
       <c r="I15" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>0.20689655172413793</v>
+        <v>0.21379310344827587</v>
       </c>
       <c r="K15" s="10">
         <v>11.9</v>
@@ -3185,7 +3181,7 @@
         <v>106</v>
       </c>
       <c r="E16" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="8">
         <v>14</v>
@@ -3195,14 +3191,14 @@
       </c>
       <c r="H16" s="8">
         <f>D16-E16+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>0.30275229357798167</v>
+        <v>0.32407407407407407</v>
       </c>
       <c r="K16" s="10">
         <v>4.76</v>
@@ -3210,7 +3206,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>87.2</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3241,11 +3237,11 @@
         <v>66</v>
       </c>
       <c r="I17" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>0.25757575757575757</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="K17" s="10">
         <v>6.17</v>
@@ -3271,10 +3267,10 @@
         <v>222</v>
       </c>
       <c r="E18" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="14">
         <v>6</v>
@@ -3284,11 +3280,11 @@
         <v>224</v>
       </c>
       <c r="I18" s="8">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.33035714285714285</v>
+        <v>0.36160714285714285</v>
       </c>
       <c r="K18" s="10">
         <v>10.050000000000001</v>
@@ -3357,7 +3353,7 @@
         <v>86</v>
       </c>
       <c r="E20" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="8">
         <v>4</v>
@@ -3367,14 +3363,14 @@
       </c>
       <c r="H20" s="8">
         <f>D20-E20+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
-        <v>0.18604651162790697</v>
+        <v>0.2</v>
       </c>
       <c r="K20" s="10">
         <v>10</v>
@@ -3382,7 +3378,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>68.8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3413,11 +3409,11 @@
         <v>96</v>
       </c>
       <c r="I21" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>0.30208333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="K21" s="10">
         <v>11.67</v>
@@ -3443,24 +3439,24 @@
         <v>159</v>
       </c>
       <c r="E22" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22" s="8">
         <v>5</v>
       </c>
       <c r="G22" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="8">
         <f>D22-E22+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I22" s="8">
         <v>18</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="0"/>
-        <v>0.11538461538461539</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="K22" s="10">
         <v>4.82</v>
@@ -3468,7 +3464,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>124.80000000000001</v>
+        <v>123.2</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3487,24 +3483,24 @@
         <v>158</v>
       </c>
       <c r="E23" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="8">
         <v>8</v>
       </c>
       <c r="G23" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="8">
         <f>D23-E23+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I23" s="8">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.26143790849673204</v>
+        <v>0.31168831168831168</v>
       </c>
       <c r="K23" s="10">
         <v>7.5</v>
@@ -3512,7 +3508,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>122.4</v>
+        <v>123.2</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3530,7 +3526,7 @@
         <v>229</v>
       </c>
       <c r="E24" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="8">
         <v>11</v>
@@ -3540,14 +3536,14 @@
       </c>
       <c r="H24" s="8">
         <f>D24-E24+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I24" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="0"/>
-        <v>0.26548672566371684</v>
+        <v>0.27111111111111114</v>
       </c>
       <c r="K24" s="10">
         <v>9.52</v>
@@ -3555,7 +3551,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>180.8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3573,7 +3569,7 @@
         <v>106</v>
       </c>
       <c r="E25" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -3583,14 +3579,14 @@
       </c>
       <c r="H25" s="8">
         <f>D25-E25+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I25" s="8">
         <v>30</v>
       </c>
       <c r="J25" s="12">
         <f t="shared" si="0"/>
-        <v>0.29411764705882354</v>
+        <v>0.31914893617021278</v>
       </c>
       <c r="K25" s="10">
         <v>7.29</v>
@@ -3598,7 +3594,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>81.600000000000009</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3617,7 +3613,7 @@
         <v>91</v>
       </c>
       <c r="E26" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="8">
         <v>1</v>
@@ -3627,14 +3623,14 @@
       </c>
       <c r="H26" s="8">
         <f>D26-E26+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I26" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J26" s="12">
         <f t="shared" si="0"/>
-        <v>0.17777777777777778</v>
+        <v>0.19101123595505617</v>
       </c>
       <c r="K26" s="10">
         <v>7.29</v>
@@ -3642,7 +3638,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>72</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3673,11 +3669,11 @@
         <v>122</v>
       </c>
       <c r="I27" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.26229508196721313</v>
+        <v>0.27868852459016391</v>
       </c>
       <c r="K27" s="10">
         <v>8.33</v>
@@ -3702,7 +3698,7 @@
         <v>178</v>
       </c>
       <c r="E28" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F28" s="8">
         <v>5</v>
@@ -3712,14 +3708,14 @@
       </c>
       <c r="H28" s="8">
         <f>D28-E28+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I28" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>0.31034482758620691</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K28" s="10">
         <v>7.33</v>
@@ -3727,7 +3723,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>139.20000000000002</v>
+        <v>136.80000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3745,7 +3741,7 @@
         <v>127</v>
       </c>
       <c r="E29" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29" s="8">
         <v>3</v>
@@ -3755,14 +3751,14 @@
       </c>
       <c r="H29" s="8">
         <f>D29-E29+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I29" s="8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>0.14634146341463414</v>
+        <v>0.184</v>
       </c>
       <c r="K29" s="10">
         <v>11</v>
@@ -3770,7 +3766,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>98.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3788,24 +3784,24 @@
         <v>257</v>
       </c>
       <c r="E30" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F30" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" s="14">
         <v>1</v>
       </c>
       <c r="H30" s="8">
         <f>D30-E30+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I30" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>8.6274509803921567E-2</v>
       </c>
       <c r="K30" s="10">
         <v>7.5</v>
@@ -3813,7 +3809,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3831,7 +3827,7 @@
         <v>140</v>
       </c>
       <c r="E31" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -3841,14 +3837,14 @@
       </c>
       <c r="H31" s="8">
         <f>D31-E31+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I31" s="8">
         <v>42</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="0"/>
-        <v>0.30656934306569344</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="K31" s="10">
         <v>6.54</v>
@@ -3856,7 +3852,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>109.60000000000001</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3887,11 +3883,11 @@
         <v>113</v>
       </c>
       <c r="I32" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" si="0"/>
-        <v>9.7345132743362831E-2</v>
+        <v>0.10619469026548672</v>
       </c>
       <c r="K32" s="10">
         <v>16.13</v>
@@ -3917,7 +3913,7 @@
         <v>260</v>
       </c>
       <c r="E33" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33" s="8">
         <v>1</v>
@@ -3927,14 +3923,14 @@
       </c>
       <c r="H33" s="8">
         <f>D33-E33+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I33" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>6.2256809338521402E-2</v>
+        <v>5.859375E-2</v>
       </c>
       <c r="K33" s="10">
         <v>5.88</v>
@@ -3942,7 +3938,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>205.60000000000002</v>
+        <v>204.8</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3963,21 +3959,21 @@
         <v>5</v>
       </c>
       <c r="F34" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" s="14">
         <v>4</v>
       </c>
       <c r="H34" s="8">
         <f>D34-E34+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I34" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="0"/>
-        <v>0.24858757062146894</v>
+        <v>0.2640449438202247</v>
       </c>
       <c r="K34" s="10">
         <v>6.59</v>
@@ -3985,7 +3981,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>141.6</v>
+        <v>142.4</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4016,11 +4012,11 @@
         <v>116</v>
       </c>
       <c r="I35" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.43103448275862066</v>
+        <v>0.44827586206896552</v>
       </c>
       <c r="K35" s="10">
         <v>8.8699999999999992</v>
@@ -4046,7 +4042,7 @@
         <v>272</v>
       </c>
       <c r="E36" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36" s="8">
         <v>5</v>
@@ -4056,14 +4052,14 @@
       </c>
       <c r="H36" s="8">
         <f>D36-E36+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I36" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.18490566037735848</v>
+        <v>0.19101123595505617</v>
       </c>
       <c r="K36" s="10">
         <v>10.37</v>
@@ -4071,7 +4067,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>212</v>
+        <v>213.60000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4089,7 +4085,7 @@
         <v>173</v>
       </c>
       <c r="E37" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F37" s="8">
         <v>4</v>
@@ -4099,14 +4095,14 @@
       </c>
       <c r="H37" s="8">
         <f>D37-E37+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I37" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>0.16763005780346821</v>
+        <v>0.18128654970760233</v>
       </c>
       <c r="K37" s="10">
         <v>4.93</v>
@@ -4114,7 +4110,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>138.4</v>
+        <v>136.80000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4131,7 +4127,7 @@
         <v>93</v>
       </c>
       <c r="E38" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F38" s="8">
         <v>1</v>
@@ -4141,14 +4137,14 @@
       </c>
       <c r="H38" s="8">
         <f>D38-E38+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I38" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="0"/>
-        <v>0.15189873417721519</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="K38" s="10">
         <v>6</v>
@@ -4156,7 +4152,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>63.2</v>
+        <v>60.800000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4174,10 +4170,10 @@
         <v>168</v>
       </c>
       <c r="E39" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="14">
         <v>5</v>
@@ -4187,11 +4183,11 @@
         <v>164</v>
       </c>
       <c r="I39" s="8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>0.26219512195121952</v>
+        <v>0.28048780487804881</v>
       </c>
       <c r="K39" s="10">
         <v>6.23</v>
@@ -4217,24 +4213,24 @@
         <v>214</v>
       </c>
       <c r="E40" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F40" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G40" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" s="8">
         <f>D40-E40+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I40" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>0.10344827586206896</v>
+        <v>0.11274509803921569</v>
       </c>
       <c r="K40" s="10">
         <v>7.69</v>
@@ -4242,7 +4238,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>162.4</v>
+        <v>163.20000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4273,11 +4269,11 @@
         <v>127</v>
       </c>
       <c r="I41" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>0.25196850393700787</v>
+        <v>0.27559055118110237</v>
       </c>
       <c r="K41" s="10">
         <v>8.8699999999999992</v>
@@ -4304,7 +4300,7 @@
         <v>79</v>
       </c>
       <c r="E42" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="8">
         <v>3</v>
@@ -4314,14 +4310,14 @@
       </c>
       <c r="H42" s="8">
         <f>D42-E42+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I42" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="0"/>
-        <v>0.1125</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="K42" s="10">
         <v>8.17</v>
@@ -4329,7 +4325,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>64</v>
+        <v>62.400000000000006</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4346,7 +4342,7 @@
         <v>206</v>
       </c>
       <c r="E43" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" s="8">
         <v>1</v>
@@ -4356,14 +4352,14 @@
       </c>
       <c r="H43" s="8">
         <f>D43-E43+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I43" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0.11976047904191617</v>
+        <v>0.12650602409638553</v>
       </c>
       <c r="K43" s="10">
         <v>6.65</v>
@@ -4371,7 +4367,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>133.6</v>
+        <v>132.80000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4389,24 +4385,24 @@
         <v>213</v>
       </c>
       <c r="E44" s="8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F44" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G44" s="14">
         <v>1</v>
       </c>
       <c r="H44" s="8">
         <f>D44-E44+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I44" s="8">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>0.22966507177033493</v>
+        <v>0.25480769230769229</v>
       </c>
       <c r="K44" s="10">
         <v>4.62</v>
@@ -4414,7 +4410,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>167.20000000000002</v>
+        <v>166.4</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4432,24 +4428,24 @@
         <v>135</v>
       </c>
       <c r="E45" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G45" s="14">
         <v>0</v>
       </c>
       <c r="H45" s="8">
         <f>D45-E45+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I45" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J45" s="12">
         <f t="shared" si="0"/>
-        <v>0.10714285714285714</v>
+        <v>0.11971830985915492</v>
       </c>
       <c r="K45" s="10">
         <v>9.75</v>
@@ -4457,7 +4453,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112</v>
+        <v>113.60000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4475,7 +4471,7 @@
         <v>103</v>
       </c>
       <c r="E46" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
@@ -4485,14 +4481,14 @@
       </c>
       <c r="H46" s="8">
         <f>D46-E46+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I46" s="8">
         <v>20</v>
       </c>
       <c r="J46" s="12">
         <f t="shared" si="0"/>
-        <v>0.1941747572815534</v>
+        <v>0.19801980198019803</v>
       </c>
       <c r="K46" s="10">
         <v>5.92</v>
@@ -4500,7 +4496,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>82.4</v>
+        <v>80.800000000000011</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4530,11 +4526,11 @@
         <v>163</v>
       </c>
       <c r="I47" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J47" s="12">
         <f t="shared" si="0"/>
-        <v>7.9754601226993863E-2</v>
+        <v>8.5889570552147243E-2</v>
       </c>
       <c r="K47" s="10">
         <v>3.75</v>
@@ -4559,7 +4555,7 @@
         <v>147</v>
       </c>
       <c r="E48" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F48" s="8">
         <v>3</v>
@@ -4569,14 +4565,14 @@
       </c>
       <c r="H48" s="8">
         <f>D48-E48+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I48" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J48" s="12">
         <f t="shared" si="0"/>
-        <v>0.12295081967213115</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="K48" s="10">
         <v>7.3</v>
@@ -4584,7 +4580,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>97.600000000000009</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4602,7 +4598,7 @@
         <v>117</v>
       </c>
       <c r="E49" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="8">
         <v>4</v>
@@ -4612,14 +4608,14 @@
       </c>
       <c r="H49" s="8">
         <f>D49-E49+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I49" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="0"/>
-        <v>0.28333333333333333</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="K49" s="10">
         <v>5.19</v>
@@ -4627,7 +4623,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>96</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4645,7 +4641,7 @@
         <v>136</v>
       </c>
       <c r="E50" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="8">
         <v>5</v>
@@ -4655,14 +4651,14 @@
       </c>
       <c r="H50" s="8">
         <f>D50-E50+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I50" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="0"/>
-        <v>0.21582733812949639</v>
+        <v>0.25</v>
       </c>
       <c r="K50" s="10">
         <v>7.4</v>
@@ -4670,7 +4666,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>111.2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4733,24 +4729,24 @@
         <v>78</v>
       </c>
       <c r="E52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" s="14">
         <v>0</v>
       </c>
       <c r="H52" s="8">
         <f>D52-E52+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I52" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J52" s="12">
         <f t="shared" si="0"/>
-        <v>0.25316455696202533</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="K52" s="10">
         <v>6.5</v>
@@ -4758,7 +4754,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>63.2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4830,11 +4826,11 @@
         <v>140</v>
       </c>
       <c r="I54" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J54" s="12">
         <f>I54/H54</f>
-        <v>5.7142857142857141E-2</v>
+        <v>7.857142857142857E-2</v>
       </c>
       <c r="K54" s="10">
         <v>6.67</v>
@@ -4872,11 +4868,11 @@
         <v>104</v>
       </c>
       <c r="I55" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J55" s="12">
         <f t="shared" si="0"/>
-        <v>3.8461538461538464E-2</v>
+        <v>4.807692307692308E-2</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -4900,7 +4896,7 @@
         <v>122</v>
       </c>
       <c r="E56" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" s="8">
         <v>4</v>
@@ -4910,14 +4906,14 @@
       </c>
       <c r="H56" s="8">
         <f>D56-E56+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I56" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="0"/>
-        <v>0.42148760330578511</v>
+        <v>0.4344262295081967</v>
       </c>
       <c r="K56" s="10">
         <v>4.58</v>
@@ -4925,7 +4921,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>96.800000000000011</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4955,11 +4951,11 @@
         <v>100</v>
       </c>
       <c r="I57" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J57" s="12">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="K57" s="10">
         <v>6.36</v>
@@ -4984,10 +4980,10 @@
         <v>73</v>
       </c>
       <c r="E58" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G58" s="14">
         <v>11</v>
@@ -5069,7 +5065,7 @@
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
-      <formula>0.3588</formula>
+      <formula>0.3817</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
@@ -5078,7 +5074,7 @@
     </cfRule>
     <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
       <formula>0.1999</formula>
-      <formula>0.3584</formula>
+      <formula>0.3816</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L59">
@@ -5172,7 +5168,7 @@
       </c>
       <c r="D3" s="23">
         <f>E2*D7</f>
-        <v>0.36641221374045801</v>
+        <v>0.38167938931297707</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5209,7 +5205,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5221,7 +5217,7 @@
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5241,11 +5237,11 @@
       </c>
       <c r="D9" s="23">
         <f>D7*E2</f>
-        <v>0.36641221374045801</v>
+        <v>0.38167938931297707</v>
       </c>
       <c r="E9" s="31">
         <f>D9</f>
-        <v>0.36641221374045801</v>
+        <v>0.38167938931297707</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5299,19 +5295,19 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>2567.4503816793895</v>
+        <v>2660.6870229007632</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>1095.4503816793895</v>
+        <v>1077.6870229007632</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
-        <v>45847</v>
+        <v>45851</v>
       </c>
     </row>
   </sheetData>

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97F5712-06B5-47B4-A672-1E80AE99F225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1BB1DF-EFA7-4FFD-B185-184B6B9514A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
@@ -372,7 +372,67 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -391,6 +451,38 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -425,10 +517,80 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -465,108 +627,6 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -812,36 +872,6 @@
           <color theme="4" tint="-0.499984740745262"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1404,7 +1434,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>38,17%</a:t>
+            <a:t>38,93%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2308,12 +2338,12 @@
       <sheetName val="Planilha5"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
@@ -2324,25 +2354,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2365,26 +2395,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A8:M59" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="15">
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Moeda [0]">
+    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo de Carteira]]*80%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2693,7 +2723,7 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,7 +2788,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.15906653598714385</v>
+        <v>-0.1667001237734034</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5064,17 +5094,17 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
-      <formula>0.3817</formula>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+      <formula>0.3893</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
       <formula>0.1999</formula>
-      <formula>0.3816</formula>
+      <formula>0.3892</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L59">
@@ -5168,7 +5198,7 @@
       </c>
       <c r="D3" s="23">
         <f>E2*D7</f>
-        <v>0.38167938931297707</v>
+        <v>0.38931297709923662</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5205,7 +5235,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5217,7 +5247,7 @@
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5237,11 +5267,11 @@
       </c>
       <c r="D9" s="23">
         <f>D7*E2</f>
-        <v>0.38167938931297707</v>
+        <v>0.38931297709923662</v>
       </c>
       <c r="E9" s="31">
         <f>D9</f>
-        <v>0.38167938931297707</v>
+        <v>0.38931297709923662</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5295,13 +5325,13 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>2660.6870229007632</v>
+        <v>2713.9007633587785</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>1077.6870229007632</v>
+        <v>1130.9007633587785</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1BB1DF-EFA7-4FFD-B185-184B6B9514A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB75F49-D673-4C47-8BFE-F44264ACB5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
@@ -466,23 +466,10 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -517,6 +504,57 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -550,25 +588,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -591,25 +610,6 @@
           <color theme="4" tint="-0.499984740745262"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -960,7 +960,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>14/07/2025</a:t>
+            <a:t>23/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1434,7 +1434,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>38,93%</a:t>
+            <a:t>44,27%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2338,41 +2338,41 @@
       <sheetName val="Planilha5"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
-            <v>6971</v>
+            <v>7069</v>
           </cell>
           <cell r="E23">
-            <v>1583</v>
+            <v>1902</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2409,12 +2409,12 @@
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="13" totalsRowDxfId="9">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="12" totalsRowDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="11" totalsRowDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="10" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo de Carteira]]*80%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2722,8 +2722,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,7 +2757,7 @@
       <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45852</v>
+        <v>45861</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2775,20 +2775,20 @@
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>5.3292834460858758E-2</v>
+        <v>4.5699295871876294E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>3.5068341847300843E-2</v>
+        <v>4.0867044042523816E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.4161259146762391E-2</v>
+        <v>2.4989645174651388E-2</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.1667001237734034</v>
+        <v>-0.17887461768518437</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2806,36 +2806,36 @@
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7111</v>
+        <v>7208</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1583</v>
+        <v>1902</v>
       </c>
       <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.22261285332583322</v>
+        <v>0.26387347391786903</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
-        <v>8.1488000000000014</v>
+        <v>8.7073999999999998</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="2">
         <f>SUBTOTAL(9,Tabela1[Meta Cob. Coleção])</f>
-        <v>5688.800000000002</v>
+        <v>5766.4000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>142</v>
       </c>
       <c r="E9" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
@@ -2919,22 +2919,22 @@
       </c>
       <c r="H9" s="8">
         <f>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I9" s="8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ref="J9:J59" si="0">I9/H9</f>
-        <v>0.11678832116788321</v>
+        <v>0.20143884892086331</v>
       </c>
       <c r="K9" s="10">
-        <v>14.92</v>
+        <v>12.48</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>109.60000000000001</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
         <v>175</v>
       </c>
       <c r="E10" s="8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
@@ -2962,22 +2962,22 @@
       </c>
       <c r="H10" s="8">
         <f>D10-E10+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I10" s="8">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0.36746987951807231</v>
       </c>
       <c r="K10" s="10">
-        <v>12.53</v>
+        <v>12.25</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>128</v>
+        <v>132.80000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2995,32 +2995,32 @@
         <v>111</v>
       </c>
       <c r="E11" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="14">
         <v>0</v>
       </c>
       <c r="H11" s="8">
         <f>D11-E11+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I11" s="8">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>0.3300970873786408</v>
+        <v>0.3925233644859813</v>
       </c>
       <c r="K11" s="10">
-        <v>12.53</v>
+        <v>11.54</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>82.4</v>
+        <v>85.600000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" s="8">
         <v>16</v>
@@ -3048,22 +3048,22 @@
       </c>
       <c r="H12" s="8">
         <f>D12-E12+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I12" s="8">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0.4607329842931937</v>
+        <v>0.49222797927461137</v>
       </c>
       <c r="K12" s="10">
-        <v>7.87</v>
+        <v>8.4</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>152.80000000000001</v>
+        <v>154.4</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3094,14 +3094,14 @@
         <v>143</v>
       </c>
       <c r="I13" s="8">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>0.16783216783216784</v>
+        <v>0.20979020979020979</v>
       </c>
       <c r="K13" s="10">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="27">
@@ -3125,32 +3125,32 @@
         <v>126</v>
       </c>
       <c r="E14" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="14">
         <v>3</v>
       </c>
       <c r="H14" s="8">
         <f>D14-E14+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I14" s="8">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.3543307086614173</v>
       </c>
       <c r="K14" s="10">
-        <v>12.4</v>
+        <v>11.47</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>98.4</v>
+        <v>101.60000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>144</v>
       </c>
       <c r="E15" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="8">
         <v>4</v>
@@ -3178,22 +3178,22 @@
       </c>
       <c r="H15" s="8">
         <f>D15-E15+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I15" s="8">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>0.21379310344827587</v>
+        <v>0.27891156462585032</v>
       </c>
       <c r="K15" s="10">
-        <v>11.9</v>
+        <v>10.32</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>116</v>
+        <v>117.60000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3211,32 +3211,32 @@
         <v>106</v>
       </c>
       <c r="E16" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G16" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="8">
         <f>D16-E16+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I16" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>0.32407407407407407</v>
+        <v>0.30252100840336132</v>
       </c>
       <c r="K16" s="10">
-        <v>4.76</v>
+        <v>5.14</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>86.4</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3267,14 +3267,14 @@
         <v>66</v>
       </c>
       <c r="I17" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="K17" s="10">
-        <v>6.17</v>
+        <v>6.79</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="27">
@@ -3300,29 +3300,29 @@
         <v>10</v>
       </c>
       <c r="F18" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="14">
         <v>6</v>
       </c>
       <c r="H18" s="8">
         <f>D18-E18+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I18" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.36160714285714285</v>
+        <v>0.36444444444444446</v>
       </c>
       <c r="K18" s="10">
-        <v>10.050000000000001</v>
+        <v>12.08</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>179.20000000000002</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3340,7 +3340,7 @@
         <v>93</v>
       </c>
       <c r="E19" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="8">
         <v>5</v>
@@ -3350,22 +3350,22 @@
       </c>
       <c r="H19" s="8">
         <f>D19-E19+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>0.37634408602150538</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="K19" s="10">
-        <v>4.4800000000000004</v>
+        <v>6.44</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>74.400000000000006</v>
+        <v>73.600000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3383,7 +3383,7 @@
         <v>86</v>
       </c>
       <c r="E20" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="8">
         <v>4</v>
@@ -3393,22 +3393,22 @@
       </c>
       <c r="H20" s="8">
         <f>D20-E20+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I20" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.21839080459770116</v>
       </c>
       <c r="K20" s="10">
-        <v>10</v>
+        <v>10.28</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>68</v>
+        <v>69.600000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3446,7 +3446,7 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="K21" s="10">
-        <v>11.67</v>
+        <v>12.23</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="27">
@@ -3469,32 +3469,32 @@
         <v>159</v>
       </c>
       <c r="E22" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="8">
         <f>D22-E22+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I22" s="8">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="0"/>
-        <v>0.11688311688311688</v>
+        <v>0.17197452229299362</v>
       </c>
       <c r="K22" s="10">
-        <v>4.82</v>
+        <v>9.75</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>123.2</v>
+        <v>125.60000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
         <v>158</v>
       </c>
       <c r="E23" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" s="8">
         <v>8</v>
@@ -3523,22 +3523,22 @@
       </c>
       <c r="H23" s="8">
         <f>D23-E23+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I23" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.31168831168831168</v>
+        <v>0.33986928104575165</v>
       </c>
       <c r="K23" s="10">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>123.2</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,32 +3556,32 @@
         <v>229</v>
       </c>
       <c r="E24" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F24" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" s="14">
         <v>8</v>
       </c>
       <c r="H24" s="8">
         <f>D24-E24+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="I24" s="8">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="0"/>
-        <v>0.27111111111111114</v>
+        <v>0.30131004366812225</v>
       </c>
       <c r="K24" s="10">
-        <v>9.52</v>
+        <v>10.72</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>180</v>
+        <v>183.20000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>106</v>
       </c>
       <c r="E25" s="8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="H25" s="8">
         <f>D25-E25+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I25" s="8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J25" s="12">
         <f t="shared" si="0"/>
-        <v>0.31914893617021278</v>
+        <v>0.34343434343434343</v>
       </c>
       <c r="K25" s="10">
-        <v>7.29</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>75.2</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3643,7 +3643,7 @@
         <v>91</v>
       </c>
       <c r="E26" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="8">
         <v>1</v>
@@ -3653,22 +3653,22 @@
       </c>
       <c r="H26" s="8">
         <f>D26-E26+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I26" s="8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J26" s="12">
         <f t="shared" si="0"/>
-        <v>0.19101123595505617</v>
+        <v>0.25</v>
       </c>
       <c r="K26" s="10">
-        <v>7.29</v>
+        <v>7.77</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>71.2</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3686,32 +3686,32 @@
         <v>119</v>
       </c>
       <c r="E27" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="14">
         <v>1</v>
       </c>
       <c r="H27" s="8">
         <f>D27-E27+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I27" s="8">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.27868852459016391</v>
+        <v>0.32539682539682541</v>
       </c>
       <c r="K27" s="10">
-        <v>8.33</v>
+        <v>7.47</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>97.600000000000009</v>
+        <v>100.80000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3728,7 +3728,7 @@
         <v>178</v>
       </c>
       <c r="E28" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" s="8">
         <v>5</v>
@@ -3738,22 +3738,22 @@
       </c>
       <c r="H28" s="8">
         <f>D28-E28+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I28" s="8">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.36416184971098264</v>
       </c>
       <c r="K28" s="10">
-        <v>7.33</v>
+        <v>9.16</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>136.80000000000001</v>
+        <v>138.4</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3771,7 +3771,7 @@
         <v>127</v>
       </c>
       <c r="E29" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" s="8">
         <v>3</v>
@@ -3781,22 +3781,22 @@
       </c>
       <c r="H29" s="8">
         <f>D29-E29+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I29" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>0.184</v>
+        <v>0.20161290322580644</v>
       </c>
       <c r="K29" s="10">
-        <v>11</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>100</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3814,32 +3814,32 @@
         <v>257</v>
       </c>
       <c r="E30" s="8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F30" s="8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G30" s="14">
         <v>1</v>
       </c>
       <c r="H30" s="8">
         <f>D30-E30+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="I30" s="8">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>8.6274509803921567E-2</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="K30" s="10">
-        <v>7.5</v>
+        <v>8.43</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3857,7 +3857,7 @@
         <v>140</v>
       </c>
       <c r="E31" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -3867,22 +3867,22 @@
       </c>
       <c r="H31" s="8">
         <f>D31-E31+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I31" s="8">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="0"/>
-        <v>0.31578947368421051</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="K31" s="10">
-        <v>6.54</v>
+        <v>8.09</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>106.4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3913,14 +3913,14 @@
         <v>113</v>
       </c>
       <c r="I32" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" si="0"/>
-        <v>0.10619469026548672</v>
+        <v>0.18584070796460178</v>
       </c>
       <c r="K32" s="10">
-        <v>16.13</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="27">
@@ -3943,32 +3943,32 @@
         <v>260</v>
       </c>
       <c r="E33" s="8">
+        <v>3</v>
+      </c>
+      <c r="F33" s="8">
+        <v>4</v>
+      </c>
+      <c r="G33" s="14">
         <v>5</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="14">
-        <v>3</v>
       </c>
       <c r="H33" s="8">
         <f>D33-E33+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I33" s="8">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>5.859375E-2</v>
+        <v>0.16858237547892721</v>
       </c>
       <c r="K33" s="10">
-        <v>5.88</v>
+        <v>6.95</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>204.8</v>
+        <v>208.8</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3986,7 +3986,7 @@
         <v>177</v>
       </c>
       <c r="E34" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" s="8">
         <v>6</v>
@@ -3996,22 +3996,22 @@
       </c>
       <c r="H34" s="8">
         <f>D34-E34+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I34" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="0"/>
-        <v>0.2640449438202247</v>
+        <v>0.27932960893854747</v>
       </c>
       <c r="K34" s="10">
-        <v>6.59</v>
+        <v>6.89</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>142.4</v>
+        <v>143.20000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4029,10 +4029,10 @@
         <v>122</v>
       </c>
       <c r="E35" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F35" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G35" s="14">
         <v>2</v>
@@ -4042,14 +4042,14 @@
         <v>116</v>
       </c>
       <c r="I35" s="8">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.44827586206896552</v>
+        <v>0.52586206896551724</v>
       </c>
       <c r="K35" s="10">
-        <v>8.8699999999999992</v>
+        <v>8.84</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="27">
@@ -4085,14 +4085,14 @@
         <v>267</v>
       </c>
       <c r="I36" s="8">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.19101123595505617</v>
+        <v>0.21722846441947566</v>
       </c>
       <c r="K36" s="10">
-        <v>10.37</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="27">
@@ -4115,32 +4115,32 @@
         <v>173</v>
       </c>
       <c r="E37" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G37" s="14">
         <v>5</v>
       </c>
       <c r="H37" s="8">
         <f>D37-E37+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I37" s="8">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>0.18128654970760233</v>
+        <v>0.25142857142857145</v>
       </c>
       <c r="K37" s="10">
-        <v>4.93</v>
+        <v>7.62</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>136.80000000000001</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4157,32 +4157,32 @@
         <v>93</v>
       </c>
       <c r="E38" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F38" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="14">
         <v>4</v>
       </c>
       <c r="H38" s="8">
         <f>D38-E38+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I38" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="0"/>
-        <v>0.18421052631578946</v>
+        <v>0.20253164556962025</v>
       </c>
       <c r="K38" s="10">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>60.800000000000004</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4200,7 +4200,7 @@
         <v>168</v>
       </c>
       <c r="E39" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" s="8">
         <v>2</v>
@@ -4210,22 +4210,22 @@
       </c>
       <c r="H39" s="8">
         <f>D39-E39+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I39" s="8">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>0.28048780487804881</v>
+        <v>0.32121212121212123</v>
       </c>
       <c r="K39" s="10">
-        <v>6.23</v>
+        <v>8.5</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>131.20000000000002</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4243,32 +4243,32 @@
         <v>214</v>
       </c>
       <c r="E40" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F40" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G40" s="14">
         <v>4</v>
       </c>
       <c r="H40" s="8">
         <f>D40-E40+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="I40" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>0.11274509803921569</v>
+        <v>0.12322274881516587</v>
       </c>
       <c r="K40" s="10">
-        <v>7.69</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>163.20000000000002</v>
+        <v>168.8</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4299,14 +4299,14 @@
         <v>127</v>
       </c>
       <c r="I41" s="8">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>0.27559055118110237</v>
+        <v>0.33070866141732286</v>
       </c>
       <c r="K41" s="10">
-        <v>8.8699999999999992</v>
+        <v>9.92</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="27">
@@ -4330,7 +4330,7 @@
         <v>79</v>
       </c>
       <c r="E42" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" s="8">
         <v>3</v>
@@ -4340,22 +4340,22 @@
       </c>
       <c r="H42" s="8">
         <f>D42-E42+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="0"/>
-        <v>0.12820512820512819</v>
+        <v>0.17721518987341772</v>
       </c>
       <c r="K42" s="10">
-        <v>8.17</v>
+        <v>10.5</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>62.400000000000006</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4372,7 +4372,7 @@
         <v>206</v>
       </c>
       <c r="E43" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F43" s="8">
         <v>1</v>
@@ -4382,22 +4382,22 @@
       </c>
       <c r="H43" s="8">
         <f>D43-E43+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I43" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0.12650602409638553</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="K43" s="10">
-        <v>6.65</v>
+        <v>7.71</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>132.80000000000001</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,7 +4415,7 @@
         <v>213</v>
       </c>
       <c r="E44" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44" s="8">
         <v>11</v>
@@ -4425,22 +4425,22 @@
       </c>
       <c r="H44" s="8">
         <f>D44-E44+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I44" s="8">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>0.25480769230769229</v>
+        <v>0.30476190476190479</v>
       </c>
       <c r="K44" s="10">
-        <v>4.62</v>
+        <v>4.78</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>166.4</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4461,29 +4461,29 @@
         <v>0</v>
       </c>
       <c r="F45" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45" s="14">
         <v>0</v>
       </c>
       <c r="H45" s="8">
         <f>D45-E45+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I45" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J45" s="12">
         <f t="shared" si="0"/>
-        <v>0.11971830985915492</v>
+        <v>0.14685314685314685</v>
       </c>
       <c r="K45" s="10">
-        <v>9.75</v>
+        <v>8.39</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>113.60000000000001</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4501,7 +4501,7 @@
         <v>103</v>
       </c>
       <c r="E46" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
@@ -4511,22 +4511,22 @@
       </c>
       <c r="H46" s="8">
         <f>D46-E46+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I46" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J46" s="12">
         <f t="shared" si="0"/>
-        <v>0.19801980198019803</v>
+        <v>0.25490196078431371</v>
       </c>
       <c r="K46" s="10">
-        <v>5.92</v>
+        <v>7.71</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>80.800000000000011</v>
+        <v>81.600000000000009</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4556,14 +4556,14 @@
         <v>163</v>
       </c>
       <c r="I47" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J47" s="12">
         <f t="shared" si="0"/>
-        <v>8.5889570552147243E-2</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="K47" s="10">
-        <v>3.75</v>
+        <v>6.53</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="27">
@@ -4598,14 +4598,14 @@
         <v>119</v>
       </c>
       <c r="I48" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J48" s="12">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="K48" s="10">
-        <v>7.3</v>
+        <v>6.19</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="27">
@@ -4628,32 +4628,32 @@
         <v>117</v>
       </c>
       <c r="E49" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G49" s="14">
         <v>2</v>
       </c>
       <c r="H49" s="8">
         <f>D49-E49+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I49" s="8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="0"/>
-        <v>0.29411764705882354</v>
+        <v>0.35245901639344263</v>
       </c>
       <c r="K49" s="10">
-        <v>5.19</v>
+        <v>9.24</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>95.2</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4671,32 +4671,32 @@
         <v>136</v>
       </c>
       <c r="E50" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G50" s="14">
         <v>2</v>
       </c>
       <c r="H50" s="8">
         <f>D50-E50+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I50" s="8">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.30985915492957744</v>
       </c>
       <c r="K50" s="10">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112</v>
+        <v>113.60000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4718,29 +4718,29 @@
         <v>1</v>
       </c>
       <c r="F51" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G51" s="14">
         <v>1</v>
       </c>
       <c r="H51" s="8">
         <f>D51-E51+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I51" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="0"/>
-        <v>0.11607142857142858</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="K51" s="10">
-        <v>15</v>
+        <v>11.44</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>89.600000000000009</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4759,7 +4759,7 @@
         <v>78</v>
       </c>
       <c r="E52" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="8">
         <v>3</v>
@@ -4769,22 +4769,22 @@
       </c>
       <c r="H52" s="8">
         <f>D52-E52+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I52" s="8">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J52" s="12">
         <f t="shared" si="0"/>
-        <v>0.26250000000000001</v>
+        <v>0.32098765432098764</v>
       </c>
       <c r="K52" s="10">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>64</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4801,7 +4801,7 @@
         <v>135</v>
       </c>
       <c r="E53" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" s="8">
         <v>2</v>
@@ -4811,22 +4811,22 @@
       </c>
       <c r="H53" s="8">
         <f>D53-E53+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I53" s="8">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="0"/>
-        <v>0.18320610687022901</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="K53" s="10">
-        <v>7.91</v>
+        <v>7.73</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>104.80000000000001</v>
+        <v>105.60000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4843,7 +4843,7 @@
         <v>139</v>
       </c>
       <c r="E54" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="8">
         <v>1</v>
@@ -4853,22 +4853,22 @@
       </c>
       <c r="H54" s="8">
         <f>D54-E54+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I54" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J54" s="12">
         <f>I54/H54</f>
-        <v>7.857142857142857E-2</v>
+        <v>9.3525179856115109E-2</v>
       </c>
       <c r="K54" s="10">
-        <v>6.67</v>
+        <v>6.23</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -4888,27 +4888,27 @@
         <v>0</v>
       </c>
       <c r="F55" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G55" s="14">
         <v>0</v>
       </c>
       <c r="H55" s="8">
         <f>D55-E55+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I55" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J55" s="12">
         <f t="shared" si="0"/>
-        <v>4.807692307692308E-2</v>
+        <v>0.12380952380952381</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>83.2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4939,14 +4939,14 @@
         <v>122</v>
       </c>
       <c r="I56" s="8">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="0"/>
-        <v>0.4344262295081967</v>
+        <v>0.49180327868852458</v>
       </c>
       <c r="K56" s="10">
-        <v>4.58</v>
+        <v>5.68</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="27">
@@ -4968,7 +4968,7 @@
         <v>84</v>
       </c>
       <c r="E57" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F57" s="8">
         <v>20</v>
@@ -4978,22 +4978,22 @@
       </c>
       <c r="H57" s="8">
         <f>D57-E57+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I57" s="8">
         <v>20</v>
       </c>
       <c r="J57" s="12">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.20202020202020202</v>
       </c>
       <c r="K57" s="10">
-        <v>6.36</v>
+        <v>8.25</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>80</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5010,32 +5010,32 @@
         <v>73</v>
       </c>
       <c r="E58" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F58" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G58" s="14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H58" s="8">
         <f>D58-E58+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I58" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J58" s="12">
         <f t="shared" si="0"/>
-        <v>0.15584415584415584</v>
+        <v>0.20987654320987653</v>
       </c>
       <c r="K58" s="10">
-        <v>9.56</v>
+        <v>11.07</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>61.6</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5058,21 +5058,21 @@
         <v>4</v>
       </c>
       <c r="G59" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H59" s="8">
         <f>D59-E59+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
         <v>141</v>
       </c>
       <c r="I59" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J59" s="12">
         <f t="shared" si="0"/>
-        <v>0.12056737588652482</v>
+        <v>0.15602836879432624</v>
       </c>
       <c r="K59" s="10">
-        <v>5.4</v>
+        <v>7.91</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="27">
@@ -5095,16 +5095,16 @@
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
-      <formula>0.3893</formula>
+      <formula>0.4427</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
-      <formula>0.2</formula>
+      <formula>0.23</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
-      <formula>0.1999</formula>
-      <formula>0.3892</formula>
+      <formula>0.2299</formula>
+      <formula>0.4426</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L59">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="D3" s="23">
         <f>E2*D7</f>
-        <v>0.38931297709923662</v>
+        <v>0.4427480916030534</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5235,7 +5235,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5267,11 +5267,11 @@
       </c>
       <c r="D9" s="23">
         <f>D7*E2</f>
-        <v>0.38931297709923662</v>
+        <v>0.4427480916030534</v>
       </c>
       <c r="E9" s="31">
         <f>D9</f>
-        <v>0.38931297709923662</v>
+        <v>0.4427480916030534</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5325,19 +5325,19 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>2713.9007633587785</v>
+        <v>3129.7862595419842</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>1130.9007633587785</v>
+        <v>1227.7862595419842</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
-        <v>45851</v>
+        <v>45860</v>
       </c>
     </row>
   </sheetData>

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB75F49-D673-4C47-8BFE-F44264ACB5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F981CA72-4057-4BE0-8BE9-1442FF2C8DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
@@ -372,7 +372,7 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -415,6 +415,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -425,11 +435,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -960,7 +990,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>23/07/2025</a:t>
+            <a:t>24/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1434,7 +1464,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>44,27%</a:t>
+            <a:t>45,04%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2347,10 +2377,10 @@
       <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
-            <v>7069</v>
+            <v>7041</v>
           </cell>
           <cell r="E23">
-            <v>1902</v>
+            <v>1947</v>
           </cell>
         </row>
       </sheetData>
@@ -2395,26 +2425,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="A8:M59" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="18">
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="13" totalsRowDxfId="9">
+    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="16" totalsRowDxfId="12">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="12" totalsRowDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="11" totalsRowDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="10" totalsRowDxfId="6">
+    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="15" totalsRowDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="14" totalsRowDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="13" totalsRowDxfId="9">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo de Carteira]]*80%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2723,7 +2753,7 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,7 +2787,7 @@
       <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45861</v>
+        <v>45862</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2775,20 +2805,20 @@
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>4.5699295871876294E-2</v>
+        <v>4.9703161673339775E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>4.0867044042523816E-2</v>
+        <v>4.1005108380505313E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.4989645174651388E-2</v>
+        <v>2.4851580836669888E-2</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.17887461768518437</v>
+        <v>-0.17921176295477254</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2806,27 +2836,27 @@
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7208</v>
+        <v>7180</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1902</v>
+        <v>1947</v>
       </c>
       <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.26387347391786903</v>
+        <v>0.27116991643454041</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
@@ -2835,7 +2865,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="2">
         <f>SUBTOTAL(9,Tabela1[Meta Cob. Coleção])</f>
-        <v>5766.4000000000005</v>
+        <v>5744.0000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2909,24 +2939,24 @@
         <v>142</v>
       </c>
       <c r="E9" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
       </c>
       <c r="G9" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="8">
         <f>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I9" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ref="J9:J59" si="0">I9/H9</f>
-        <v>0.20143884892086331</v>
+        <v>0.20714285714285716</v>
       </c>
       <c r="K9" s="10">
         <v>12.48</v>
@@ -2934,7 +2964,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>111.2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2952,7 +2982,7 @@
         <v>175</v>
       </c>
       <c r="E10" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
@@ -2962,14 +2992,14 @@
       </c>
       <c r="H10" s="8">
         <f>D10-E10+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I10" s="8">
         <v>61</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.36746987951807231</v>
+        <v>0.36969696969696969</v>
       </c>
       <c r="K10" s="10">
         <v>12.25</v>
@@ -2977,7 +3007,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>132.80000000000001</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2995,7 +3025,7 @@
         <v>111</v>
       </c>
       <c r="E11" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" s="8">
         <v>3</v>
@@ -3005,14 +3035,14 @@
       </c>
       <c r="H11" s="8">
         <f>D11-E11+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I11" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>0.3925233644859813</v>
+        <v>0.40952380952380951</v>
       </c>
       <c r="K11" s="10">
         <v>11.54</v>
@@ -3020,7 +3050,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>85.600000000000009</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3038,7 +3068,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" s="8">
         <v>16</v>
@@ -3048,14 +3078,14 @@
       </c>
       <c r="H12" s="8">
         <f>D12-E12+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I12" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0.49222797927461137</v>
+        <v>0.50785340314136129</v>
       </c>
       <c r="K12" s="10">
         <v>8.4</v>
@@ -3063,7 +3093,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>154.4</v>
+        <v>152.80000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,7 +3155,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -3135,14 +3165,14 @@
       </c>
       <c r="H14" s="8">
         <f>D14-E14+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I14" s="8">
         <v>45</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>0.3543307086614173</v>
+        <v>0.36585365853658536</v>
       </c>
       <c r="K14" s="10">
         <v>11.47</v>
@@ -3150,7 +3180,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>101.60000000000001</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3168,7 +3198,7 @@
         <v>144</v>
       </c>
       <c r="E15" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="8">
         <v>4</v>
@@ -3178,14 +3208,14 @@
       </c>
       <c r="H15" s="8">
         <f>D15-E15+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I15" s="8">
         <v>41</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>0.27891156462585032</v>
+        <v>0.28082191780821919</v>
       </c>
       <c r="K15" s="10">
         <v>10.32</v>
@@ -3193,7 +3223,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>117.60000000000001</v>
+        <v>116.80000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3224,11 +3254,11 @@
         <v>119</v>
       </c>
       <c r="I16" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>0.30252100840336132</v>
+        <v>0.31092436974789917</v>
       </c>
       <c r="K16" s="10">
         <v>5.14</v>
@@ -3254,7 +3284,7 @@
         <v>64</v>
       </c>
       <c r="E17" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="8">
         <v>4</v>
@@ -3264,14 +3294,14 @@
       </c>
       <c r="H17" s="8">
         <f>D17-E17+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I17" s="8">
         <v>21</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>0.31818181818181818</v>
+        <v>0.328125</v>
       </c>
       <c r="K17" s="10">
         <v>6.79</v>
@@ -3279,7 +3309,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>52.800000000000004</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3297,7 +3327,7 @@
         <v>222</v>
       </c>
       <c r="E18" s="8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F18" s="8">
         <v>13</v>
@@ -3307,14 +3337,14 @@
       </c>
       <c r="H18" s="8">
         <f>D18-E18+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I18" s="8">
         <v>82</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.36444444444444446</v>
+        <v>0.36936936936936937</v>
       </c>
       <c r="K18" s="10">
         <v>12.08</v>
@@ -3322,7 +3352,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>180</v>
+        <v>177.60000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3340,7 +3370,7 @@
         <v>93</v>
       </c>
       <c r="E19" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="8">
         <v>5</v>
@@ -3350,14 +3380,14 @@
       </c>
       <c r="H19" s="8">
         <f>D19-E19+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I19" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>0.39130434782608697</v>
+        <v>0.40659340659340659</v>
       </c>
       <c r="K19" s="10">
         <v>6.44</v>
@@ -3365,7 +3395,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>73.600000000000009</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3439,11 +3469,11 @@
         <v>96</v>
       </c>
       <c r="I21" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K21" s="10">
         <v>12.23</v>
@@ -3475,18 +3505,18 @@
         <v>6</v>
       </c>
       <c r="G22" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="8">
         <f>D22-E22+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
         <v>157</v>
       </c>
       <c r="I22" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="0"/>
-        <v>0.17197452229299362</v>
+        <v>0.17834394904458598</v>
       </c>
       <c r="K22" s="10">
         <v>9.75</v>
@@ -3513,24 +3543,24 @@
         <v>158</v>
       </c>
       <c r="E23" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" s="8">
         <v>8</v>
       </c>
       <c r="G23" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" s="8">
         <f>D23-E23+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I23" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.33986928104575165</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="K23" s="10">
         <v>7.25</v>
@@ -3538,7 +3568,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>122.4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,7 +3586,7 @@
         <v>229</v>
       </c>
       <c r="E24" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F24" s="8">
         <v>13</v>
@@ -3566,14 +3596,14 @@
       </c>
       <c r="H24" s="8">
         <f>D24-E24+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I24" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="0"/>
-        <v>0.30131004366812225</v>
+        <v>0.31277533039647576</v>
       </c>
       <c r="K24" s="10">
         <v>10.72</v>
@@ -3581,7 +3611,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>183.20000000000002</v>
+        <v>181.60000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3699,11 +3729,11 @@
         <v>126</v>
       </c>
       <c r="I27" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.32539682539682541</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K27" s="10">
         <v>7.47</v>
@@ -3728,7 +3758,7 @@
         <v>178</v>
       </c>
       <c r="E28" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" s="8">
         <v>5</v>
@@ -3738,14 +3768,14 @@
       </c>
       <c r="H28" s="8">
         <f>D28-E28+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I28" s="8">
         <v>63</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>0.36416184971098264</v>
+        <v>0.36627906976744184</v>
       </c>
       <c r="K28" s="10">
         <v>9.16</v>
@@ -3753,7 +3783,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>138.4</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3771,7 +3801,7 @@
         <v>127</v>
       </c>
       <c r="E29" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" s="8">
         <v>3</v>
@@ -3781,14 +3811,14 @@
       </c>
       <c r="H29" s="8">
         <f>D29-E29+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I29" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>0.20161290322580644</v>
+        <v>0.216</v>
       </c>
       <c r="K29" s="10">
         <v>8.5399999999999991</v>
@@ -3796,7 +3826,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>99.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3827,11 +3857,11 @@
         <v>265</v>
       </c>
       <c r="I30" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>0.16981132075471697</v>
+        <v>0.17735849056603772</v>
       </c>
       <c r="K30" s="10">
         <v>8.43</v>
@@ -3857,7 +3887,7 @@
         <v>140</v>
       </c>
       <c r="E31" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -3867,14 +3897,14 @@
       </c>
       <c r="H31" s="8">
         <f>D31-E31+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I31" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="0"/>
-        <v>0.35555555555555557</v>
+        <v>0.36496350364963503</v>
       </c>
       <c r="K31" s="10">
         <v>8.09</v>
@@ -3882,7 +3912,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>108</v>
+        <v>109.60000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3956,11 +3986,11 @@
         <v>261</v>
       </c>
       <c r="I33" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>0.16858237547892721</v>
+        <v>0.18007662835249041</v>
       </c>
       <c r="K33" s="10">
         <v>6.95</v>
@@ -3999,11 +4029,11 @@
         <v>179</v>
       </c>
       <c r="I34" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="0"/>
-        <v>0.27932960893854747</v>
+        <v>0.29050279329608941</v>
       </c>
       <c r="K34" s="10">
         <v>6.89</v>
@@ -4029,7 +4059,7 @@
         <v>122</v>
       </c>
       <c r="E35" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" s="8">
         <v>5</v>
@@ -4039,14 +4069,14 @@
       </c>
       <c r="H35" s="8">
         <f>D35-E35+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I35" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.52586206896551724</v>
+        <v>0.55652173913043479</v>
       </c>
       <c r="K35" s="10">
         <v>8.84</v>
@@ -4054,7 +4084,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>92.800000000000011</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4072,7 +4102,7 @@
         <v>272</v>
       </c>
       <c r="E36" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" s="8">
         <v>5</v>
@@ -4082,14 +4112,14 @@
       </c>
       <c r="H36" s="8">
         <f>D36-E36+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I36" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.21722846441947566</v>
+        <v>0.21933085501858737</v>
       </c>
       <c r="K36" s="10">
         <v>9.4600000000000009</v>
@@ -4097,7 +4127,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>213.60000000000002</v>
+        <v>215.20000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4118,21 +4148,21 @@
         <v>5</v>
       </c>
       <c r="F37" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G37" s="14">
         <v>5</v>
       </c>
       <c r="H37" s="8">
         <f>D37-E37+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I37" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>0.25142857142857145</v>
+        <v>0.26704545454545453</v>
       </c>
       <c r="K37" s="10">
         <v>7.62</v>
@@ -4140,7 +4170,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>140</v>
+        <v>140.80000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4157,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="E38" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F38" s="8">
         <v>2</v>
@@ -4167,14 +4197,14 @@
       </c>
       <c r="H38" s="8">
         <f>D38-E38+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I38" s="8">
         <v>16</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="0"/>
-        <v>0.20253164556962025</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="K38" s="10">
         <v>5.8</v>
@@ -4182,7 +4212,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>63.2</v>
+        <v>62.400000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4200,7 +4230,7 @@
         <v>168</v>
       </c>
       <c r="E39" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F39" s="8">
         <v>2</v>
@@ -4210,14 +4240,14 @@
       </c>
       <c r="H39" s="8">
         <f>D39-E39+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I39" s="8">
         <v>53</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>0.32121212121212123</v>
+        <v>0.33124999999999999</v>
       </c>
       <c r="K39" s="10">
         <v>8.5</v>
@@ -4225,7 +4255,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4243,7 +4273,7 @@
         <v>214</v>
       </c>
       <c r="E40" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" s="8">
         <v>7</v>
@@ -4253,14 +4283,14 @@
       </c>
       <c r="H40" s="8">
         <f>D40-E40+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I40" s="8">
         <v>26</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>0.12322274881516587</v>
+        <v>0.12380952380952381</v>
       </c>
       <c r="K40" s="10">
         <v>9.1199999999999992</v>
@@ -4268,7 +4298,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>168.8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4330,7 +4360,7 @@
         <v>79</v>
       </c>
       <c r="E42" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="8">
         <v>3</v>
@@ -4340,14 +4370,14 @@
       </c>
       <c r="H42" s="8">
         <f>D42-E42+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I42" s="8">
         <v>14</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="0"/>
-        <v>0.17721518987341772</v>
+        <v>0.17948717948717949</v>
       </c>
       <c r="K42" s="10">
         <v>10.5</v>
@@ -4355,7 +4385,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>63.2</v>
+        <v>62.400000000000006</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4372,7 +4402,7 @@
         <v>206</v>
       </c>
       <c r="E43" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F43" s="8">
         <v>1</v>
@@ -4382,14 +4412,14 @@
       </c>
       <c r="H43" s="8">
         <f>D43-E43+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I43" s="8">
         <v>22</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.13496932515337423</v>
       </c>
       <c r="K43" s="10">
         <v>7.71</v>
@@ -4397,7 +4427,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>132</v>
+        <v>130.4</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,7 +4445,7 @@
         <v>213</v>
       </c>
       <c r="E44" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F44" s="8">
         <v>11</v>
@@ -4425,14 +4455,14 @@
       </c>
       <c r="H44" s="8">
         <f>D44-E44+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I44" s="8">
         <v>64</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>0.30476190476190479</v>
+        <v>0.30622009569377989</v>
       </c>
       <c r="K44" s="10">
         <v>4.78</v>
@@ -4440,7 +4470,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>168</v>
+        <v>167.20000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4514,11 +4544,11 @@
         <v>102</v>
       </c>
       <c r="I46" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J46" s="12">
         <f t="shared" si="0"/>
-        <v>0.25490196078431371</v>
+        <v>0.27450980392156865</v>
       </c>
       <c r="K46" s="10">
         <v>7.71</v>
@@ -4543,7 +4573,7 @@
         <v>162</v>
       </c>
       <c r="E47" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="8">
         <v>1</v>
@@ -4553,14 +4583,14 @@
       </c>
       <c r="H47" s="8">
         <f>D47-E47+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I47" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J47" s="12">
         <f t="shared" si="0"/>
-        <v>0.1165644171779141</v>
+        <v>0.12345679012345678</v>
       </c>
       <c r="K47" s="10">
         <v>6.53</v>
@@ -4568,7 +4598,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>130.4</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4671,7 +4701,7 @@
         <v>136</v>
       </c>
       <c r="E50" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" s="8">
         <v>6</v>
@@ -4681,14 +4711,14 @@
       </c>
       <c r="H50" s="8">
         <f>D50-E50+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I50" s="8">
         <v>44</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="0"/>
-        <v>0.30985915492957744</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="K50" s="10">
         <v>6</v>
@@ -4696,7 +4726,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>113.60000000000001</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4715,7 +4745,7 @@
         <v>94</v>
       </c>
       <c r="E51" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" s="8">
         <v>21</v>
@@ -4725,14 +4755,14 @@
       </c>
       <c r="H51" s="8">
         <f>D51-E51+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I51" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="0"/>
-        <v>0.18421052631578946</v>
+        <v>0.20535714285714285</v>
       </c>
       <c r="K51" s="10">
         <v>11.44</v>
@@ -4740,7 +4770,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>91.2</v>
+        <v>89.600000000000009</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4772,11 +4802,11 @@
         <v>81</v>
       </c>
       <c r="I52" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J52" s="12">
         <f t="shared" si="0"/>
-        <v>0.32098765432098764</v>
+        <v>0.34567901234567899</v>
       </c>
       <c r="K52" s="10">
         <v>6</v>
@@ -4801,7 +4831,7 @@
         <v>135</v>
       </c>
       <c r="E53" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F53" s="8">
         <v>2</v>
@@ -4811,14 +4841,14 @@
       </c>
       <c r="H53" s="8">
         <f>D53-E53+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I53" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="0"/>
-        <v>0.21212121212121213</v>
+        <v>0.22900763358778625</v>
       </c>
       <c r="K53" s="10">
         <v>7.73</v>
@@ -4826,7 +4856,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>105.60000000000001</v>
+        <v>104.80000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4898,11 +4928,11 @@
         <v>105</v>
       </c>
       <c r="I55" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J55" s="12">
         <f t="shared" si="0"/>
-        <v>0.12380952380952381</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -4939,11 +4969,11 @@
         <v>122</v>
       </c>
       <c r="I56" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="0"/>
-        <v>0.49180327868852458</v>
+        <v>0.5</v>
       </c>
       <c r="K56" s="10">
         <v>5.68</v>
@@ -5016,18 +5046,18 @@
         <v>8</v>
       </c>
       <c r="G58" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58" s="8">
         <f>D58-E58+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
         <v>81</v>
       </c>
       <c r="I58" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J58" s="12">
         <f t="shared" si="0"/>
-        <v>0.20987654320987653</v>
+        <v>0.23456790123456789</v>
       </c>
       <c r="K58" s="10">
         <v>11.07</v>
@@ -5058,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="G59" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H59" s="8">
         <f>D59-E59+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
@@ -5094,17 +5124,17 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
-      <formula>0.4427</formula>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>0.4504</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
-      <formula>0.23</formula>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>0.3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
-      <formula>0.2299</formula>
-      <formula>0.4426</formula>
+      <formula>0.2999</formula>
+      <formula>0.4503</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L59">
@@ -5198,7 +5228,7 @@
       </c>
       <c r="D3" s="23">
         <f>E2*D7</f>
-        <v>0.4427480916030534</v>
+        <v>0.45038167938931295</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5235,7 +5265,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5247,7 +5277,7 @@
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5267,11 +5297,11 @@
       </c>
       <c r="D9" s="23">
         <f>D7*E2</f>
-        <v>0.4427480916030534</v>
+        <v>0.45038167938931295</v>
       </c>
       <c r="E9" s="31">
         <f>D9</f>
-        <v>0.4427480916030534</v>
+        <v>0.45038167938931295</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5325,19 +5355,19 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>3129.7862595419842</v>
+        <v>3171.1374045801526</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>1227.7862595419842</v>
+        <v>1224.1374045801526</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
-        <v>45860</v>
+        <v>45861</v>
       </c>
     </row>
   </sheetData>

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F981CA72-4057-4BE0-8BE9-1442FF2C8DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F763A-2D0F-4280-810F-44253CD91811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="cobertura" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -380,16 +380,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -405,61 +395,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -990,7 +930,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>24/07/2025</a:t>
+            <a:t>27/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1464,7 +1404,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>45,04%</a:t>
+            <a:t>45,80%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2377,10 +2317,10 @@
       <sheetData sheetId="6">
         <row r="23">
           <cell r="D23">
-            <v>7041</v>
+            <v>7026</v>
           </cell>
           <cell r="E23">
-            <v>1947</v>
+            <v>1982</v>
           </cell>
         </row>
       </sheetData>
@@ -2425,26 +2365,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A8:M59" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="12">
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="16" totalsRowDxfId="12">
+    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="10" totalsRowDxfId="6">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="15" totalsRowDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="14" totalsRowDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="13" totalsRowDxfId="9">
+    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="9" totalsRowDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="8" totalsRowDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="7" totalsRowDxfId="3">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo de Carteira]]*80%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2752,8 +2692,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2787,7 +2727,7 @@
       <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45862</v>
+        <v>45865</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2805,20 +2745,20 @@
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>4.9703161673339775E-2</v>
+        <v>5.2326384094988264E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>4.1005108380505313E-2</v>
+        <v>4.1695430070412813E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.4851580836669888E-2</v>
+        <v>2.4713516498688387E-2</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.17921176295477254</v>
+        <v>-0.18143139890875698</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2836,27 +2776,27 @@
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7180</v>
+        <v>7166</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1947</v>
+        <v>1982</v>
       </c>
       <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.27116991643454041</v>
+        <v>0.27658386826681552</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
@@ -2865,7 +2805,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="2">
         <f>SUBTOTAL(9,Tabela1[Meta Cob. Coleção])</f>
-        <v>5744.0000000000009</v>
+        <v>5732.8000000000011</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2982,7 +2922,7 @@
         <v>175</v>
       </c>
       <c r="E10" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
@@ -2992,14 +2932,14 @@
       </c>
       <c r="H10" s="8">
         <f>D10-E10+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I10" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.36969696969696969</v>
+        <v>0.36585365853658536</v>
       </c>
       <c r="K10" s="10">
         <v>12.25</v>
@@ -3007,7 +2947,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>132</v>
+        <v>131.20000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3068,7 +3008,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" s="8">
         <v>16</v>
@@ -3078,14 +3018,14 @@
       </c>
       <c r="H12" s="8">
         <f>D12-E12+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I12" s="8">
         <v>97</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0.50785340314136129</v>
+        <v>0.51322751322751325</v>
       </c>
       <c r="K12" s="10">
         <v>8.4</v>
@@ -3093,7 +3033,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>152.80000000000001</v>
+        <v>151.20000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3155,7 +3095,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -3165,14 +3105,14 @@
       </c>
       <c r="H14" s="8">
         <f>D14-E14+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>0.36585365853658536</v>
+        <v>0.37704918032786883</v>
       </c>
       <c r="K14" s="10">
         <v>11.47</v>
@@ -3180,7 +3120,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>98.4</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3211,11 +3151,11 @@
         <v>146</v>
       </c>
       <c r="I15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>0.28082191780821919</v>
+        <v>0.29452054794520549</v>
       </c>
       <c r="K15" s="10">
         <v>10.32</v>
@@ -3370,7 +3310,7 @@
         <v>93</v>
       </c>
       <c r="E19" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="8">
         <v>5</v>
@@ -3380,14 +3320,14 @@
       </c>
       <c r="H19" s="8">
         <f>D19-E19+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="8">
         <v>37</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>0.40659340659340659</v>
+        <v>0.40217391304347827</v>
       </c>
       <c r="K19" s="10">
         <v>6.44</v>
@@ -3395,7 +3335,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>72.8</v>
+        <v>73.600000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3413,7 +3353,7 @@
         <v>86</v>
       </c>
       <c r="E20" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="8">
         <v>4</v>
@@ -3423,14 +3363,14 @@
       </c>
       <c r="H20" s="8">
         <f>D20-E20+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20" s="8">
         <v>19</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
-        <v>0.21839080459770116</v>
+        <v>0.21590909090909091</v>
       </c>
       <c r="K20" s="10">
         <v>10.28</v>
@@ -3438,7 +3378,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>69.600000000000009</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3469,11 +3409,11 @@
         <v>96</v>
       </c>
       <c r="I21" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.34375</v>
       </c>
       <c r="K21" s="10">
         <v>12.23</v>
@@ -3543,7 +3483,7 @@
         <v>158</v>
       </c>
       <c r="E23" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F23" s="8">
         <v>8</v>
@@ -3553,14 +3493,14 @@
       </c>
       <c r="H23" s="8">
         <f>D23-E23+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I23" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.35483870967741937</v>
+        <v>0.375</v>
       </c>
       <c r="K23" s="10">
         <v>7.25</v>
@@ -3568,7 +3508,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>124</v>
+        <v>121.60000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3673,7 +3613,7 @@
         <v>91</v>
       </c>
       <c r="E26" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="8">
         <v>1</v>
@@ -3683,14 +3623,14 @@
       </c>
       <c r="H26" s="8">
         <f>D26-E26+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I26" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J26" s="12">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.2696629213483146</v>
       </c>
       <c r="K26" s="10">
         <v>7.77</v>
@@ -3698,7 +3638,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>70.400000000000006</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3716,24 +3656,24 @@
         <v>119</v>
       </c>
       <c r="E27" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="14">
         <v>1</v>
       </c>
       <c r="H27" s="8">
         <f>D27-E27+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I27" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.33858267716535434</v>
       </c>
       <c r="K27" s="10">
         <v>7.47</v>
@@ -3741,7 +3681,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>100.80000000000001</v>
+        <v>101.60000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3758,7 +3698,7 @@
         <v>178</v>
       </c>
       <c r="E28" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F28" s="8">
         <v>5</v>
@@ -3768,14 +3708,14 @@
       </c>
       <c r="H28" s="8">
         <f>D28-E28+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I28" s="8">
         <v>63</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>0.36627906976744184</v>
+        <v>0.375</v>
       </c>
       <c r="K28" s="10">
         <v>9.16</v>
@@ -3783,7 +3723,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>137.6</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3801,7 +3741,7 @@
         <v>127</v>
       </c>
       <c r="E29" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F29" s="8">
         <v>3</v>
@@ -3811,14 +3751,14 @@
       </c>
       <c r="H29" s="8">
         <f>D29-E29+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I29" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>0.216</v>
+        <v>0.23577235772357724</v>
       </c>
       <c r="K29" s="10">
         <v>8.5399999999999991</v>
@@ -3826,7 +3766,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>100</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3844,7 +3784,7 @@
         <v>257</v>
       </c>
       <c r="E30" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="8">
         <v>13</v>
@@ -3854,14 +3794,14 @@
       </c>
       <c r="H30" s="8">
         <f>D30-E30+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I30" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>0.17735849056603772</v>
+        <v>0.18939393939393939</v>
       </c>
       <c r="K30" s="10">
         <v>8.43</v>
@@ -3869,7 +3809,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>212</v>
+        <v>211.20000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3973,24 +3913,24 @@
         <v>260</v>
       </c>
       <c r="E33" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F33" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" s="14">
         <v>5</v>
       </c>
       <c r="H33" s="8">
         <f>D33-E33+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I33" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>0.18007662835249041</v>
+        <v>0.18532818532818532</v>
       </c>
       <c r="K33" s="10">
         <v>6.95</v>
@@ -3998,7 +3938,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>208.8</v>
+        <v>207.20000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4029,11 +3969,11 @@
         <v>179</v>
       </c>
       <c r="I34" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="0"/>
-        <v>0.29050279329608941</v>
+        <v>0.29608938547486036</v>
       </c>
       <c r="K34" s="10">
         <v>6.89</v>
@@ -4059,10 +3999,10 @@
         <v>122</v>
       </c>
       <c r="E35" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G35" s="14">
         <v>2</v>
@@ -4072,11 +4012,11 @@
         <v>115</v>
       </c>
       <c r="I35" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.55652173913043479</v>
+        <v>0.57391304347826089</v>
       </c>
       <c r="K35" s="10">
         <v>8.84</v>
@@ -4102,7 +4042,7 @@
         <v>272</v>
       </c>
       <c r="E36" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="8">
         <v>5</v>
@@ -4112,14 +4052,14 @@
       </c>
       <c r="H36" s="8">
         <f>D36-E36+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I36" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.21933085501858737</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K36" s="10">
         <v>9.4600000000000009</v>
@@ -4127,7 +4067,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>215.20000000000002</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4158,11 +4098,11 @@
         <v>176</v>
       </c>
       <c r="I37" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>0.26704545454545453</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="K37" s="10">
         <v>7.62</v>
@@ -4243,11 +4183,11 @@
         <v>160</v>
       </c>
       <c r="I39" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>0.33124999999999999</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="K39" s="10">
         <v>8.5</v>
@@ -4273,24 +4213,24 @@
         <v>214</v>
       </c>
       <c r="E40" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F40" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" s="14">
         <v>4</v>
       </c>
       <c r="H40" s="8">
         <f>D40-E40+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I40" s="8">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>0.12380952380952381</v>
+        <v>0.14832535885167464</v>
       </c>
       <c r="K40" s="10">
         <v>9.1199999999999992</v>
@@ -4298,7 +4238,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>168</v>
+        <v>167.20000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4316,7 +4256,7 @@
         <v>130</v>
       </c>
       <c r="E41" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F41" s="8">
         <v>3</v>
@@ -4326,14 +4266,14 @@
       </c>
       <c r="H41" s="8">
         <f>D41-E41+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="8">
         <v>42</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>0.33070866141732286</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K41" s="10">
         <v>9.92</v>
@@ -4341,7 +4281,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>101.60000000000001</v>
+        <v>100.80000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4373,11 +4313,11 @@
         <v>78</v>
       </c>
       <c r="I42" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="0"/>
-        <v>0.17948717948717949</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="K42" s="10">
         <v>10.5</v>
@@ -4402,7 +4342,7 @@
         <v>206</v>
       </c>
       <c r="E43" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F43" s="8">
         <v>1</v>
@@ -4412,14 +4352,14 @@
       </c>
       <c r="H43" s="8">
         <f>D43-E43+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I43" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0.13496932515337423</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="K43" s="10">
         <v>7.71</v>
@@ -4427,7 +4367,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>130.4</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4501,11 +4441,11 @@
         <v>143</v>
       </c>
       <c r="I45" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J45" s="12">
         <f t="shared" si="0"/>
-        <v>0.14685314685314685</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="K45" s="10">
         <v>8.39</v>
@@ -4531,7 +4471,7 @@
         <v>103</v>
       </c>
       <c r="E46" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
@@ -4541,14 +4481,14 @@
       </c>
       <c r="H46" s="8">
         <f>D46-E46+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I46" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J46" s="12">
         <f t="shared" si="0"/>
-        <v>0.27450980392156865</v>
+        <v>0.28712871287128711</v>
       </c>
       <c r="K46" s="10">
         <v>7.71</v>
@@ -4556,7 +4496,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>81.600000000000009</v>
+        <v>80.800000000000011</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4586,11 +4526,11 @@
         <v>162</v>
       </c>
       <c r="I47" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J47" s="12">
         <f t="shared" si="0"/>
-        <v>0.12345679012345678</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="K47" s="10">
         <v>6.53</v>
@@ -4658,7 +4598,7 @@
         <v>117</v>
       </c>
       <c r="E49" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="8">
         <v>6</v>
@@ -4668,14 +4608,14 @@
       </c>
       <c r="H49" s="8">
         <f>D49-E49+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I49" s="8">
         <v>43</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="0"/>
-        <v>0.35245901639344263</v>
+        <v>0.35537190082644626</v>
       </c>
       <c r="K49" s="10">
         <v>9.24</v>
@@ -4683,7 +4623,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>97.600000000000009</v>
+        <v>96.800000000000011</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4701,7 +4641,7 @@
         <v>136</v>
       </c>
       <c r="E50" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="8">
         <v>6</v>
@@ -4711,14 +4651,14 @@
       </c>
       <c r="H50" s="8">
         <f>D50-E50+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I50" s="8">
         <v>44</v>
       </c>
       <c r="J50" s="12">
         <f t="shared" si="0"/>
-        <v>0.31428571428571428</v>
+        <v>0.31205673758865249</v>
       </c>
       <c r="K50" s="10">
         <v>6</v>
@@ -4726,7 +4666,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112</v>
+        <v>112.80000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4745,7 +4685,7 @@
         <v>94</v>
       </c>
       <c r="E51" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" s="8">
         <v>21</v>
@@ -4755,14 +4695,14 @@
       </c>
       <c r="H51" s="8">
         <f>D51-E51+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I51" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="0"/>
-        <v>0.20535714285714285</v>
+        <v>0.22522522522522523</v>
       </c>
       <c r="K51" s="10">
         <v>11.44</v>
@@ -4770,7 +4710,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>89.600000000000009</v>
+        <v>88.800000000000011</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4831,7 +4771,7 @@
         <v>135</v>
       </c>
       <c r="E53" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F53" s="8">
         <v>2</v>
@@ -4841,14 +4781,14 @@
       </c>
       <c r="H53" s="8">
         <f>D53-E53+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I53" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="0"/>
-        <v>0.22900763358778625</v>
+        <v>0.24615384615384617</v>
       </c>
       <c r="K53" s="10">
         <v>7.73</v>
@@ -4856,7 +4796,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>104.80000000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4873,7 +4813,7 @@
         <v>139</v>
       </c>
       <c r="E54" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="8">
         <v>1</v>
@@ -4883,14 +4823,14 @@
       </c>
       <c r="H54" s="8">
         <f>D54-E54+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I54" s="8">
         <v>13</v>
       </c>
       <c r="J54" s="12">
         <f>I54/H54</f>
-        <v>9.3525179856115109E-2</v>
+        <v>9.285714285714286E-2</v>
       </c>
       <c r="K54" s="10">
         <v>6.23</v>
@@ -4898,7 +4838,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>111.2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -4956,7 +4896,7 @@
         <v>122</v>
       </c>
       <c r="E56" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F56" s="8">
         <v>4</v>
@@ -4966,14 +4906,14 @@
       </c>
       <c r="H56" s="8">
         <f>D56-E56+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I56" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.51239669421487599</v>
       </c>
       <c r="K56" s="10">
         <v>5.68</v>
@@ -4981,7 +4921,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>97.600000000000009</v>
+        <v>96.800000000000011</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5088,7 +5028,7 @@
         <v>4</v>
       </c>
       <c r="G59" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H59" s="8">
         <f>D59-E59+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
@@ -5124,17 +5064,17 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
-      <formula>0.4504</formula>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0.458</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
       <formula>0.2999</formula>
-      <formula>0.4503</formula>
+      <formula>0.4579</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L59">
@@ -5228,7 +5168,7 @@
       </c>
       <c r="D3" s="23">
         <f>E2*D7</f>
-        <v>0.45038167938931295</v>
+        <v>0.4580152671755725</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5265,7 +5205,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5277,7 +5217,7 @@
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5297,11 +5237,11 @@
       </c>
       <c r="D9" s="23">
         <f>D7*E2</f>
-        <v>0.45038167938931295</v>
+        <v>0.4580152671755725</v>
       </c>
       <c r="E9" s="31">
         <f>D9</f>
-        <v>0.45038167938931295</v>
+        <v>0.4580152671755725</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5355,19 +5295,19 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>3171.1374045801526</v>
+        <v>3218.0152671755723</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>1224.1374045801526</v>
+        <v>1236.0152671755723</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
-        <v>45861</v>
+        <v>45864</v>
       </c>
     </row>
   </sheetData>

--- a/Cobertura_de_Carteira.xlsx
+++ b/Cobertura_de_Carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F763A-2D0F-4280-810F-44253CD91811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE3940-EE4C-42C0-80B4-B6864BAFA2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="cobertura" sheetId="1" r:id="rId1"/>
@@ -372,37 +372,7 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <b val="0"/>
@@ -810,6 +780,66 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4" tint="-0.499984740745262"/>
@@ -930,7 +960,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>27/07/2025</a:t>
+            <a:t>28/07/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1404,7 +1434,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>45,80%</a:t>
+            <a:t>46,56%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -2320,7 +2350,7 @@
             <v>7026</v>
           </cell>
           <cell r="E23">
-            <v>1982</v>
+            <v>1996</v>
           </cell>
         </row>
       </sheetData>
@@ -2365,26 +2395,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M60" totalsRowCount="1" headerRowDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A8:M59" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="9">
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="10" totalsRowDxfId="6">
+    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="7" totalsRowDxfId="3">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="9" totalsRowDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="8" totalsRowDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="7" totalsRowDxfId="3">
+    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="4" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo de Carteira]]*80%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2692,8 +2722,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,7 +2757,7 @@
       <c r="M2" s="24"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45865</v>
+        <v>45866</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2745,20 +2775,20 @@
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="16">
         <f>E6/D6</f>
-        <v>5.2326384094988264E-2</v>
+        <v>5.2740577108932762E-2</v>
       </c>
       <c r="F5" s="16">
         <f>F6/D6</f>
-        <v>4.1695430070412813E-2</v>
+        <v>4.1971558746375814E-2</v>
       </c>
       <c r="G5" s="16">
         <f>G6/D6</f>
-        <v>2.4713516498688387E-2</v>
+        <v>2.4851580836669888E-2</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="26">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>-0.18143139890875698</v>
+        <v>-0.18707244184250199</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2776,27 +2806,27 @@
       </c>
       <c r="E6" s="2">
         <f>SUBTOTAL(9,Tabela1[Bloqueados])</f>
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F6" s="2">
         <f>SUBTOTAL(9,Tabela1[Abertos 2025 2º SEM])</f>
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G6" s="2">
         <f>SUBTOTAL(9,Tabela1[Sem Limite])</f>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H6" s="2">
         <f>SUBTOTAL(9,Tabela1[Saldo de Carteira])</f>
-        <v>7166</v>
+        <v>7165</v>
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>1982</v>
+        <v>1996</v>
       </c>
       <c r="J6" s="26">
         <f>I6/H6</f>
-        <v>0.27658386826681552</v>
+        <v>0.27857641311933007</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
@@ -2805,7 +2835,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="2">
         <f>SUBTOTAL(9,Tabela1[Meta Cob. Coleção])</f>
-        <v>5732.8000000000011</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2879,24 +2909,24 @@
         <v>142</v>
       </c>
       <c r="E9" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
       </c>
       <c r="G9" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="8">
         <f>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I9" s="8">
         <v>29</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ref="J9:J59" si="0">I9/H9</f>
-        <v>0.20714285714285716</v>
+        <v>0.20863309352517986</v>
       </c>
       <c r="K9" s="10">
         <v>12.48</v>
@@ -2904,7 +2934,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2922,7 +2952,7 @@
         <v>175</v>
       </c>
       <c r="E10" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" s="8">
         <v>7</v>
@@ -2932,14 +2962,14 @@
       </c>
       <c r="H10" s="8">
         <f>D10-E10+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I10" s="8">
         <v>60</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>0.36585365853658536</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="K10" s="10">
         <v>12.25</v>
@@ -2947,7 +2977,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>131.20000000000002</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2965,7 +2995,7 @@
         <v>111</v>
       </c>
       <c r="E11" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" s="8">
         <v>3</v>
@@ -2975,14 +3005,14 @@
       </c>
       <c r="H11" s="8">
         <f>D11-E11+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I11" s="8">
         <v>43</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>0.40952380952380951</v>
+        <v>0.40186915887850466</v>
       </c>
       <c r="K11" s="10">
         <v>11.54</v>
@@ -2990,7 +3020,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>84</v>
+        <v>85.600000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3008,7 +3038,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" s="8">
         <v>16</v>
@@ -3018,14 +3048,14 @@
       </c>
       <c r="H12" s="8">
         <f>D12-E12+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I12" s="8">
         <v>97</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0.51322751322751325</v>
+        <v>0.50785340314136129</v>
       </c>
       <c r="K12" s="10">
         <v>8.4</v>
@@ -3033,7 +3063,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>151.20000000000002</v>
+        <v>152.80000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3051,7 +3081,7 @@
         <v>145</v>
       </c>
       <c r="E13" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="8">
         <v>5</v>
@@ -3061,14 +3091,14 @@
       </c>
       <c r="H13" s="8">
         <f>D13-E13+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I13" s="8">
         <v>30</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>0.20979020979020979</v>
+        <v>0.21126760563380281</v>
       </c>
       <c r="K13" s="10">
         <v>9.75</v>
@@ -3076,7 +3106,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>114.4</v>
+        <v>113.60000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3095,7 +3125,7 @@
         <v>126</v>
       </c>
       <c r="E14" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -3105,14 +3135,14 @@
       </c>
       <c r="H14" s="8">
         <f>D14-E14+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I14" s="8">
         <v>46</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>0.37704918032786883</v>
+        <v>0.36507936507936506</v>
       </c>
       <c r="K14" s="10">
         <v>11.47</v>
@@ -3120,7 +3150,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>97.600000000000009</v>
+        <v>100.80000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3138,7 +3168,7 @@
         <v>144</v>
       </c>
       <c r="E15" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="8">
         <v>4</v>
@@ -3148,14 +3178,14 @@
       </c>
       <c r="H15" s="8">
         <f>D15-E15+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I15" s="8">
         <v>43</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>0.29452054794520549</v>
+        <v>0.29655172413793102</v>
       </c>
       <c r="K15" s="10">
         <v>10.32</v>
@@ -3163,7 +3193,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>116.80000000000001</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3254,7 @@
         <v>64</v>
       </c>
       <c r="E17" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="8">
         <v>4</v>
@@ -3234,14 +3264,14 @@
       </c>
       <c r="H17" s="8">
         <f>D17-E17+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I17" s="8">
         <v>21</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>0.328125</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="K17" s="10">
         <v>6.79</v>
@@ -3249,7 +3279,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>51.2</v>
+        <v>52.800000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3267,7 +3297,7 @@
         <v>222</v>
       </c>
       <c r="E18" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="8">
         <v>13</v>
@@ -3277,14 +3307,14 @@
       </c>
       <c r="H18" s="8">
         <f>D18-E18+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I18" s="8">
         <v>82</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.36936936936936937</v>
+        <v>0.36607142857142855</v>
       </c>
       <c r="K18" s="10">
         <v>12.08</v>
@@ -3292,7 +3322,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>177.60000000000002</v>
+        <v>179.20000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3353,7 +3383,7 @@
         <v>86</v>
       </c>
       <c r="E20" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="8">
         <v>4</v>
@@ -3363,14 +3393,14 @@
       </c>
       <c r="H20" s="8">
         <f>D20-E20+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I20" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
-        <v>0.21590909090909091</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="K20" s="10">
         <v>10.28</v>
@@ -3378,7 +3408,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>70.400000000000006</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3439,24 +3469,24 @@
         <v>159</v>
       </c>
       <c r="E22" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="8">
         <v>6</v>
       </c>
       <c r="G22" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="8">
         <f>D22-E22+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I22" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="0"/>
-        <v>0.17834394904458598</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="K22" s="10">
         <v>9.75</v>
@@ -3464,7 +3494,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>125.60000000000001</v>
+        <v>127.2</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3489,7 +3519,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H23" s="8">
         <f>D23-E23+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
@@ -3569,7 +3599,7 @@
         <v>106</v>
       </c>
       <c r="E25" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -3579,14 +3609,14 @@
       </c>
       <c r="H25" s="8">
         <f>D25-E25+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I25" s="8">
         <v>34</v>
       </c>
       <c r="J25" s="12">
         <f t="shared" si="0"/>
-        <v>0.34343434343434343</v>
+        <v>0.34693877551020408</v>
       </c>
       <c r="K25" s="10">
         <v>8.2100000000000009</v>
@@ -3594,7 +3624,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>79.2</v>
+        <v>78.400000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3669,11 +3699,11 @@
         <v>127</v>
       </c>
       <c r="I27" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.33858267716535434</v>
+        <v>0.34645669291338582</v>
       </c>
       <c r="K27" s="10">
         <v>7.47</v>
@@ -3711,11 +3741,11 @@
         <v>168</v>
       </c>
       <c r="I28" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.38690476190476192</v>
       </c>
       <c r="K28" s="10">
         <v>9.16</v>
@@ -3741,7 +3771,7 @@
         <v>127</v>
       </c>
       <c r="E29" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" s="8">
         <v>3</v>
@@ -3751,14 +3781,14 @@
       </c>
       <c r="H29" s="8">
         <f>D29-E29+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I29" s="8">
         <v>29</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>0.23577235772357724</v>
+        <v>0.23770491803278687</v>
       </c>
       <c r="K29" s="10">
         <v>8.5399999999999991</v>
@@ -3766,7 +3796,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>98.4</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3784,7 +3814,7 @@
         <v>257</v>
       </c>
       <c r="E30" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" s="8">
         <v>13</v>
@@ -3794,14 +3824,14 @@
       </c>
       <c r="H30" s="8">
         <f>D30-E30+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I30" s="8">
         <v>50</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>0.18939393939393939</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="K30" s="10">
         <v>8.43</v>
@@ -3809,7 +3839,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>211.20000000000002</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3883,11 +3913,11 @@
         <v>113</v>
       </c>
       <c r="I32" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" si="0"/>
-        <v>0.18584070796460178</v>
+        <v>0.20353982300884957</v>
       </c>
       <c r="K32" s="10">
         <v>16.350000000000001</v>
@@ -3913,7 +3943,7 @@
         <v>260</v>
       </c>
       <c r="E33" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" s="8">
         <v>5</v>
@@ -3923,14 +3953,14 @@
       </c>
       <c r="H33" s="8">
         <f>D33-E33+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I33" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>0.18532818532818532</v>
+        <v>0.18846153846153846</v>
       </c>
       <c r="K33" s="10">
         <v>6.95</v>
@@ -3938,7 +3968,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>207.20000000000002</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3956,7 +3986,7 @@
         <v>177</v>
       </c>
       <c r="E34" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="8">
         <v>6</v>
@@ -3966,14 +3996,14 @@
       </c>
       <c r="H34" s="8">
         <f>D34-E34+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I34" s="8">
         <v>53</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="0"/>
-        <v>0.29608938547486036</v>
+        <v>0.29775280898876405</v>
       </c>
       <c r="K34" s="10">
         <v>6.89</v>
@@ -3981,7 +4011,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>143.20000000000002</v>
+        <v>142.4</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4042,7 +4072,7 @@
         <v>272</v>
       </c>
       <c r="E36" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36" s="8">
         <v>5</v>
@@ -4052,14 +4082,14 @@
       </c>
       <c r="H36" s="8">
         <f>D36-E36+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I36" s="8">
         <v>60</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.22388059701492538</v>
       </c>
       <c r="K36" s="10">
         <v>9.4600000000000009</v>
@@ -4067,7 +4097,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>216</v>
+        <v>214.4</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4085,7 +4115,7 @@
         <v>173</v>
       </c>
       <c r="E37" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" s="8">
         <v>8</v>
@@ -4095,14 +4125,14 @@
       </c>
       <c r="H37" s="8">
         <f>D37-E37+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I37" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.2768361581920904</v>
       </c>
       <c r="K37" s="10">
         <v>7.62</v>
@@ -4110,7 +4140,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>140.80000000000001</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4140,11 +4170,11 @@
         <v>78</v>
       </c>
       <c r="I38" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="0"/>
-        <v>0.20512820512820512</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="K38" s="10">
         <v>5.8</v>
@@ -4170,7 +4200,7 @@
         <v>168</v>
       </c>
       <c r="E39" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F39" s="8">
         <v>2</v>
@@ -4180,14 +4210,14 @@
       </c>
       <c r="H39" s="8">
         <f>D39-E39+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I39" s="8">
         <v>54</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>0.33750000000000002</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K39" s="10">
         <v>8.5</v>
@@ -4195,7 +4225,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>128</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4216,21 +4246,21 @@
         <v>13</v>
       </c>
       <c r="F40" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40" s="14">
         <v>4</v>
       </c>
       <c r="H40" s="8">
         <f>D40-E40+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I40" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>0.14832535885167464</v>
+        <v>0.15714285714285714</v>
       </c>
       <c r="K40" s="10">
         <v>9.1199999999999992</v>
@@ -4238,7 +4268,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>167.20000000000002</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,7 +4286,7 @@
         <v>130</v>
       </c>
       <c r="E41" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41" s="8">
         <v>3</v>
@@ -4266,14 +4296,14 @@
       </c>
       <c r="H41" s="8">
         <f>D41-E41+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="K41" s="10">
         <v>9.92</v>
@@ -4281,7 +4311,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>100.80000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4342,7 +4372,7 @@
         <v>206</v>
       </c>
       <c r="E43" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F43" s="8">
         <v>1</v>
@@ -4352,14 +4382,14 @@
       </c>
       <c r="H43" s="8">
         <f>D43-E43+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I43" s="8">
         <v>23</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0.1393939393939394</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="K43" s="10">
         <v>7.71</v>
@@ -4367,7 +4397,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>132</v>
+        <v>131.20000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4388,21 +4418,21 @@
         <v>15</v>
       </c>
       <c r="F44" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" s="14">
         <v>1</v>
       </c>
       <c r="H44" s="8">
         <f>D44-E44+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I44" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>0.30622009569377989</v>
+        <v>0.30952380952380953</v>
       </c>
       <c r="K44" s="10">
         <v>4.78</v>
@@ -4410,7 +4440,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>167.20000000000002</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4428,7 +4458,7 @@
         <v>135</v>
       </c>
       <c r="E45" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="8">
         <v>8</v>
@@ -4438,14 +4468,14 @@
       </c>
       <c r="H45" s="8">
         <f>D45-E45+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I45" s="8">
         <v>22</v>
       </c>
       <c r="J45" s="12">
         <f t="shared" si="0"/>
-        <v>0.15384615384615385</v>
+        <v>0.15492957746478872</v>
       </c>
       <c r="K45" s="10">
         <v>8.39</v>
@@ -4453,7 +4483,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>114.4</v>
+        <v>113.60000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4513,7 +4543,7 @@
         <v>162</v>
       </c>
       <c r="E47" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="8">
         <v>1</v>
@@ -4523,14 +4553,14 @@
       </c>
       <c r="H47" s="8">
         <f>D47-E47+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I47" s="8">
         <v>21</v>
       </c>
       <c r="J47" s="12">
         <f t="shared" si="0"/>
-        <v>0.12962962962962962</v>
+        <v>0.12883435582822086</v>
       </c>
       <c r="K47" s="10">
         <v>6.53</v>
@@ -4538,7 +4568,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>129.6</v>
+        <v>130.4</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4555,7 +4585,7 @@
         <v>147</v>
       </c>
       <c r="E48" s="8">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F48" s="8">
         <v>3</v>
@@ -4565,14 +4595,14 @@
       </c>
       <c r="H48" s="8">
         <f>D48-E48+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I48" s="8">
         <v>21</v>
       </c>
       <c r="J48" s="12">
         <f t="shared" si="0"/>
-        <v>0.17647058823529413</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="K48" s="10">
         <v>6.19</v>
@@ -4580,7 +4610,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>95.2</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4598,7 +4628,7 @@
         <v>117</v>
       </c>
       <c r="E49" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="8">
         <v>6</v>
@@ -4608,14 +4638,14 @@
       </c>
       <c r="H49" s="8">
         <f>D49-E49+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I49" s="8">
         <v>43</v>
       </c>
       <c r="J49" s="12">
         <f t="shared" si="0"/>
-        <v>0.35537190082644626</v>
+        <v>0.35245901639344263</v>
       </c>
       <c r="K49" s="10">
         <v>9.24</v>
@@ -4623,7 +4653,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>96.800000000000011</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4685,7 +4715,7 @@
         <v>94</v>
       </c>
       <c r="E51" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" s="8">
         <v>21</v>
@@ -4695,14 +4725,14 @@
       </c>
       <c r="H51" s="8">
         <f>D51-E51+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I51" s="8">
         <v>25</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="0"/>
-        <v>0.22522522522522523</v>
+        <v>0.22123893805309736</v>
       </c>
       <c r="K51" s="10">
         <v>11.44</v>
@@ -4710,7 +4740,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>88.800000000000011</v>
+        <v>90.4</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4729,7 +4759,7 @@
         <v>78</v>
       </c>
       <c r="E52" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" s="8">
         <v>3</v>
@@ -4739,14 +4769,14 @@
       </c>
       <c r="H52" s="8">
         <f>D52-E52+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I52" s="8">
         <v>28</v>
       </c>
       <c r="J52" s="12">
         <f t="shared" si="0"/>
-        <v>0.34567901234567899</v>
+        <v>0.35443037974683544</v>
       </c>
       <c r="K52" s="10">
         <v>6</v>
@@ -4754,7 +4784,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>64.8</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4771,7 +4801,7 @@
         <v>135</v>
       </c>
       <c r="E53" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F53" s="8">
         <v>2</v>
@@ -4781,14 +4811,14 @@
       </c>
       <c r="H53" s="8">
         <f>D53-E53+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I53" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="0"/>
-        <v>0.24615384615384617</v>
+        <v>0.2578125</v>
       </c>
       <c r="K53" s="10">
         <v>7.73</v>
@@ -4796,7 +4826,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>104</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4813,7 +4843,7 @@
         <v>139</v>
       </c>
       <c r="E54" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="8">
         <v>1</v>
@@ -4823,14 +4853,14 @@
       </c>
       <c r="H54" s="8">
         <f>D54-E54+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I54" s="8">
         <v>13</v>
       </c>
       <c r="J54" s="12">
         <f>I54/H54</f>
-        <v>9.285714285714286E-2</v>
+        <v>9.3525179856115109E-2</v>
       </c>
       <c r="K54" s="10">
         <v>6.23</v>
@@ -4838,7 +4868,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>112</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -4909,11 +4939,11 @@
         <v>121</v>
       </c>
       <c r="I56" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" si="0"/>
-        <v>0.51239669421487599</v>
+        <v>0.52066115702479343</v>
       </c>
       <c r="K56" s="10">
         <v>5.68</v>
@@ -4938,7 +4968,7 @@
         <v>84</v>
       </c>
       <c r="E57" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F57" s="8">
         <v>20</v>
@@ -4948,14 +4978,14 @@
       </c>
       <c r="H57" s="8">
         <f>D57-E57+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I57" s="8">
         <v>20</v>
       </c>
       <c r="J57" s="12">
         <f t="shared" si="0"/>
-        <v>0.20202020202020202</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="K57" s="10">
         <v>8.25</v>
@@ -4963,7 +4993,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="27">
         <f>Tabela1[[#This Row],[Saldo de Carteira]]*80%</f>
-        <v>79.2</v>
+        <v>78.400000000000006</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5064,17 +5094,17 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>0.458</formula>
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
+      <formula>0.4656</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J60">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="between">
       <formula>0.2999</formula>
-      <formula>0.4579</formula>
+      <formula>0.4655</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L59">
@@ -5168,7 +5198,7 @@
       </c>
       <c r="D3" s="23">
         <f>E2*D7</f>
-        <v>0.4580152671755725</v>
+        <v>0.46564885496183206</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5205,7 +5235,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5217,7 +5247,7 @@
       </c>
       <c r="D7">
         <f>D5+D6</f>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5237,11 +5267,11 @@
       </c>
       <c r="D9" s="23">
         <f>D7*E2</f>
-        <v>0.4580152671755725</v>
+        <v>0.46564885496183206</v>
       </c>
       <c r="E9" s="31">
         <f>D9</f>
-        <v>0.4580152671755725</v>
+        <v>0.46564885496183206</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5295,19 +5325,19 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>3218.0152671755723</v>
+        <v>3271.6488549618321</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17-[2]Ausentes!E23</f>
-        <v>1236.0152671755723</v>
+        <v>1275.6488549618321</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f ca="1">TODAY()-2</f>
-        <v>45864</v>
+        <v>45865</v>
       </c>
     </row>
   </sheetData>
